--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -1383,13 +1383,13 @@
     <t>1706 E Cheyenne Mountain Blvd, Colorado Springs, CO 80906</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>med</t>
   </si>
 </sst>
 </file>
@@ -2453,10 +2453,10 @@
   <dimension ref="B1:BL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AM87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="AW1" sqref="AW1:AW1048576"/>
+      <selection pane="bottomRight" activeCell="AU2" sqref="AU2:AU119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2793,13 +2793,13 @@
         <v>341</v>
       </c>
       <c r="AU2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW2" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX2" s="5" t="str">
         <f>CONCATENATE("{
@@ -2810,7 +2810,7 @@
         <v>{
     'name': "Jack Quinn Irish Ale House &amp; Pub",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks $3.50 Domestic Beers and Liquors&lt;br&gt;Drinks $4 Imports and House Wine by the Glass&lt;br&gt;Food 1/2 Priced Appetizers", 'link':"https://jackquinnspub.com/", 'pricing':"",   'phone-number': "", 'address': "21 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','pet','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Drinks $3.50 Domestic Beers and Liquors&lt;br&gt;Drinks $4 Imports and House Wine by the Glass&lt;br&gt;Food 1/2 Priced Appetizers", 'link':"https://jackquinnspub.com/", 'pricing':"",   'phone-number': "", 'address': "21 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY2" s="1" t="str">
         <f>IF(AS2&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="BA2" s="1" t="str">
         <f>IF(AU2="hard","&lt;img src=@img/hard.png@&gt;",IF(AU2="medium","&lt;img src=@img/medium.png@&gt;",IF(AU2="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB2" s="1" t="str">
         <f>IF(AV2="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
@@ -2834,11 +2834,11 @@
       </c>
       <c r="BD2" s="1" t="str">
         <f>CONCATENATE(AY2,AZ2,BA2,BB2,BC2,BK2)</f>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE2" s="1" t="str">
         <f>CONCATENATE(IF(AS2&gt;0,"outdoor ",""),IF(AT2&gt;0,"pet ",""),IF(AV2="true","drink ",""),IF(AW2="true","food ",""),AU2," ",E2," ",C2,IF(BJ2=TRUE," kid",""))</f>
-        <v>outdoor pet drink food easy  downtown</v>
+        <v>outdoor pet drink food med  downtown</v>
       </c>
       <c r="BF2" s="1" t="str">
         <f>IF(C2="Broadmoor","Broadmoor",IF(C2="manitou","Manitou Springs",IF(C2="downtown","Downtown",IF(C2="Monument","Monument",IF(C2="nacademy","North Academy",IF(C2="northgate","North Gate",IF(C2="oldcolo","Old Colorado Springs",IF(C2="powers","Powers Road",IF(C2="sacademy","South Academy",IF(C2="woodland","Woodlands Park",""))))))))))</f>
@@ -2991,13 +2991,13 @@
         <v>151</v>
       </c>
       <c r="AU3" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV3" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW3" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX3" s="5" t="str">
         <f t="shared" ref="AX3:AX66" si="22">CONCATENATE("{
@@ -3008,7 +3008,7 @@
         <v>{
     'name': "The Rabbit Hole",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1700", 'monday-end':"1900", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Select Local Drafts&lt;br&gt;$6 Wine by the Glass&lt;br&gt;$6 Select Specialty Cocktails&lt;br&gt;Happy hour food specials", 'link':"https://www.facebook.com/rabbitholedinneranddrinks/", 'pricing':"",   'phone-number': "", 'address': "101 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1700", 'monday-end':"1900", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Select Local Drafts&lt;br&gt;$6 Wine by the Glass&lt;br&gt;$6 Select Specialty Cocktails&lt;br&gt;Happy hour food specials", 'link':"https://www.facebook.com/rabbitholedinneranddrinks/", 'pricing':"",   'phone-number': "", 'address': "101 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY3" s="1" t="str">
         <f t="shared" ref="AY3:AY66" si="23">IF(AS3&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="BA3" s="1" t="str">
         <f t="shared" ref="BA3:BA66" si="25">IF(AU3="hard","&lt;img src=@img/hard.png@&gt;",IF(AU3="medium","&lt;img src=@img/medium.png@&gt;",IF(AU3="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB3" s="1" t="str">
         <f t="shared" ref="BB3:BB66" si="26">IF(AV3="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
@@ -3032,11 +3032,11 @@
       </c>
       <c r="BD3" s="1" t="str">
         <f t="shared" ref="BD3:BD66" si="28">CONCATENATE(AY3,AZ3,BA3,BB3,BC3,BK3)</f>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE3" s="1" t="str">
         <f t="shared" ref="BE3:BE66" si="29">CONCATENATE(IF(AS3&gt;0,"outdoor ",""),IF(AT3&gt;0,"pet ",""),IF(AV3="true","drink ",""),IF(AW3="true","food ",""),AU3," ",E3," ",C3,IF(BJ3=TRUE," kid",""))</f>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF3" s="1" t="str">
         <f t="shared" ref="BF3:BF66" si="30">IF(C3="Broadmoor","Broadmoor",IF(C3="manitou","Manitou Springs",IF(C3="downtown","Downtown",IF(C3="Monument","Monument",IF(C3="nacademy","North Academy",IF(C3="northgate","North Gate",IF(C3="oldcolo","Old Colorado Springs",IF(C3="powers","Powers Road",IF(C3="sacademy","South Academy",IF(C3="woodland","Woodlands Park",""))))))))))</f>
@@ -3187,20 +3187,20 @@
         <v>353</v>
       </c>
       <c r="AU4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV4" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV4" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW4" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX4" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Oskar Blues",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "All appetizers half price&lt;br&gt;$3.50 Core beers&lt;br&gt;$4.50 Jamison drinks&lt;br&gt;$2 Off wells and wines", 'link':"http://www.oskarbluesfooderies.com/", 'pricing':"",   'phone-number': "", 'address': "118 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "All appetizers half price&lt;br&gt;$3.50 Core beers&lt;br&gt;$4.50 Jamison drinks&lt;br&gt;$2 Off wells and wines", 'link':"http://www.oskarbluesfooderies.com/", 'pricing':"",   'phone-number': "", 'address': "118 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY4" s="1" t="str">
         <f t="shared" si="23"/>
@@ -3212,7 +3212,7 @@
       </c>
       <c r="BA4" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB4" s="1" t="str">
         <f t="shared" si="26"/>
@@ -3224,11 +3224,11 @@
       </c>
       <c r="BD4" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE4" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink food easy  downtown</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF4" s="1" t="str">
         <f t="shared" si="30"/>
@@ -3376,20 +3376,20 @@
         <v>66</v>
       </c>
       <c r="AU5" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV5" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV5" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW5" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX5" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "T-Byrd’s Tacos &amp; Tequila",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Margs&lt;br&gt;$5 Sangria Swirl&lt;br&gt;$3 Tacate, Dos XX, and Mandelo&lt;br&gt;$3 Baby Margs&lt;br&gt;Tacos $2.50-$3.25&lt;br&gt;$5 Guac&lt;br&gt;$3.95 Chips and Salsa", 'link':"http://www.tbyrdstacos.com/index.html", 'pricing':"",   'phone-number': "", 'address': "26 E Kiowa St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Margs&lt;br&gt;$5 Sangria Swirl&lt;br&gt;$3 Tacate, Dos XX, and Mandelo&lt;br&gt;$3 Baby Margs&lt;br&gt;Tacos $2.50-$3.25&lt;br&gt;$5 Guac&lt;br&gt;$3.95 Chips and Salsa", 'link':"http://www.tbyrdstacos.com/index.html", 'pricing':"",   'phone-number': "", 'address': "26 E Kiowa St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY5" s="1" t="str">
         <f t="shared" si="23"/>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="BA5" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB5" s="1" t="str">
         <f t="shared" si="26"/>
@@ -3413,11 +3413,11 @@
       </c>
       <c r="BD5" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE5" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF5" s="1" t="str">
         <f t="shared" si="30"/>
@@ -3568,20 +3568,20 @@
         <v>353</v>
       </c>
       <c r="AU6" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV6" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AW6" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX6" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "503W",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off all beers and specialty cocktails &lt;br&gt; $3 wells and house wines", 'link':"http://www.503w.co/", 'pricing':"",   'phone-number': "", 'address': "503 W Colorado Ave, Colorado Springs, CO 80905", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off all beers and specialty cocktails &lt;br&gt; $3 wells and house wines", 'link':"http://www.503w.co/", 'pricing':"",   'phone-number': "", 'address': "503 W Colorado Ave, Colorado Springs, CO 80905", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY6" s="1" t="str">
         <f t="shared" si="23"/>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="BA6" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB6" s="1" t="str">
         <f t="shared" si="26"/>
@@ -3605,11 +3605,11 @@
       </c>
       <c r="BD6" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE6" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink easy  downtown</v>
+        <v>outdoor drink med  downtown</v>
       </c>
       <c r="BF6" s="1" t="str">
         <f t="shared" si="30"/>
@@ -3757,20 +3757,20 @@
         <v>70</v>
       </c>
       <c r="AU7" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV7" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV7" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW7" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX7" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Streetcar520",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Daily from 3pm to 6pm and 9pm to Close!&lt;br&gt;1/2 price share plates, $3 wines and drafts, $4 wells, $5 beer &amp; a shot. ", 'link':"http://www.streetcar520.com/", 'pricing':"",   'phone-number': "", 'address': "520 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Daily from 3pm to 6pm and 9pm to Close!&lt;br&gt;1/2 price share plates, $3 wines and drafts, $4 wells, $5 beer &amp; a shot. ", 'link':"http://www.streetcar520.com/", 'pricing':"",   'phone-number': "", 'address': "520 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY7" s="1" t="str">
         <f t="shared" si="23"/>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="BA7" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB7" s="1" t="str">
         <f t="shared" si="26"/>
@@ -3794,11 +3794,11 @@
       </c>
       <c r="BD7" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE7" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF7" s="1" t="str">
         <f t="shared" si="30"/>
@@ -3955,20 +3955,20 @@
         <v>353</v>
       </c>
       <c r="AU8" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV8" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV8" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW8" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX8" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Jose Muldoon’s Food &amp; Drink Downtown",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$3.50 Drinks - House Margaritas, Draft Beers, Wines, Wells and Sangria&lt;br&gt;$5 Grub - Chili Con Queso, Grilled Chicken Mesquitos, Guacamole, Aztec Dip&lt;br&gt;$6 Grub - 1/2 Nacho Grande, Quesadilla, Carnitas Street Tacos&lt;br&gt;$4 Domestic Drafts&lt;br&gt;$5.50 Premium Drafts", 'link':"http://www.josemuldoons.com/", 'pricing':"",   'phone-number': "", 'address': "222 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$3.50 Drinks - House Margaritas, Draft Beers, Wines, Wells and Sangria&lt;br&gt;$5 Grub - Chili Con Queso, Grilled Chicken Mesquitos, Guacamole, Aztec Dip&lt;br&gt;$6 Grub - 1/2 Nacho Grande, Quesadilla, Carnitas Street Tacos&lt;br&gt;$4 Domestic Drafts&lt;br&gt;$5.50 Premium Drafts", 'link':"http://www.josemuldoons.com/", 'pricing':"",   'phone-number': "", 'address': "222 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY8" s="1" t="str">
         <f t="shared" si="23"/>
@@ -3980,7 +3980,7 @@
       </c>
       <c r="BA8" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB8" s="1" t="str">
         <f t="shared" si="26"/>
@@ -3992,11 +3992,11 @@
       </c>
       <c r="BD8" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE8" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink food easy  downtown</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF8" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4162,20 +4162,20 @@
         <v>341</v>
       </c>
       <c r="AU9" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV9" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV9" s="4" t="s">
+      <c r="AW9" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW9" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX9" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Phantom Canyon Brewing Company",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Every day from 3-6 pm, Sun-Thurs from 10 pm-close $3 beers, $3 house wines, $3 wells, $12 pitchers of beer&lt;br&gt;&lt;b&gt;Sunday&lt;/b&gt; $4 bloody marys &amp; mimosas all day. happy hour all day in the billiards hall&lt;br&gt;&lt;b&gt;Monday&lt;/b&gt; $4 Margs&lt;br&gt;&lt;b&gt;Tuesday&lt;/b&gt; $6 Select growler fills&lt;br&gt;", 'link':"http://www.phantomcanyon.com/", 'pricing':"",   'phone-number': "", 'address': "2 E Pikes Peak Ave, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','pet','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Every day from 3-6 pm, Sun-Thurs from 10 pm-close $3 beers, $3 house wines, $3 wells, $12 pitchers of beer&lt;br&gt;&lt;b&gt;Sunday&lt;/b&gt; $4 bloody marys &amp; mimosas all day. happy hour all day in the billiards hall&lt;br&gt;&lt;b&gt;Monday&lt;/b&gt; $4 Margs&lt;br&gt;&lt;b&gt;Tuesday&lt;/b&gt; $6 Select growler fills&lt;br&gt;", 'link':"http://www.phantomcanyon.com/", 'pricing':"",   'phone-number': "", 'address': "2 E Pikes Peak Ave, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','pet','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY9" s="1" t="str">
         <f t="shared" si="23"/>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="BA9" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB9" s="1" t="str">
         <f t="shared" si="26"/>
@@ -4199,11 +4199,11 @@
       </c>
       <c r="BD9" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE9" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor pet drink easy  downtown</v>
+        <v>outdoor pet drink med  downtown</v>
       </c>
       <c r="BF9" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4364,20 +4364,20 @@
         <v>353</v>
       </c>
       <c r="AU10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV10" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV10" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW10" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX10" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Thunder and Buttons II",
     'area': "oldcolo",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "MONDAY 7pm-Midnight  $3 Jameson, $3 Tuaca, and $3 Jager!&lt;br&gt;TUESDAY Tequila Tuesdays! $3 Tecate cans, $5 Patron &amp; $3 Sauza Silver shots ALL DAY!  Happy Hour Drink Specials from 9pm-Midnight.&lt;br&gt;WEDNESDAY $3 Wednesdays!!  $3 food specials!  $3 Mimosas!  $3 Wells, $3 House wines, $2.50 Rolling Rock ALL DAY!!&lt;br&gt;THURSDAY $5 off pitchers of Bristol pitchers! $3.50 Bristol pints! $4 Bomb shots!   9pm-Midnight.&lt;br&gt;FRIDAY $10 Pitchers of Coors Light 9pm-Midnight.&lt;br&gt;SATURDAY $3 Fireball shots, $3 Tuaca shots, 9pm-Midnight.&lt;br&gt;SUNDAY All Day Happy Hour!  $3 Mimosas!  Plus-7pm-Midnight. $3 Tuaca, $3 Jager and $3 Jameson!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2415 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1500", 'saturday-end':"1900"},  'description': "MONDAY 7pm-Midnight  $3 Jameson, $3 Tuaca, and $3 Jager!&lt;br&gt;TUESDAY Tequila Tuesdays! $3 Tecate cans, $5 Patron &amp; $3 Sauza Silver shots ALL DAY!  Happy Hour Drink Specials from 9pm-Midnight.&lt;br&gt;WEDNESDAY $3 Wednesdays!!  $3 food specials!  $3 Mimosas!  $3 Wells, $3 House wines, $2.50 Rolling Rock ALL DAY!!&lt;br&gt;THURSDAY $5 off pitchers of Bristol pitchers! $3.50 Bristol pints! $4 Bomb shots!   9pm-Midnight.&lt;br&gt;FRIDAY $10 Pitchers of Coors Light 9pm-Midnight.&lt;br&gt;SATURDAY $3 Fireball shots, $3 Tuaca shots, 9pm-Midnight.&lt;br&gt;SUNDAY All Day Happy Hour!  $3 Mimosas!  Plus-7pm-Midnight. $3 Tuaca, $3 Jager and $3 Jameson!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2415 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY10" s="1" t="str">
         <f t="shared" si="23"/>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="BA10" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB10" s="1" t="str">
         <f t="shared" si="26"/>
@@ -4401,11 +4401,11 @@
       </c>
       <c r="BD10" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE10" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink food easy  oldcolo</v>
+        <v>outdoor drink food med  oldcolo</v>
       </c>
       <c r="BF10" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4518,20 +4518,20 @@
         <v/>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX11" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Cucuru Gallery Cafe",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2332 Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2332 Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY11" s="1" t="str">
         <f t="shared" si="23"/>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="BA11" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB11" s="1" t="str">
         <f t="shared" si="26"/>
@@ -4555,11 +4555,11 @@
       </c>
       <c r="BD11" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE11" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  oldcolo</v>
+        <v>med  oldcolo</v>
       </c>
       <c r="BF11" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4693,20 +4693,20 @@
         <v>341</v>
       </c>
       <c r="AU12" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV12" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV12" s="4" t="s">
+      <c r="AW12" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW12" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX12" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Rustica Pizzeria",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 2527 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 2527 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY12" s="1" t="str">
         <f t="shared" si="23"/>
@@ -4718,7 +4718,7 @@
       </c>
       <c r="BA12" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB12" s="1" t="str">
         <f t="shared" si="26"/>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="BD12" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE12" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>pet drink easy  oldcolo</v>
+        <v>pet drink med  oldcolo</v>
       </c>
       <c r="BF12" s="1" t="str">
         <f t="shared" si="30"/>
@@ -4892,20 +4892,20 @@
       </c>
       <c r="AR13" s="3"/>
       <c r="AU13" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV13" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV13" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW13" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX13" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Alchemy",
     'area': "oldcolo",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "Sun : All Day Happy Hour and Service Industry Night: $2.50 Jameson&lt;br&gt;Mon: Prime Rib Night ​14oz Prime Rib $16 Service Industry Night : $2.50 Jameson &amp; Late Night Happy Hour 9-1&lt;br&gt;Wed: Trivia+ 1/2 off Wine Bottles &lt;br&gt;Thurs: Live Music by Rawbert&lt;br&gt; Mon.-Sat. 4-7: $1 Off Appetizers/Drafts/ Wells/ House Wine &lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2625 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "Sun : All Day Happy Hour and Service Industry Night: $2.50 Jameson&lt;br&gt;Mon: Prime Rib Night ​14oz Prime Rib $16 Service Industry Night : $2.50 Jameson &amp; Late Night Happy Hour 9-1&lt;br&gt;Wed: Trivia+ 1/2 off Wine Bottles &lt;br&gt;Thurs: Live Music by Rawbert&lt;br&gt; Mon.-Sat. 4-7: $1 Off Appetizers/Drafts/ Wells/ House Wine &lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2625 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY13" s="1" t="str">
         <f t="shared" si="23"/>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="BA13" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB13" s="1" t="str">
         <f t="shared" si="26"/>
@@ -4929,11 +4929,11 @@
       </c>
       <c r="BD13" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE13" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  oldcolo</v>
+        <v>drink food med  oldcolo</v>
       </c>
       <c r="BF13" s="1" t="str">
         <f t="shared" si="30"/>
@@ -5080,20 +5080,20 @@
       </c>
       <c r="AR14" s="3"/>
       <c r="AU14" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV14" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV14" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW14" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX14" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Swirl Wine Bar",
     'area': "manitou",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 house wine, $4 select draft, $4 wells, $2.5 Full Sail Sessions Plus, Small Plate Deals!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "717 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 house wine, $4 select draft, $4 wells, $2.5 Full Sail Sessions Plus, Small Plate Deals!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "717 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY14" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5105,7 +5105,7 @@
       </c>
       <c r="BA14" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB14" s="1" t="str">
         <f t="shared" si="26"/>
@@ -5117,11 +5117,11 @@
       </c>
       <c r="BD14" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE14" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  manitou</v>
+        <v>drink food med  manitou</v>
       </c>
       <c r="BF14" s="1" t="str">
         <f t="shared" si="30"/>
@@ -5255,20 +5255,20 @@
       </c>
       <c r="AR15" s="3"/>
       <c r="AU15" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV15" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV15" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW15" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX15" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Townhouse Lounge",
     'area': "manitou",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"2100", 'tuesday-start':"1500", 'tuesday-end':"2100", 'wednesday-start':"1500", 'wednesday-end':"2100", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "1 Topping Pizza - $7&lt;br&gt;Wines, wells, and drafts - $4", 'link':"", 'pricing':"",   'phone-number': "", 'address': "907 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"2100", 'tuesday-start':"1500", 'tuesday-end':"2100", 'wednesday-start':"1500", 'wednesday-end':"2100", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "1 Topping Pizza - $7&lt;br&gt;Wines, wells, and drafts - $4", 'link':"", 'pricing':"",   'phone-number': "", 'address': "907 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY15" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="BA15" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB15" s="1" t="str">
         <f t="shared" si="26"/>
@@ -5292,11 +5292,11 @@
       </c>
       <c r="BD15" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE15" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  manitou</v>
+        <v>drink food med  manitou</v>
       </c>
       <c r="BF15" s="1" t="str">
         <f t="shared" si="30"/>
@@ -5410,20 +5410,20 @@
       </c>
       <c r="AR16" s="3"/>
       <c r="AU16" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX16" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Loop",
     'area': "manitou",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "965 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "965 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY16" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5435,7 +5435,7 @@
       </c>
       <c r="BA16" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB16" s="1" t="str">
         <f t="shared" si="26"/>
@@ -5447,11 +5447,11 @@
       </c>
       <c r="BD16" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE16" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  manitou</v>
+        <v>med  manitou</v>
       </c>
       <c r="BF16" s="1" t="str">
         <f t="shared" si="30"/>
@@ -5591,20 +5591,20 @@
       </c>
       <c r="AR17" s="3"/>
       <c r="AU17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV17" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV17" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW17" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX17" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Mona Lisa Fondue Restaurant",
     'area': "manitou",'hours': {
-      'sunday-start':"1630", 'sunday-end':"1830", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1630", 'thursday-end':"1830", 'friday-start':"1630", 'friday-end':"1830", 'saturday-start':"1630", 'saturday-end':"1830"},  'description': "$5 glasses of wine and 40% off all food", 'link':"", 'pricing':"",   'phone-number': "", 'address': "733 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1630", 'sunday-end':"1830", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"1630", 'thursday-end':"1830", 'friday-start':"1630", 'friday-end':"1830", 'saturday-start':"1630", 'saturday-end':"1830"},  'description': "$5 glasses of wine and 40% off all food", 'link':"", 'pricing':"",   'phone-number': "", 'address': "733 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY17" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5616,7 +5616,7 @@
       </c>
       <c r="BA17" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB17" s="1" t="str">
         <f t="shared" si="26"/>
@@ -5628,11 +5628,11 @@
       </c>
       <c r="BD17" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE17" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  manitou</v>
+        <v>drink food med  manitou</v>
       </c>
       <c r="BF17" s="1" t="str">
         <f t="shared" si="30"/>
@@ -5778,20 +5778,20 @@
       </c>
       <c r="AR18" s="3"/>
       <c r="AU18" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV18" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV18" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW18" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX18" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Keg Lounge",
     'area': "manitou",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off well, MAT wine&lt;br&gt;$1 off draft beer and half price appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "730 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off well, MAT wine&lt;br&gt;$1 off draft beer and half price appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "730 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY18" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5803,7 +5803,7 @@
       </c>
       <c r="BA18" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB18" s="1" t="str">
         <f t="shared" si="26"/>
@@ -5815,11 +5815,11 @@
       </c>
       <c r="BD18" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE18" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  manitou</v>
+        <v>drink food med  manitou</v>
       </c>
       <c r="BF18" s="1" t="str">
         <f t="shared" si="30"/>
@@ -5964,20 +5964,20 @@
         <v/>
       </c>
       <c r="AU19" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV19" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV19" s="4" t="s">
+      <c r="AW19" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW19" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX19" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Royal Tavern",
     'area': "manitou",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$6 pitchers; $2.75 wines and domestics; $2 drafts", 'link':"", 'pricing':"",   'phone-number': "", 'address': "924 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$6 pitchers; $2.75 wines and domestics; $2 drafts", 'link':"", 'pricing':"",   'phone-number': "", 'address': "924 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY19" s="1" t="str">
         <f t="shared" si="23"/>
@@ -5989,7 +5989,7 @@
       </c>
       <c r="BA19" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB19" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6001,11 +6001,11 @@
       </c>
       <c r="BD19" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE19" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  manitou</v>
+        <v>drink med  manitou</v>
       </c>
       <c r="BF19" s="1" t="str">
         <f t="shared" si="30"/>
@@ -6157,20 +6157,20 @@
       </c>
       <c r="AR20" s="3"/>
       <c r="AU20" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV20" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV20" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW20" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX20" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "PJs Bistro",
     'area': "manitou",'hours': {
-      'sunday-start':"1700", 'sunday-end':"1800", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1700", 'tuesday-end':"1800", 'wednesday-start':"1700", 'wednesday-end':"1800", 'thursday-start':"1700", 'thursday-end':"1800", 'friday-start':"1700", 'friday-end':"1800", 'saturday-start':"1700", 'saturday-end':"1800"},  'description': "Appetizers and drinks 25% off&lt;br&gt;Every Wed from 5-9p.m. Ladies get a free glass of wine or beer with purchase of an entree", 'link':"", 'pricing':"",   'phone-number': "", 'address': "915 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1700", 'sunday-end':"1800", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1700", 'tuesday-end':"1800", 'wednesday-start':"1700", 'wednesday-end':"1800", 'thursday-start':"1700", 'thursday-end':"1800", 'friday-start':"1700", 'friday-end':"1800", 'saturday-start':"1700", 'saturday-end':"1800"},  'description': "Appetizers and drinks 25% off&lt;br&gt;Every Wed from 5-9p.m. Ladies get a free glass of wine or beer with purchase of an entree", 'link':"", 'pricing':"",   'phone-number': "", 'address': "915 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY20" s="1" t="str">
         <f t="shared" si="23"/>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="BA20" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB20" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6194,11 +6194,11 @@
       </c>
       <c r="BD20" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE20" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  manitou</v>
+        <v>drink food med  manitou</v>
       </c>
       <c r="BF20" s="1" t="str">
         <f t="shared" si="30"/>
@@ -6356,20 +6356,20 @@
       </c>
       <c r="AR21" s="3"/>
       <c r="AU21" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV21" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV21" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW21" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX21" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Hops n Drops",
     'area': "powers",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "Special pricing on food and drinks", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5820 Stetson Hills Blvd, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1800", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"1400", 'saturday-end':"1800"},  'description': "Special pricing on food and drinks", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5820 Stetson Hills Blvd, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY21" s="1" t="str">
         <f t="shared" si="23"/>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="BA21" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB21" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6393,11 +6393,11 @@
       </c>
       <c r="BD21" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE21" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF21" s="1" t="str">
         <f t="shared" si="30"/>
@@ -6555,20 +6555,20 @@
       </c>
       <c r="AR22" s="3"/>
       <c r="AU22" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV22" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV22" s="4" t="s">
+      <c r="AW22" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW22" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX22" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Single Barrel Craft Burgers and Brews",
     'area': "powers",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "2 for 1 cocktails, beers, and wines", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5885 Stetson Hills Blvd, Colorado Springs, CO 80923", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "2 for 1 cocktails, beers, and wines", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5885 Stetson Hills Blvd, Colorado Springs, CO 80923", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY22" s="1" t="str">
         <f t="shared" si="23"/>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="BA22" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB22" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6592,11 +6592,11 @@
       </c>
       <c r="BD22" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE22" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  powers</v>
+        <v>drink med  powers</v>
       </c>
       <c r="BF22" s="1" t="str">
         <f t="shared" si="30"/>
@@ -6709,20 +6709,20 @@
         <v/>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX23" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Vinum Populi",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6165 Barnes Rd #170, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6165 Barnes Rd #170, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY23" s="1" t="str">
         <f t="shared" si="23"/>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="BA23" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB23" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6746,11 +6746,11 @@
       </c>
       <c r="BD23" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE23" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  powers</v>
+        <v>med  powers</v>
       </c>
       <c r="BF23" s="1" t="str">
         <f t="shared" si="30"/>
@@ -6895,20 +6895,20 @@
         <v/>
       </c>
       <c r="AU24" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV24" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV24" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW24" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX24" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Rhinos Sports and Spirits",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off all drinks&lt;br&gt;$2 off appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4307 Integrity Center Point, Colorado Springs, CO 80917", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off all drinks&lt;br&gt;$2 off appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4307 Integrity Center Point, Colorado Springs, CO 80917", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY24" s="1" t="str">
         <f t="shared" si="23"/>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="BA24" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB24" s="1" t="str">
         <f t="shared" si="26"/>
@@ -6932,11 +6932,11 @@
       </c>
       <c r="BD24" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE24" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF24" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7093,20 +7093,20 @@
         <v>11am-7pm</v>
       </c>
       <c r="AU25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV25" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV25" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW25" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX25" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Cleats Bar and Grill East",
     'area': "powers",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1100", 'monday-end':"1900", 'tuesday-start':"1100", 'tuesday-end':"1900", 'wednesday-start':"1100", 'wednesday-end':"1900", 'thursday-start':"1100", 'thursday-end':"1900", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "$3 Wells, Pints, House Wines, Bottles &amp; Cans with appetizer specials and much, much more!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6120 Barnes Rd, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1100", 'monday-end':"1900", 'tuesday-start':"1100", 'tuesday-end':"1900", 'wednesday-start':"1100", 'wednesday-end':"1900", 'thursday-start':"1100", 'thursday-end':"1900", 'friday-start':"1100", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "$3 Wells, Pints, House Wines, Bottles &amp; Cans with appetizer specials and much, much more!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6120 Barnes Rd, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY25" s="1" t="str">
         <f t="shared" si="23"/>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="BA25" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB25" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7130,11 +7130,11 @@
       </c>
       <c r="BD25" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE25" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF25" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7288,13 +7288,13 @@
         <v>353</v>
       </c>
       <c r="AU26" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV26" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV26" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW26" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX26" s="5" t="str">
         <f t="shared" si="22"/>
@@ -7302,7 +7302,7 @@
     'name': "Salsa Brava Fresh Mexican Grill",
     'area': "powers",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1830", 'tuesday-start':"1400", 'tuesday-end':"1830", 'wednesday-start':"1400", 'wednesday-end':"1830", 'thursday-start':"1400", 'thursday-end':"1830", 'friday-start':"1400", 'friday-end':"1830", 'saturday-start':"1100", 'saturday-end':"1800"},  'description': "HOUSE MARGARITA $6 &lt;br&gt;SALSA SWIRL MARGARITA $6&lt;br&gt;FROZEN FLAVORED MARGARITA $6&lt;br&gt;DOMESTIC DRAFTS $3&lt;br&gt;IMPORT &amp; CRAFT DRAFTS $3.50&lt;br&gt;HOUSE WINE $3&lt;br&gt;WELL DRINKS $3&lt;br&gt;IMPERIAL LAGER $3&lt;br&gt;COCONUT SHRIMP (3) $8&lt;br&gt;CHICKEN QUESADILLA $7&lt;br&gt;NACHOS BRAVA $7&lt;br&gt;TAPAS SHRIMP CEVICHE $3.50&lt;br&gt;TAPAS GUACAMOLE $3.50&lt;br&gt;TAPAS CHILE CON QUESO $3.50&lt;br&gt;CABO CHICKEN TACO $3.50&lt;br&gt;CRISPY PORK TACO $3.50&lt;br&gt;GRINGO TACO $3
-", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5925 Dublin Blvd Unit A, Colorado Springs, CO 80923", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5925 Dublin Blvd Unit A, Colorado Springs, CO 80923", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY26" s="1" t="str">
         <f t="shared" si="23"/>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="BA26" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB26" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7326,11 +7326,11 @@
       </c>
       <c r="BD26" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE26" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink food easy  powers</v>
+        <v>outdoor drink food med  powers</v>
       </c>
       <c r="BF26" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7442,20 +7442,20 @@
         <v/>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX27" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Peaks N Pines Brewing Company",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4005 Tutt Blvd, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4005 Tutt Blvd, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY27" s="1" t="str">
         <f t="shared" si="23"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="BA27" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB27" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7479,11 +7479,11 @@
       </c>
       <c r="BD27" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE27" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  powers</v>
+        <v>med  powers</v>
       </c>
       <c r="BF27" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7632,20 +7632,20 @@
         <v>341</v>
       </c>
       <c r="AU28" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV28" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV28" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW28" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX28" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Wobbly Olive",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$6 Speciality Martinis&lt;br&gt;Half Off:  Bottled Beer&lt;br&gt;House Wine $5&lt;br&gt;$2.00 Off All Food", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3317 Cinema Point, Colorado Springs, CO 80922", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$6 Speciality Martinis&lt;br&gt;Half Off:  Bottled Beer&lt;br&gt;House Wine $5&lt;br&gt;$2.00 Off All Food", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3317 Cinema Point, Colorado Springs, CO 80922", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY28" s="1" t="str">
         <f t="shared" si="23"/>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="BA28" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB28" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7669,11 +7669,11 @@
       </c>
       <c r="BD28" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE28" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>pet drink food easy  powers</v>
+        <v>pet drink food med  powers</v>
       </c>
       <c r="BF28" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7818,20 +7818,20 @@
         <v/>
       </c>
       <c r="AU29" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV29" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV29" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW29" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX29" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Bar Louie",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "All 14oz drafts $3.50&lt;br&gt;Wines by the glass $4.50&lt;br&gt;Signature martinis $5.50&lt;br&gt;Flatbreads and Select Apps Half Price", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3255 Cinema Point, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "All 14oz drafts $3.50&lt;br&gt;Wines by the glass $4.50&lt;br&gt;Signature martinis $5.50&lt;br&gt;Flatbreads and Select Apps Half Price", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3255 Cinema Point, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY29" s="1" t="str">
         <f t="shared" si="23"/>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="BA29" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB29" s="1" t="str">
         <f t="shared" si="26"/>
@@ -7855,11 +7855,11 @@
       </c>
       <c r="BD29" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE29" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF29" s="1" t="str">
         <f t="shared" si="30"/>
@@ -7972,20 +7972,20 @@
       </c>
       <c r="AR30" s="17"/>
       <c r="AU30" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX30" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Fox and Hound",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 3101 New Center Point, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 3101 New Center Point, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY30" s="1" t="str">
         <f t="shared" si="23"/>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="BA30" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB30" s="1" t="str">
         <f t="shared" si="26"/>
@@ -8009,11 +8009,11 @@
       </c>
       <c r="BD30" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE30" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  powers</v>
+        <v>med  powers</v>
       </c>
       <c r="BF30" s="1" t="str">
         <f t="shared" si="30"/>
@@ -8127,20 +8127,20 @@
       </c>
       <c r="AR31" s="9"/>
       <c r="AU31" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX31" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Rhinos Ranch",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5853 Palmer Park Blvd, Colorado Springs, CO 80915", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5853 Palmer Park Blvd, Colorado Springs, CO 80915", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY31" s="1" t="str">
         <f t="shared" si="23"/>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="BA31" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB31" s="1" t="str">
         <f t="shared" si="26"/>
@@ -8164,11 +8164,11 @@
       </c>
       <c r="BD31" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE31" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  powers</v>
+        <v>med  powers</v>
       </c>
       <c r="BF31" s="1" t="str">
         <f t="shared" si="30"/>
@@ -8319,20 +8319,20 @@
         <v/>
       </c>
       <c r="AU32" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV32" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV32" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW32" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX32" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Chilis - Powers",
     'area': "powers",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;$3&lt;/b&gt;&lt;br&gt;Chips and Salsa&lt;br&gt;Fried Pickles&lt;br&lt;b&gt;$4&lt;/b&gt;&lt;br&gt;Awesome Blossom Petals&lt;br&gt;Crispy Cheddar Bites&lt;br&gt;Half Order Texas Cheese Fries&lt;br&gt;&lt;b&gt;$5&lt;/b&gt;&lt;br&gt;White Spinach Queso&lt;br&gt;Fresh Guacamole&lt;br&gt;Half Margherita Flatbread&lt;br&gt;&lt;b&gt;$6&lt;/b&gt;&lt;br&gt;Southwestern Eggrolls&lt;br&gt;Boneless Wings (all flavors)", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2890 New Center Point, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;$3&lt;/b&gt;&lt;br&gt;Chips and Salsa&lt;br&gt;Fried Pickles&lt;br&lt;b&gt;$4&lt;/b&gt;&lt;br&gt;Awesome Blossom Petals&lt;br&gt;Crispy Cheddar Bites&lt;br&gt;Half Order Texas Cheese Fries&lt;br&gt;&lt;b&gt;$5&lt;/b&gt;&lt;br&gt;White Spinach Queso&lt;br&gt;Fresh Guacamole&lt;br&gt;Half Margherita Flatbread&lt;br&gt;&lt;b&gt;$6&lt;/b&gt;&lt;br&gt;Southwestern Eggrolls&lt;br&gt;Boneless Wings (all flavors)", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2890 New Center Point, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY32" s="1" t="str">
         <f t="shared" si="23"/>
@@ -8344,7 +8344,7 @@
       </c>
       <c r="BA32" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB32" s="1" t="str">
         <f t="shared" si="26"/>
@@ -8356,11 +8356,11 @@
       </c>
       <c r="BD32" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE32" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF32" s="1" t="str">
         <f t="shared" si="30"/>
@@ -8505,20 +8505,20 @@
         <v/>
       </c>
       <c r="AU33" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV33" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV33" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW33" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX33" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Cork and Cask",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off Wells&lt;br&gt;$1 off House Wines&lt;br&gt;$1 off Draft Beers&lt;br50% off Small Plates", 'link':"", 'pricing':"",   'phone-number': "", 'address': "60 E Moreno Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off Wells&lt;br&gt;$1 off House Wines&lt;br&gt;$1 off Draft Beers&lt;br50% off Small Plates", 'link':"", 'pricing':"",   'phone-number': "", 'address': "60 E Moreno Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY33" s="1" t="str">
         <f t="shared" si="23"/>
@@ -8530,7 +8530,7 @@
       </c>
       <c r="BA33" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB33" s="1" t="str">
         <f t="shared" si="26"/>
@@ -8542,11 +8542,11 @@
       </c>
       <c r="BD33" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE33" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF33" s="1" t="str">
         <f t="shared" si="30"/>
@@ -8707,20 +8707,20 @@
         <v>353</v>
       </c>
       <c r="AU34" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV34" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV34" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW34" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX34" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Warehouse Restaurant and Gallery",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "All Draft Beers $4.00&lt;br&gt;Domestic Bottles $4.00&lt;br&gt;House Wines $5.00&lt;brHouse Sangria $5.00&lt;br&gt;Bartender's Choice $6.00&lt;br&gt;Trout Tacos or Sesame Fried Calamari $6.00&lt;br&gt;Well Martinis, Mules &amp; Margaritas $6.00&lt;br&gt;Blue Corn Jalapeno Cheddar Hush Puppies $4.00&lt;br&gt;Hand-Cut Fries $4.00", 'link':"", 'pricing':"",   'phone-number': "", 'address': "25 W Cimarron St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "All Draft Beers $4.00&lt;br&gt;Domestic Bottles $4.00&lt;br&gt;House Wines $5.00&lt;brHouse Sangria $5.00&lt;br&gt;Bartender's Choice $6.00&lt;br&gt;Trout Tacos or Sesame Fried Calamari $6.00&lt;br&gt;Well Martinis, Mules &amp; Margaritas $6.00&lt;br&gt;Blue Corn Jalapeno Cheddar Hush Puppies $4.00&lt;br&gt;Hand-Cut Fries $4.00", 'link':"", 'pricing':"",   'phone-number': "", 'address': "25 W Cimarron St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY34" s="1" t="str">
         <f t="shared" si="23"/>
@@ -8732,7 +8732,7 @@
       </c>
       <c r="BA34" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB34" s="1" t="str">
         <f t="shared" si="26"/>
@@ -8744,11 +8744,11 @@
       </c>
       <c r="BD34" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE34" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink food easy  downtown</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF34" s="1" t="str">
         <f t="shared" si="30"/>
@@ -8900,20 +8900,20 @@
       </c>
       <c r="AR35" s="3"/>
       <c r="AU35" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV35" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV35" s="4" t="s">
+      <c r="AW35" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW35" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX35" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Zodiac Venue",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1900", 'tuesday-start':"1400", 'tuesday-end':"1900", 'wednesday-start':"1400", 'wednesday-end':"1900", 'thursday-start':"1400", 'thursday-end':"1900", 'friday-start':"1400", 'friday-end':"1900", 'saturday-start':"1400", 'saturday-end':"1900"},  'description': "Drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "230 Pueblo Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1900", 'tuesday-start':"1400", 'tuesday-end':"1900", 'wednesday-start':"1400", 'wednesday-end':"1900", 'thursday-start':"1400", 'thursday-end':"1900", 'friday-start':"1400", 'friday-end':"1900", 'saturday-start':"1400", 'saturday-end':"1900"},  'description': "Drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "230 Pueblo Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY35" s="1" t="str">
         <f t="shared" si="23"/>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="BA35" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB35" s="1" t="str">
         <f t="shared" si="26"/>
@@ -8937,11 +8937,11 @@
       </c>
       <c r="BD35" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE35" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  downtown</v>
+        <v>drink med  downtown</v>
       </c>
       <c r="BF35" s="1" t="str">
         <f t="shared" si="30"/>
@@ -9099,20 +9099,20 @@
       </c>
       <c r="AR36" s="3"/>
       <c r="AU36" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV36" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV36" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW36" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX36" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Bench",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$1 off all drafts, house wines, well drinks, and can beer. Discounted food.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "424 S Nevada Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$1 off all drafts, house wines, well drinks, and can beer. Discounted food.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "424 S Nevada Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY36" s="1" t="str">
         <f t="shared" si="23"/>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="BA36" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB36" s="1" t="str">
         <f t="shared" si="26"/>
@@ -9136,11 +9136,11 @@
       </c>
       <c r="BD36" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE36" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF36" s="1" t="str">
         <f t="shared" si="30"/>
@@ -9298,20 +9298,20 @@
       </c>
       <c r="AR37" s="3"/>
       <c r="AU37" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV37" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV37" s="4" t="s">
+      <c r="AW37" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW37" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX37" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Triple Nickel Tavern",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 wells; $2.50 domestics; $1 off drafts except Pabst Blue Ribbon", 'link':"", 'pricing':"",   'phone-number': "", 'address': "26 S Wahsatch Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 wells; $2.50 domestics; $1 off drafts except Pabst Blue Ribbon", 'link':"", 'pricing':"",   'phone-number': "", 'address': "26 S Wahsatch Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY37" s="1" t="str">
         <f t="shared" si="23"/>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="BA37" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB37" s="1" t="str">
         <f t="shared" si="26"/>
@@ -9335,11 +9335,11 @@
       </c>
       <c r="BD37" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE37" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  downtown</v>
+        <v>drink med  downtown</v>
       </c>
       <c r="BF37" s="1" t="str">
         <f t="shared" si="30"/>
@@ -9485,20 +9485,20 @@
       </c>
       <c r="AR38" s="6"/>
       <c r="AU38" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV38" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV38" s="4" t="s">
+      <c r="AW38" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW38" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX38" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Archives",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"1700", 'saturday-end':"1900"},  'description': "Half off cocktaills", 'link':"", 'pricing':"",   'phone-number': "", 'address': "15 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"1700", 'saturday-end':"1900"},  'description': "Half off cocktaills", 'link':"", 'pricing':"",   'phone-number': "", 'address': "15 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY38" s="1" t="str">
         <f t="shared" si="23"/>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="BA38" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB38" s="1" t="str">
         <f t="shared" si="26"/>
@@ -9522,11 +9522,11 @@
       </c>
       <c r="BD38" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE38" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  downtown</v>
+        <v>drink med  downtown</v>
       </c>
       <c r="BF38" s="1" t="str">
         <f t="shared" si="30"/>
@@ -9666,20 +9666,20 @@
       </c>
       <c r="AR39" s="3"/>
       <c r="AU39" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV39" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV39" s="4" t="s">
+      <c r="AW39" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW39" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX39" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Bar K",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Mooseheads/Monday&lt;br&gt;$2 Tecates/Tuesday&lt;br&gt; 1/2 price bottles on “Wine Down” Wednesday &lt;br&gt;$3.50 Jameson on Thirsty Thursday", 'link':"", 'pricing':"",   'phone-number': "", 'address': "124 E Costilla St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Mooseheads/Monday&lt;br&gt;$2 Tecates/Tuesday&lt;br&gt; 1/2 price bottles on “Wine Down” Wednesday &lt;br&gt;$3.50 Jameson on Thirsty Thursday", 'link':"", 'pricing':"",   'phone-number': "", 'address': "124 E Costilla St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY39" s="1" t="str">
         <f t="shared" si="23"/>
@@ -9691,7 +9691,7 @@
       </c>
       <c r="BA39" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB39" s="1" t="str">
         <f t="shared" si="26"/>
@@ -9703,11 +9703,11 @@
       </c>
       <c r="BD39" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE39" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  downtown</v>
+        <v>drink med  downtown</v>
       </c>
       <c r="BF39" s="1" t="str">
         <f t="shared" si="30"/>
@@ -9865,20 +9865,20 @@
       </c>
       <c r="AR40" s="10"/>
       <c r="AU40" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV40" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV40" s="4" t="s">
+      <c r="AW40" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW40" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX40" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Gasoline Alley",
     'area': "downtown",'hours': {
-      'sunday-start':"1800", 'sunday-end':"2200", 'monday-start':"1800", 'monday-end':"2200", 'tuesday-start':"1800", 'tuesday-end':"2200", 'wednesday-start':"1800", 'wednesday-end':"2200", 'thursday-start':"1800", 'thursday-end':"2200", 'friday-start':"1800", 'friday-end':"2200", 'saturday-start':"1800", 'saturday-end':"2200"},  'description': "$3 pints; $6 pitchers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "28 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1800", 'sunday-end':"2200", 'monday-start':"1800", 'monday-end':"2200", 'tuesday-start':"1800", 'tuesday-end':"2200", 'wednesday-start':"1800", 'wednesday-end':"2200", 'thursday-start':"1800", 'thursday-end':"2200", 'friday-start':"1800", 'friday-end':"2200", 'saturday-start':"1800", 'saturday-end':"2200"},  'description': "$3 pints; $6 pitchers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "28 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY40" s="1" t="str">
         <f t="shared" si="23"/>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="BA40" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB40" s="1" t="str">
         <f t="shared" si="26"/>
@@ -9902,11 +9902,11 @@
       </c>
       <c r="BD40" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE40" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  downtown</v>
+        <v>drink med  downtown</v>
       </c>
       <c r="BF40" s="1" t="str">
         <f t="shared" si="30"/>
@@ -10058,20 +10058,20 @@
       </c>
       <c r="AR41" s="3"/>
       <c r="AU41" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV41" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV41" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW41" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX41" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Colorado Craft Social",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 Colorado Drafts&lt;br&gt;$5 House Wines&lt;br&gt;$6 Select Cocktail&lt;br&gt;Food Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "15 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 Colorado Drafts&lt;br&gt;$5 House Wines&lt;br&gt;$6 Select Cocktail&lt;br&gt;Food Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "15 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY41" s="1" t="str">
         <f t="shared" si="23"/>
@@ -10083,7 +10083,7 @@
       </c>
       <c r="BA41" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB41" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10095,11 +10095,11 @@
       </c>
       <c r="BD41" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE41" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF41" s="1" t="str">
         <f t="shared" si="30"/>
@@ -10246,20 +10246,20 @@
       </c>
       <c r="AR42" s="3"/>
       <c r="AU42" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV42" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV42" s="4" t="s">
+      <c r="AW42" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW42" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX42" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Thirsty Parrot",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "Drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "32 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "Drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "32 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY42" s="1" t="str">
         <f t="shared" si="23"/>
@@ -10271,7 +10271,7 @@
       </c>
       <c r="BA42" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB42" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10283,11 +10283,11 @@
       </c>
       <c r="BD42" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE42" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  downtown</v>
+        <v>drink med  downtown</v>
       </c>
       <c r="BF42" s="1" t="str">
         <f t="shared" si="30"/>
@@ -10445,20 +10445,20 @@
       </c>
       <c r="AR43" s="3"/>
       <c r="AU43" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV43" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV43" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW43" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX43" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Sportivo Primo at the Antlers",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2 house drafts, house wine and well drinks, and half off appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 4 S Cascade Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2 house drafts, house wine and well drinks, and half off appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 4 S Cascade Ave, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY43" s="1" t="str">
         <f t="shared" si="23"/>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="BA43" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB43" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10482,11 +10482,11 @@
       </c>
       <c r="BD43" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE43" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF43" s="1" t="str">
         <f t="shared" si="30"/>
@@ -10631,20 +10631,20 @@
         <v/>
       </c>
       <c r="AU44" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV44" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV44" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW44" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX44" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Supernova",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 drafts, wines, and wells&lt;br&gt;Half off Barcade bites&lt;br&gt;Taco Tuesday - $1.25&lt;br&gt;Wing Wed - $0.60 each", 'link':"", 'pricing':"",   'phone-number': "", 'address': "111 E Boulder St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 drafts, wines, and wells&lt;br&gt;Half off Barcade bites&lt;br&gt;Taco Tuesday - $1.25&lt;br&gt;Wing Wed - $0.60 each", 'link':"", 'pricing':"",   'phone-number': "", 'address': "111 E Boulder St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY44" s="1" t="str">
         <f t="shared" si="23"/>
@@ -10656,7 +10656,7 @@
       </c>
       <c r="BA44" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB44" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10668,11 +10668,11 @@
       </c>
       <c r="BD44" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE44" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF44" s="1" t="str">
         <f t="shared" si="30"/>
@@ -10829,20 +10829,20 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AU45" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV45" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV45" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW45" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX45" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Tonys Bar",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 bottles of domestic beers, $4.25 domestic mini pitchers, $6.25 craft mini pitchers and $3.00 hot dogs", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1224, 326 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 bottles of domestic beers, $4.25 domestic mini pitchers, $6.25 craft mini pitchers and $3.00 hot dogs", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1224, 326 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY45" s="1" t="str">
         <f t="shared" si="23"/>
@@ -10854,7 +10854,7 @@
       </c>
       <c r="BA45" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB45" s="1" t="str">
         <f t="shared" si="26"/>
@@ -10866,11 +10866,11 @@
       </c>
       <c r="BD45" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE45" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF45" s="1" t="str">
         <f t="shared" si="30"/>
@@ -11028,20 +11028,20 @@
       </c>
       <c r="AR46" s="7"/>
       <c r="AU46" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV46" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV46" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW46" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX46" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Four by Brother Luck",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Happy Hour Food In Bar Area Only Happy Hour Drinks Available On Patio&lt;br&gt;$2 Off All Draft Beer&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$6 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;Jalapeno Poppers $4.5 &lt;br&gt;Chicken Waffle Wings $4.5 &lt;br&gt;Poutine $5.5&lt;br&gt; Kale Caesar $4.5 &lt;br&gt;Pimento Cheese Dip $4&lt;br&gt; Bacon Jam Burger $6 &lt;br&gt;Short Rib Grilled Cheese $6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "321 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Happy Hour Food In Bar Area Only Happy Hour Drinks Available On Patio&lt;br&gt;$2 Off All Draft Beer&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$6 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;Jalapeno Poppers $4.5 &lt;br&gt;Chicken Waffle Wings $4.5 &lt;br&gt;Poutine $5.5&lt;br&gt; Kale Caesar $4.5 &lt;br&gt;Pimento Cheese Dip $4&lt;br&gt; Bacon Jam Burger $6 &lt;br&gt;Short Rib Grilled Cheese $6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "321 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY46" s="1" t="str">
         <f t="shared" si="23"/>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="BA46" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB46" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11065,11 +11065,11 @@
       </c>
       <c r="BD46" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE46" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF46" s="1" t="str">
         <f t="shared" si="30"/>
@@ -11185,20 +11185,20 @@
       </c>
       <c r="AR47" s="3"/>
       <c r="AU47" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV47" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV47" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW47" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX47" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Casa Grande Mexican Restaurant",
     'area': "woodland",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Daily Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "520 Manor Ct, Woodland Park, CO 80863", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "Daily Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "520 Manor Ct, Woodland Park, CO 80863", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY47" s="1" t="str">
         <f t="shared" si="23"/>
@@ -11210,7 +11210,7 @@
       </c>
       <c r="BA47" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB47" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11222,11 +11222,11 @@
       </c>
       <c r="BD47" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE47" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  woodland</v>
+        <v>drink food med  woodland</v>
       </c>
       <c r="BF47" s="1" t="str">
         <f t="shared" si="30"/>
@@ -11339,20 +11339,20 @@
         <v/>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV48" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW48" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX48" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Pikes Peak Brewing",
     'area': "monument",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1756 Lake Woodmoor Dr, Monument, CO 80132", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1756 Lake Woodmoor Dr, Monument, CO 80132", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY48" s="1" t="str">
         <f t="shared" si="23"/>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="BA48" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB48" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11376,11 +11376,11 @@
       </c>
       <c r="BD48" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE48" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  monument</v>
+        <v>med  monument</v>
       </c>
       <c r="BF48" s="1" t="str">
         <f t="shared" si="30"/>
@@ -11525,20 +11525,20 @@
         <v/>
       </c>
       <c r="AU49" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV49" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV49" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW49" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX49" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Bistro on 2nd",
     'area': "monument",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Appetizers &amp; Desserts&lt;br&gt;$5 Wines by the Glass&lt;br&gt;$6 Wines by the Glass&lt;br&gt;$5 Cocktails", 'link':"", 'pricing':"",   'phone-number': "", 'address': "65 2nd St, Monument, CO 80132", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Appetizers &amp; Desserts&lt;br&gt;$5 Wines by the Glass&lt;br&gt;$6 Wines by the Glass&lt;br&gt;$5 Cocktails", 'link':"", 'pricing':"",   'phone-number': "", 'address': "65 2nd St, Monument, CO 80132", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY49" s="1" t="str">
         <f t="shared" si="23"/>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="BA49" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB49" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11562,11 +11562,11 @@
       </c>
       <c r="BD49" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE49" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF49" s="1" t="str">
         <f t="shared" si="30"/>
@@ -11712,20 +11712,20 @@
       </c>
       <c r="AR50" s="17"/>
       <c r="AU50" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV50" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV50" s="4" t="s">
+      <c r="AW50" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW50" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX50" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Back East Bar and Grill",
     'area': "monument",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Select drafts, house wine, and well drinks on special", 'link':"", 'pricing':"",   'phone-number': "", 'address': "9475 Briar Village Point #168, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Select drafts, house wine, and well drinks on special", 'link':"", 'pricing':"",   'phone-number': "", 'address': "9475 Briar Village Point #168, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY50" s="1" t="str">
         <f t="shared" si="23"/>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="BA50" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB50" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11749,11 +11749,11 @@
       </c>
       <c r="BD50" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE50" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  monument</v>
+        <v>drink med  monument</v>
       </c>
       <c r="BF50" s="1" t="str">
         <f t="shared" si="30"/>
@@ -11911,20 +11911,20 @@
       </c>
       <c r="AR51" s="3"/>
       <c r="AU51" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV51" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV51" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW51" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX51" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Don Tequila Mexican Grill and Cantina",
     'area': "monument",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "$5.99 House Margs&lt;br&gt;$4.99 20oz Draft Beers&lt;br&gt;Taco Tuesday&lt;br&gt;Fajita Thursday", 'link':"", 'pricing':"",   'phone-number': "", 'address': "15910 Jackson Creek Pkwy #100, Monument, CO 80132", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "$5.99 House Margs&lt;br&gt;$4.99 20oz Draft Beers&lt;br&gt;Taco Tuesday&lt;br&gt;Fajita Thursday", 'link':"", 'pricing':"",   'phone-number': "", 'address': "15910 Jackson Creek Pkwy #100, Monument, CO 80132", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY51" s="1" t="str">
         <f t="shared" si="23"/>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="BA51" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB51" s="1" t="str">
         <f t="shared" si="26"/>
@@ -11948,11 +11948,11 @@
       </c>
       <c r="BD51" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE51" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF51" s="1" t="str">
         <f t="shared" si="30"/>
@@ -12110,20 +12110,20 @@
       </c>
       <c r="AR52" s="3"/>
       <c r="AU52" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV52" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV52" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW52" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX52" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Texas Roadhouse",
     'area': "monument",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "16196 Jackson Creek Pkwy, Monument, CO 80132", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "16196 Jackson Creek Pkwy, Monument, CO 80132", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY52" s="1" t="str">
         <f t="shared" si="23"/>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="BA52" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB52" s="1" t="str">
         <f t="shared" si="26"/>
@@ -12147,11 +12147,11 @@
       </c>
       <c r="BD52" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE52" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF52" s="1" t="str">
         <f t="shared" si="30"/>
@@ -12312,20 +12312,20 @@
         <v>353</v>
       </c>
       <c r="AU53" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV53" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV53" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW53" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX53" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "La Casa Fiesta Restaurant",
     'area': "monument",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "230 Front St, Monument, CO 80132", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "230 Front St, Monument, CO 80132", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY53" s="1" t="str">
         <f t="shared" si="23"/>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="BA53" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB53" s="1" t="str">
         <f t="shared" si="26"/>
@@ -12349,11 +12349,11 @@
       </c>
       <c r="BD53" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE53" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>outdoor drink food easy  monument</v>
+        <v>outdoor drink food med  monument</v>
       </c>
       <c r="BF53" s="1" t="str">
         <f t="shared" si="30"/>
@@ -12511,20 +12511,20 @@
       </c>
       <c r="AR54" s="3"/>
       <c r="AU54" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV54" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV54" s="4" t="s">
+      <c r="AW54" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW54" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX54" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Brass Tap",
     'area': "northgate",'hours': {
-      'sunday-start':"1600", 'sunday-end':"2000", 'monday-start':"1600", 'monday-end':"2000", 'tuesday-start':"1600", 'tuesday-end':"2000", 'wednesday-start':"1600", 'wednesday-end':"2000", 'thursday-start':"1600", 'thursday-end':"2000", 'friday-start':"1600", 'friday-end':"2000", 'saturday-start':"1600", 'saturday-end':"2000"},  'description': "$4 Happy hour pints&lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "13271 Bass Pro Dr Ste 110, Colorado Springs, CO 80921", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1600", 'sunday-end':"2000", 'monday-start':"1600", 'monday-end':"2000", 'tuesday-start':"1600", 'tuesday-end':"2000", 'wednesday-start':"1600", 'wednesday-end':"2000", 'thursday-start':"1600", 'thursday-end':"2000", 'friday-start':"1600", 'friday-end':"2000", 'saturday-start':"1600", 'saturday-end':"2000"},  'description': "$4 Happy hour pints&lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "13271 Bass Pro Dr Ste 110, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY54" s="1" t="str">
         <f t="shared" si="23"/>
@@ -12536,7 +12536,7 @@
       </c>
       <c r="BA54" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB54" s="1" t="str">
         <f t="shared" si="26"/>
@@ -12548,11 +12548,11 @@
       </c>
       <c r="BD54" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE54" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  northgate</v>
+        <v>drink med  northgate</v>
       </c>
       <c r="BF54" s="1" t="str">
         <f t="shared" si="30"/>
@@ -12710,20 +12710,20 @@
       </c>
       <c r="AR55" s="17"/>
       <c r="AU55" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV55" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV55" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW55" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX55" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Bourbon Brothers Smokehouse and Tavern",
     'area': "monument",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Pork Slider $2&lt;br&gt;Spare Rib $2&lt;br&gt;Wings $6&lt;br&gt;Fried Pickles $4&lt;br&gt;Deviled Egg $1.50&lt;br&gt;Nachos $5&lt;br&gt;Chips and Guacamole $4&lt;br&gt;Happy Hour prices on pints all day on Tuesdays&lt;br&gt;$5 on Whiskey Wednesdays &lt;br&gt;$5 cocktails on Thursdays", 'link':"", 'pricing':"",   'phone-number': "", 'address': "13021 Bass Pro Dr, Colorado Springs, CO 80921", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Pork Slider $2&lt;br&gt;Spare Rib $2&lt;br&gt;Wings $6&lt;br&gt;Fried Pickles $4&lt;br&gt;Deviled Egg $1.50&lt;br&gt;Nachos $5&lt;br&gt;Chips and Guacamole $4&lt;br&gt;Happy Hour prices on pints all day on Tuesdays&lt;br&gt;$5 on Whiskey Wednesdays &lt;br&gt;$5 cocktails on Thursdays", 'link':"", 'pricing':"",   'phone-number': "", 'address': "13021 Bass Pro Dr, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY55" s="1" t="str">
         <f t="shared" si="23"/>
@@ -12735,7 +12735,7 @@
       </c>
       <c r="BA55" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB55" s="1" t="str">
         <f t="shared" si="26"/>
@@ -12747,11 +12747,11 @@
       </c>
       <c r="BD55" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE55" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF55" s="1" t="str">
         <f t="shared" si="30"/>
@@ -12908,20 +12908,20 @@
         <v>9pm-12am</v>
       </c>
       <c r="AU56" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV56" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV56" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW56" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX56" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "CB and Potts",
     'area': "monument",'hours': {
-      'sunday-start':"2100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2400"},  'description': "$4 Potts Beers, Well Drinks and 6oz Pours of House Wine&lt;br&gt;Special food prices", 'link':"", 'pricing':"",   'phone-number': "", 'address': "261 Kaycee Case Pl, Colorado Springs, CO 80921", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"2100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"2100", 'saturday-end':"2400"},  'description': "$4 Potts Beers, Well Drinks and 6oz Pours of House Wine&lt;br&gt;Special food prices", 'link':"", 'pricing':"",   'phone-number': "", 'address': "261 Kaycee Case Pl, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY56" s="1" t="str">
         <f t="shared" si="23"/>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="BA56" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB56" s="1" t="str">
         <f t="shared" si="26"/>
@@ -12945,11 +12945,11 @@
       </c>
       <c r="BD56" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE56" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF56" s="1" t="str">
         <f t="shared" si="30"/>
@@ -13095,20 +13095,20 @@
       </c>
       <c r="AR57" s="9"/>
       <c r="AU57" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV57" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV57" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW57" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX57" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Stube",
     'area': "monument",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "292 CO-105, Palmer Lake, CO 80133", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "292 CO-105, Palmer Lake, CO 80133", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY57" s="1" t="str">
         <f t="shared" si="23"/>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="BA57" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB57" s="1" t="str">
         <f t="shared" si="26"/>
@@ -13132,11 +13132,11 @@
       </c>
       <c r="BD57" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE57" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF57" s="1" t="str">
         <f t="shared" si="30"/>
@@ -13288,20 +13288,20 @@
       </c>
       <c r="AR58" s="3"/>
       <c r="AU58" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV58" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV58" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW58" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX58" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Dog Haus Biergarten",
     'area': "monument",'hours': {
-      'sunday-start':"1500", 'sunday-end':"2200", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 16oz PBR&lt;br&gt;$2 off draft beer and wine&lt;br&gt;$3.99 This Burger&lt;br&gt;$3.99 That Burger&lt;br&gt;$2.99 Sliced Sausage&lt;br&gt;$1.49 Tots or Fries", 'link':"", 'pricing':"",   'phone-number': "", 'address': "162 Tracker Dr #130, Colorado Springs, CO 80921", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"2200", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 16oz PBR&lt;br&gt;$2 off draft beer and wine&lt;br&gt;$3.99 This Burger&lt;br&gt;$3.99 That Burger&lt;br&gt;$2.99 Sliced Sausage&lt;br&gt;$1.49 Tots or Fries", 'link':"", 'pricing':"",   'phone-number': "", 'address': "162 Tracker Dr #130, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY58" s="1" t="str">
         <f t="shared" si="23"/>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="BA58" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB58" s="1" t="str">
         <f t="shared" si="26"/>
@@ -13325,11 +13325,11 @@
       </c>
       <c r="BD58" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE58" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  monument</v>
+        <v>drink food med  monument</v>
       </c>
       <c r="BF58" s="1" t="str">
         <f t="shared" si="30"/>
@@ -13487,20 +13487,20 @@
       </c>
       <c r="AR59" s="3"/>
       <c r="AU59" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV59" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV59" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW59" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX59" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "The Steakhouse at Flying Horse",
     'area': "northgate",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$5 off all Sharing Plates in the Lounge", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1880 Weiskopf Point, Colorado Springs, CO 80921", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "$5 off all Sharing Plates in the Lounge", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1880 Weiskopf Point, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY59" s="1" t="str">
         <f t="shared" si="23"/>
@@ -13512,7 +13512,7 @@
       </c>
       <c r="BA59" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB59" s="1" t="str">
         <f t="shared" si="26"/>
@@ -13524,11 +13524,11 @@
       </c>
       <c r="BD59" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE59" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  northgate</v>
+        <v>drink food med  northgate</v>
       </c>
       <c r="BF59" s="1" t="str">
         <f t="shared" si="30"/>
@@ -13685,20 +13685,20 @@
         <v>11am-5pm</v>
       </c>
       <c r="AU60" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV60" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV60" s="4" t="s">
+      <c r="AW60" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW60" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX60" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Dublin House Sports Bar and Grill",
     'area': "nacademy",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1700", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1700"},  'description': "Wines, Wells &amp; Drafts Buy 1 Get 1 FREE", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1850 Dominion Way, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1100", 'sunday-end':"1700", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1700"},  'description': "Wines, Wells &amp; Drafts Buy 1 Get 1 FREE", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1850 Dominion Way, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY60" s="1" t="str">
         <f t="shared" si="23"/>
@@ -13710,7 +13710,7 @@
       </c>
       <c r="BA60" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB60" s="1" t="str">
         <f t="shared" si="26"/>
@@ -13722,11 +13722,11 @@
       </c>
       <c r="BD60" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE60" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  nacademy</v>
+        <v>drink med  nacademy</v>
       </c>
       <c r="BF60" s="1" t="str">
         <f t="shared" si="30"/>
@@ -13881,20 +13881,20 @@
       </c>
       <c r="AR61" s="11"/>
       <c r="AU61" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV61" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV61" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW61" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX61" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Piglatin Cocina",
     'area': "nacademy",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2825 Dublin Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2825 Dublin Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY61" s="1" t="str">
         <f t="shared" si="23"/>
@@ -13906,7 +13906,7 @@
       </c>
       <c r="BA61" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB61" s="1" t="str">
         <f t="shared" si="26"/>
@@ -13918,11 +13918,11 @@
       </c>
       <c r="BD61" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE61" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF61" s="1" t="str">
         <f t="shared" si="30"/>
@@ -14079,20 +14079,20 @@
         <v>10am-12am</v>
       </c>
       <c r="AU62" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV62" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV62" s="4" t="s">
+      <c r="AW62" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW62" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX62" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Overtime Sports Bar and Grill",
     'area': "nacademy",'hours': {
-      'sunday-start':"1000", 'sunday-end':"2400", 'monday-start':"1400", 'monday-end':"2400", 'tuesday-start':"1400", 'tuesday-end':"2400", 'wednesday-start':"1400", 'wednesday-end':"2400", 'thursday-start':"1130", 'thursday-end':"2400", 'friday-start':"1130", 'friday-end':"2400", 'saturday-start':"1000", 'saturday-end':"2400"},  'description': "&lt;b&gt;Monday Drink Specials&lt;/b&gt;&lt;br&gt;$8.00   Pitchers&lt;br&gt;$11.00 Premium Pitchers&lt;br&gt;$5.00   Grateful Deads&lt;br&gt;$4.00   Washington Apples&lt;br&gt;&lt;b&gt;Tuesday Drink Specials&lt;/b&gt;&lt;br&gt;$0.75   Off All Bottle Beer&lt;br&gt;$3.25   House Margaritas&lt;br&gt;$3.00   So. Co. Lime Shots&lt;br&gt;&lt;b&gt;Wednesday Drink Specials&lt;/b&gt;&lt;br&gt;$2.50  Domestic Pints&lt;br&gt;$2.50  Wells&lt;br&gt;$4.00  Slut Shots&lt;br&gt;&lt;b&gt;Thursday Drink Specials&lt;/b&gt;&lt;br&gt;$3.50  New Belgium Pints&lt;br&gt;$4.00  Long Island Iced Tea&lt;br&gt;$3.00  Kamikazes&lt;br&gt;&lt;b&gt;Friday Drink Specials&lt;/b&gt;&lt;br&gt;$3.50  Blue Moon Pints&lt;br&gt;$3.50  Dales Pale Ale Pints&lt;br&gt;$4.50  Guinness Pints&lt;br&gt;$3.50  Smirnoff/Bacardi Cocktails&lt;br&gt;$4.00  Fireballs&lt;br&gt;$5.00  Angry Ball Shots&lt;br&gt;&lt;b&gt;Saturday Drink Specials&lt;/b&gt;&lt;br&gt;$4.00  24oz. PBR Cans&lt;br&gt;$5.00  AMFs&lt;br&gt;$3.00  Blue &amp; Raspberry Kamikazes&lt;br&gt;$3.50  Bloody Marys&lt;br&gt;&lt;b&gt;Sunday Drink Specials&lt;/b&gt;&lt;br&gt;$2.50  Miller High Life Bottles&lt;br&gt;$3.00  Screwdrivers&lt;br&gt;$3.00  Orange Bombs", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 2809 Dublin Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1000", 'sunday-end':"2400", 'monday-start':"1400", 'monday-end':"2400", 'tuesday-start':"1400", 'tuesday-end':"2400", 'wednesday-start':"1400", 'wednesday-end':"2400", 'thursday-start':"1130", 'thursday-end':"2400", 'friday-start':"1130", 'friday-end':"2400", 'saturday-start':"1000", 'saturday-end':"2400"},  'description': "&lt;b&gt;Monday Drink Specials&lt;/b&gt;&lt;br&gt;$8.00   Pitchers&lt;br&gt;$11.00 Premium Pitchers&lt;br&gt;$5.00   Grateful Deads&lt;br&gt;$4.00   Washington Apples&lt;br&gt;&lt;b&gt;Tuesday Drink Specials&lt;/b&gt;&lt;br&gt;$0.75   Off All Bottle Beer&lt;br&gt;$3.25   House Margaritas&lt;br&gt;$3.00   So. Co. Lime Shots&lt;br&gt;&lt;b&gt;Wednesday Drink Specials&lt;/b&gt;&lt;br&gt;$2.50  Domestic Pints&lt;br&gt;$2.50  Wells&lt;br&gt;$4.00  Slut Shots&lt;br&gt;&lt;b&gt;Thursday Drink Specials&lt;/b&gt;&lt;br&gt;$3.50  New Belgium Pints&lt;br&gt;$4.00  Long Island Iced Tea&lt;br&gt;$3.00  Kamikazes&lt;br&gt;&lt;b&gt;Friday Drink Specials&lt;/b&gt;&lt;br&gt;$3.50  Blue Moon Pints&lt;br&gt;$3.50  Dales Pale Ale Pints&lt;br&gt;$4.50  Guinness Pints&lt;br&gt;$3.50  Smirnoff/Bacardi Cocktails&lt;br&gt;$4.00  Fireballs&lt;br&gt;$5.00  Angry Ball Shots&lt;br&gt;&lt;b&gt;Saturday Drink Specials&lt;/b&gt;&lt;br&gt;$4.00  24oz. PBR Cans&lt;br&gt;$5.00  AMFs&lt;br&gt;$3.00  Blue &amp; Raspberry Kamikazes&lt;br&gt;$3.50  Bloody Marys&lt;br&gt;&lt;b&gt;Sunday Drink Specials&lt;/b&gt;&lt;br&gt;$2.50  Miller High Life Bottles&lt;br&gt;$3.00  Screwdrivers&lt;br&gt;$3.00  Orange Bombs", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 2809 Dublin Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY62" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14104,7 +14104,7 @@
       </c>
       <c r="BA62" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB62" s="1" t="str">
         <f t="shared" si="26"/>
@@ -14116,11 +14116,11 @@
       </c>
       <c r="BD62" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE62" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  nacademy</v>
+        <v>drink med  nacademy</v>
       </c>
       <c r="BF62" s="1" t="str">
         <f t="shared" si="30"/>
@@ -14266,20 +14266,20 @@
       </c>
       <c r="AR63" s="6"/>
       <c r="AU63" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV63" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV63" s="4" t="s">
+      <c r="AW63" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW63" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX63" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Erin Inn",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.50 domestic drafts; $2.50 wells and wines&lt;br&gt;$1 shot of the night", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6482 N Academy Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.50 domestic drafts; $2.50 wells and wines&lt;br&gt;$1 shot of the night", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6482 N Academy Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY63" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14291,7 +14291,7 @@
       </c>
       <c r="BA63" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB63" s="1" t="str">
         <f t="shared" si="26"/>
@@ -14303,11 +14303,11 @@
       </c>
       <c r="BD63" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE63" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink easy  nacademy</v>
+        <v>drink med  nacademy</v>
       </c>
       <c r="BF63" s="1" t="str">
         <f t="shared" si="30"/>
@@ -14421,20 +14421,20 @@
       </c>
       <c r="AR64" s="6"/>
       <c r="AU64" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV64" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW64" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX64" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Rileas Pub",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5672 N Union Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5672 N Union Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY64" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="BA64" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB64" s="1" t="str">
         <f t="shared" si="26"/>
@@ -14458,11 +14458,11 @@
       </c>
       <c r="BD64" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE64" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>easy  nacademy</v>
+        <v>med  nacademy</v>
       </c>
       <c r="BF64" s="1" t="str">
         <f t="shared" si="30"/>
@@ -14614,20 +14614,20 @@
       </c>
       <c r="AR65" s="11"/>
       <c r="AU65" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV65" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV65" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW65" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX65" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Good Company Restaurant and Bar",
     'area': "nacademy",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Wells, house wines, and domestic beer - $3&lt;br&gt;Pitchers of Coors Light and Miller Lite - $9&lt;br&gt;Pitchers of Bud Light - $9.50&lt;br&gt;Additional specials every day of the week", 'link':"", 'pricing':"",   'phone-number': "", 'address': "7625 N Union Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Wells, house wines, and domestic beer - $3&lt;br&gt;Pitchers of Coors Light and Miller Lite - $9&lt;br&gt;Pitchers of Bud Light - $9.50&lt;br&gt;Additional specials every day of the week", 'link':"", 'pricing':"",   'phone-number': "", 'address': "7625 N Union Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY65" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="BA65" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB65" s="1" t="str">
         <f t="shared" si="26"/>
@@ -14651,11 +14651,11 @@
       </c>
       <c r="BD65" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE65" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF65" s="1" t="str">
         <f t="shared" si="30"/>
@@ -14813,20 +14813,20 @@
       </c>
       <c r="AR66" s="11"/>
       <c r="AU66" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV66" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV66" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW66" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX66" s="5" t="str">
         <f t="shared" si="22"/>
         <v>{
     'name': "Falcons Bar and Grill",
     'area': "nacademy",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Specials on beer and food including chips and salsa, nachos, boneless chicken wings, onion rings, mozarella sticks, cheese fries, potato skins, jalapeno poppers, and cheese quasadilla", 'link':"", 'pricing':"",   'phone-number': "", 'address': "8110 N Academy Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Specials on beer and food including chips and salsa, nachos, boneless chicken wings, onion rings, mozarella sticks, cheese fries, potato skins, jalapeno poppers, and cheese quasadilla", 'link':"", 'pricing':"",   'phone-number': "", 'address': "8110 N Academy Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY66" s="1" t="str">
         <f t="shared" si="23"/>
@@ -14838,7 +14838,7 @@
       </c>
       <c r="BA66" s="1" t="str">
         <f t="shared" si="25"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB66" s="1" t="str">
         <f t="shared" si="26"/>
@@ -14850,11 +14850,11 @@
       </c>
       <c r="BD66" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE66" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF66" s="1" t="str">
         <f t="shared" si="30"/>
@@ -15012,13 +15012,13 @@
       </c>
       <c r="AR67" s="3"/>
       <c r="AU67" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV67" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV67" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW67" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX67" s="5" t="str">
         <f t="shared" ref="AX67:AX119" si="53">CONCATENATE("{
@@ -15029,7 +15029,7 @@
         <v>{
     'name': "Applebees",
     'area': "nacademy",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;$3.50 Wells, Brewtus Long Island Tea, Long Beach Tea &amp; House Margarita &lt;br&gt; $3.75 Domestic Brewtus Drafts &lt;br&gt; $4.50 Premium Wells &lt;br&gt; $4.75 Non Domestic Brewtus Drafts &lt;br&gt; $5.50 Super Premium Wells&lt;br&gt;&lt;b&gt;Food&lt;/b&gt; 1/2 Off Select Appetizers&lt;br&gt;Late Night Happy Hour 9 pm - 12 am", 'link':"", 'pricing':"",   'phone-number': "", 'address': "7625 Goddard St, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt;$3.50 Wells, Brewtus Long Island Tea, Long Beach Tea &amp; House Margarita &lt;br&gt; $3.75 Domestic Brewtus Drafts &lt;br&gt; $4.50 Premium Wells &lt;br&gt; $4.75 Non Domestic Brewtus Drafts &lt;br&gt; $5.50 Super Premium Wells&lt;br&gt;&lt;b&gt;Food&lt;/b&gt; 1/2 Off Select Appetizers&lt;br&gt;Late Night Happy Hour 9 pm - 12 am", 'link':"", 'pricing':"",   'phone-number': "", 'address': "7625 Goddard St, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY67" s="1" t="str">
         <f t="shared" ref="AY67:AY119" si="54">IF(AS67&gt;0,"&lt;img src=@img/outdoor.png@&gt;","")</f>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="BA67" s="1" t="str">
         <f t="shared" ref="BA67:BA119" si="56">IF(AU67="hard","&lt;img src=@img/hard.png@&gt;",IF(AU67="medium","&lt;img src=@img/medium.png@&gt;",IF(AU67="easy","&lt;img src=@img/easy.png@&gt;","")))</f>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB67" s="1" t="str">
         <f t="shared" ref="BB67:BB119" si="57">IF(AV67="true","&lt;img src=@img/drinkicon.png@&gt;","")</f>
@@ -15053,11 +15053,11 @@
       </c>
       <c r="BD67" s="1" t="str">
         <f t="shared" ref="BD67:BD119" si="59">CONCATENATE(AY67,AZ67,BA67,BB67,BC67,BK67)</f>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE67" s="1" t="str">
         <f t="shared" ref="BE67:BE119" si="60">CONCATENATE(IF(AS67&gt;0,"outdoor ",""),IF(AT67&gt;0,"pet ",""),IF(AV67="true","drink ",""),IF(AW67="true","food ",""),AU67," ",E67," ",C67,IF(BJ67=TRUE," kid",""))</f>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF67" s="1" t="str">
         <f t="shared" ref="BF67:BF119" si="61">IF(C67="Broadmoor","Broadmoor",IF(C67="manitou","Manitou Springs",IF(C67="downtown","Downtown",IF(C67="Monument","Monument",IF(C67="nacademy","North Academy",IF(C67="northgate","North Gate",IF(C67="oldcolo","Old Colorado Springs",IF(C67="powers","Powers Road",IF(C67="sacademy","South Academy",IF(C67="woodland","Woodlands Park",""))))))))))</f>
@@ -15203,20 +15203,20 @@
       </c>
       <c r="AR68" s="3"/>
       <c r="AU68" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV68" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV68" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW68" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX68" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Buffalo Wild Wings",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt; $3 Jack &amp; Coke, Captain &amp; Coke, Absolut Mixers &lt;br&gt; $3+ Domestic Draft Talls&lt;br&gt;&lt;b&gt;Food&lt;/b&gt;&lt;br&gt;$3 Mozzarella Sticks, Roasted Garlic Mushrooms, Mini Corn Dogs, Regular Onion Rings, Chips &amp; Salsa", 'link':"", 'pricing':"",   'phone-number': "", 'address': "7425 N Academy Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1400", 'monday-end':"1800", 'tuesday-start':"1400", 'tuesday-end':"1800", 'wednesday-start':"1400", 'wednesday-end':"1800", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"1400", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;Drinks&lt;/b&gt;&lt;br&gt; $3 Jack &amp; Coke, Captain &amp; Coke, Absolut Mixers &lt;br&gt; $3+ Domestic Draft Talls&lt;br&gt;&lt;b&gt;Food&lt;/b&gt;&lt;br&gt;$3 Mozzarella Sticks, Roasted Garlic Mushrooms, Mini Corn Dogs, Regular Onion Rings, Chips &amp; Salsa", 'link':"", 'pricing':"",   'phone-number': "", 'address': "7425 N Academy Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY68" s="1" t="str">
         <f t="shared" si="54"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="BA68" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB68" s="1" t="str">
         <f t="shared" si="57"/>
@@ -15240,11 +15240,11 @@
       </c>
       <c r="BD68" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE68" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF68" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15389,20 +15389,20 @@
         <v/>
       </c>
       <c r="AU69" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV69" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV69" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW69" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX69" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Saltgrass Steak House",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2.75 DOMESTIC BEERS&lt;br&gt; $3.75 CRAFT &amp; IMPORT BOTTLE BEERS&lt;br&gt; $4.75 WINES $6.75 SELECT COCKTAILS&lt;br&gt;APPETIZERS $4-$6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1405 Jamboree Dr, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$2.75 DOMESTIC BEERS&lt;br&gt; $3.75 CRAFT &amp; IMPORT BOTTLE BEERS&lt;br&gt; $4.75 WINES $6.75 SELECT COCKTAILS&lt;br&gt;APPETIZERS $4-$6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1405 Jamboree Dr, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY69" s="1" t="str">
         <f t="shared" si="54"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="BA69" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB69" s="1" t="str">
         <f t="shared" si="57"/>
@@ -15426,11 +15426,11 @@
       </c>
       <c r="BD69" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE69" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF69" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15570,20 +15570,20 @@
       </c>
       <c r="AR70" s="3"/>
       <c r="AU70" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV70" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV70" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW70" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX70" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Amandas Cantina",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$2 12oz Margs&lt;br&gt;$5 16oz Margs&lt;br&gt;$5 Wines&lt;br&gt;$3-4 Beers&lt;br&gt;$2-$6 Food Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "8050 N Academy Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$2 12oz Margs&lt;br&gt;$5 16oz Margs&lt;br&gt;$5 Wines&lt;br&gt;$3-4 Beers&lt;br&gt;$2-$6 Food Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "8050 N Academy Blvd, Colorado Springs, CO 80920", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY70" s="1" t="str">
         <f t="shared" si="54"/>
@@ -15595,7 +15595,7 @@
       </c>
       <c r="BA70" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB70" s="1" t="str">
         <f t="shared" si="57"/>
@@ -15607,11 +15607,11 @@
       </c>
       <c r="BD70" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE70" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF70" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15725,20 +15725,20 @@
       </c>
       <c r="AR71" s="6"/>
       <c r="AU71" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV71" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW71" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX71" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Pints Tavern",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4861 N Academy Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4861 N Academy Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY71" s="1" t="str">
         <f t="shared" si="54"/>
@@ -15750,7 +15750,7 @@
       </c>
       <c r="BA71" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB71" s="1" t="str">
         <f t="shared" si="57"/>
@@ -15762,11 +15762,11 @@
       </c>
       <c r="BD71" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE71" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>easy  nacademy</v>
+        <v>med  nacademy</v>
       </c>
       <c r="BF71" s="1" t="str">
         <f t="shared" si="61"/>
@@ -15912,20 +15912,20 @@
       </c>
       <c r="AR72" s="6"/>
       <c r="AU72" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV72" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV72" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW72" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX72" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "The Playing Field Sports Bar",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1700", 'monday-end':"1900", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "2 for 1 Domestics&lt;br&gt;Special Discounts for First Responders &amp; Military&lt;br&gt;Tuesday $2 drinks all day and 2 tacos for $2 all day&lt;br&gt;Saturday and Sunday $3 Bud Light &amp; Buds For Football Games", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3958 N Academy Blvd #112, Colorado Springs, CO 80917", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1700", 'monday-end':"1900", 'tuesday-start':"1700", 'tuesday-end':"1900", 'wednesday-start':"1700", 'wednesday-end':"1900", 'thursday-start':"1700", 'thursday-end':"1900", 'friday-start':"1700", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "2 for 1 Domestics&lt;br&gt;Special Discounts for First Responders &amp; Military&lt;br&gt;Tuesday $2 drinks all day and 2 tacos for $2 all day&lt;br&gt;Saturday and Sunday $3 Bud Light &amp; Buds For Football Games", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3958 N Academy Blvd #112, Colorado Springs, CO 80917", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY72" s="1" t="str">
         <f t="shared" si="54"/>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="BA72" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB72" s="1" t="str">
         <f t="shared" si="57"/>
@@ -15949,11 +15949,11 @@
       </c>
       <c r="BD72" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE72" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF72" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16111,20 +16111,20 @@
       </c>
       <c r="AR73" s="6"/>
       <c r="AU73" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV73" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV73" s="4" t="s">
+      <c r="AW73" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW73" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX73" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Mi Mexico",
     'area': "nacademy",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "House Margarita $3.00&lt;br&gt;Domestic Draft $2.00&lt;br&gt;Mexican Draft $2.50&lt;br&gt;Well drinks $3.00&lt;br&gt;&lt;b&gt;HAPPY HOUR ALL DAY&lt;/b&gt;&lt;br&gt;MONDAYS:$3.00 Domestic Draft&lt;br&gt;TUESDAYS: $3.00 House Margarita&lt;br&gt;WEDNESDAYS:$2.50 Mexican Draft&lt;br&gt;THURSDAYS:$3.00 Well drinks", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3956 N Academy Blvd, Colorado Springs, CO 80917", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "House Margarita $3.00&lt;br&gt;Domestic Draft $2.00&lt;br&gt;Mexican Draft $2.50&lt;br&gt;Well drinks $3.00&lt;br&gt;&lt;b&gt;HAPPY HOUR ALL DAY&lt;/b&gt;&lt;br&gt;MONDAYS:$3.00 Domestic Draft&lt;br&gt;TUESDAYS: $3.00 House Margarita&lt;br&gt;WEDNESDAYS:$2.50 Mexican Draft&lt;br&gt;THURSDAYS:$3.00 Well drinks", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3956 N Academy Blvd, Colorado Springs, CO 80917", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY73" s="1" t="str">
         <f t="shared" si="54"/>
@@ -16136,7 +16136,7 @@
       </c>
       <c r="BA73" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB73" s="1" t="str">
         <f t="shared" si="57"/>
@@ -16148,11 +16148,11 @@
       </c>
       <c r="BD73" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE73" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink easy  nacademy</v>
+        <v>drink med  nacademy</v>
       </c>
       <c r="BF73" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16298,20 +16298,20 @@
       </c>
       <c r="AR74" s="6"/>
       <c r="AU74" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV74" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV74" s="4" t="s">
+      <c r="AW74" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW74" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX74" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Farside Lounge",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.75 to $2 drafts and wells", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4375 Airport Rd, Colorado Springs, CO 80916", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1.75 to $2 drafts and wells", 'link':"", 'pricing':"",   'phone-number': "", 'address': "4375 Airport Rd, Colorado Springs, CO 80916", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY74" s="1" t="str">
         <f t="shared" si="54"/>
@@ -16323,7 +16323,7 @@
       </c>
       <c r="BA74" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB74" s="1" t="str">
         <f t="shared" si="57"/>
@@ -16335,11 +16335,11 @@
       </c>
       <c r="BD74" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE74" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink easy  sacademy</v>
+        <v>drink med  sacademy</v>
       </c>
       <c r="BF74" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16491,20 +16491,20 @@
       </c>
       <c r="AR75" s="6"/>
       <c r="AU75" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV75" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV75" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW75" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX75" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Kelly Obrians",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 wells &amp; domestic pints&lt;br&gt;$3.25 premium pints&lt;br&gt;$2.75 domestic bottles&lt;br&gt;$3.75 premium bottles&lt;br&gt;75 cents wings! No minimum order. DINE IN ONLY", 'link':"", 'pricing':"",   'phone-number': "", 'address': "239 N Academy Blvd, Colorado Springs, CO 80909", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 wells &amp; domestic pints&lt;br&gt;$3.25 premium pints&lt;br&gt;$2.75 domestic bottles&lt;br&gt;$3.75 premium bottles&lt;br&gt;75 cents wings! No minimum order. DINE IN ONLY", 'link':"", 'pricing':"",   'phone-number': "", 'address': "239 N Academy Blvd, Colorado Springs, CO 80909", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY75" s="1" t="str">
         <f t="shared" si="54"/>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="BA75" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB75" s="1" t="str">
         <f t="shared" si="57"/>
@@ -16528,11 +16528,11 @@
       </c>
       <c r="BD75" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE75" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  sacademy</v>
+        <v>drink food med  sacademy</v>
       </c>
       <c r="BF75" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16645,20 +16645,20 @@
         <v/>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV76" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW76" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX76" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Legends Rock Bar",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2790 Hancock Expy, Colorado Springs, CO 80910", 'other-amenities': ['','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2790 Hancock Expy, Colorado Springs, CO 80910", 'other-amenities': ['','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY76" s="1" t="str">
         <f t="shared" si="54"/>
@@ -16670,7 +16670,7 @@
       </c>
       <c r="BA76" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB76" s="1" t="str">
         <f t="shared" si="57"/>
@@ -16682,11 +16682,11 @@
       </c>
       <c r="BD76" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BE76" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>easy  sacademy</v>
+        <v>med  sacademy</v>
       </c>
       <c r="BF76" s="1" t="str">
         <f t="shared" si="61"/>
@@ -16833,20 +16833,20 @@
       </c>
       <c r="AR77" s="3"/>
       <c r="AU77" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV77" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV77" s="4" t="s">
+      <c r="AW77" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW77" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX77" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Knucklehead Tavern",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Domestic bottles and drafts, great wine and well specials.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2627 Delta Dr, Colorado Springs, CO 80910", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Domestic bottles and drafts, great wine and well specials.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2627 Delta Dr, Colorado Springs, CO 80910", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY77" s="1" t="str">
         <f t="shared" si="54"/>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="BA77" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB77" s="1" t="str">
         <f t="shared" si="57"/>
@@ -16870,11 +16870,11 @@
       </c>
       <c r="BD77" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE77" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink easy  sacademy</v>
+        <v>drink med  sacademy</v>
       </c>
       <c r="BF77" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17020,20 +17020,20 @@
       </c>
       <c r="AR78" s="3"/>
       <c r="AU78" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV78" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV78" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW78" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX78" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "JBs Burger Kitchen and Bar",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "1 off draft beer and well drinks&lt;br&gt;1/2 off Naan-Za Flatbreads", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1855 Aeroplaza Dr, Colorado Springs, CO 80916", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "1 off draft beer and well drinks&lt;br&gt;1/2 off Naan-Za Flatbreads", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1855 Aeroplaza Dr, Colorado Springs, CO 80916", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY78" s="1" t="str">
         <f t="shared" si="54"/>
@@ -17045,7 +17045,7 @@
       </c>
       <c r="BA78" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB78" s="1" t="str">
         <f t="shared" si="57"/>
@@ -17057,11 +17057,11 @@
       </c>
       <c r="BD78" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE78" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  sacademy</v>
+        <v>drink food med  sacademy</v>
       </c>
       <c r="BF78" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17207,20 +17207,20 @@
       </c>
       <c r="AR79" s="3"/>
       <c r="AU79" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV79" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV79" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW79" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX79" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Oscars Oyster Bar",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off well wines and drafts&lt;br&gt;Half priced oysters&lt;br&gt;Two for One wine, wells, drafts and Cajun martinis on Tuesday 4:00-7:00pm", 'link':"", 'pricing':"",   'phone-number': "", 'address': "333 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off well wines and drafts&lt;br&gt;Half priced oysters&lt;br&gt;Two for One wine, wells, drafts and Cajun martinis on Tuesday 4:00-7:00pm", 'link':"", 'pricing':"",   'phone-number': "", 'address': "333 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY79" s="1" t="str">
         <f t="shared" si="54"/>
@@ -17232,7 +17232,7 @@
       </c>
       <c r="BA79" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB79" s="1" t="str">
         <f t="shared" si="57"/>
@@ -17244,11 +17244,11 @@
       </c>
       <c r="BD79" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE79" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF79" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17394,20 +17394,20 @@
       </c>
       <c r="AR80" s="3"/>
       <c r="AU80" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV80" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV80" s="4" t="s">
+      <c r="AW80" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW80" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX80" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "BooDads Beach House Grill",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "1 Off All Beer, Liquor &amp; Wine!&lt;br&gt;$2 Off Pitchers!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5910 Omaha Blvd, Colorado Springs, CO 80915", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "1 Off All Beer, Liquor &amp; Wine!&lt;br&gt;$2 Off Pitchers!", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5910 Omaha Blvd, Colorado Springs, CO 80915", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY80" s="1" t="str">
         <f t="shared" si="54"/>
@@ -17419,7 +17419,7 @@
       </c>
       <c r="BA80" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB80" s="1" t="str">
         <f t="shared" si="57"/>
@@ -17431,11 +17431,11 @@
       </c>
       <c r="BD80" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE80" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink easy  powers</v>
+        <v>drink med  powers</v>
       </c>
       <c r="BF80" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17596,20 +17596,20 @@
         <v>341</v>
       </c>
       <c r="AU81" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV81" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV81" s="4" t="s">
+      <c r="AW81" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW81" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX81" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Bristol Brewing Company",
     'area': "downtown",'hours': {
-      'sunday-start':"1700", 'sunday-end':"2100", 'monday-start':"1700", 'monday-end':"2100", 'tuesday-start':"1700", 'tuesday-end':"2100", 'wednesday-start':"1700", 'wednesday-end':"2100", 'thursday-start':"1700", 'thursday-end':"2100", 'friday-start':"1700", 'friday-end':"2100", 'saturday-start':"1700", 'saturday-end':"2100"},  'description': "$3.50 House  Pints", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1604 S Cascade Ave, Colorado Springs, CO 80905", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1700", 'sunday-end':"2100", 'monday-start':"1700", 'monday-end':"2100", 'tuesday-start':"1700", 'tuesday-end':"2100", 'wednesday-start':"1700", 'wednesday-end':"2100", 'thursday-start':"1700", 'thursday-end':"2100", 'friday-start':"1700", 'friday-end':"2100", 'saturday-start':"1700", 'saturday-end':"2100"},  'description': "$3.50 House  Pints", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1604 S Cascade Ave, Colorado Springs, CO 80905", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY81" s="1" t="str">
         <f t="shared" si="54"/>
@@ -17621,7 +17621,7 @@
       </c>
       <c r="BA81" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB81" s="1" t="str">
         <f t="shared" si="57"/>
@@ -17633,11 +17633,11 @@
       </c>
       <c r="BD81" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE81" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink easy  downtown</v>
+        <v>pet drink med  downtown</v>
       </c>
       <c r="BF81" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17795,20 +17795,20 @@
       </c>
       <c r="AR82" s="3"/>
       <c r="AU82" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV82" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV82" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW82" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX82" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "McCabes Tavern",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 Wells &amp; House Wines&lt;br&gt;50-cent Chicken Wings&lt;br&gt;$3.50 Drafts Pints ($2.75 Bud Light pint)", 'link':"", 'pricing':"",   'phone-number': "", 'address': "520 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$4 Wells &amp; House Wines&lt;br&gt;50-cent Chicken Wings&lt;br&gt;$3.50 Drafts Pints ($2.75 Bud Light pint)", 'link':"", 'pricing':"",   'phone-number': "", 'address': "520 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY82" s="1" t="str">
         <f t="shared" si="54"/>
@@ -17820,7 +17820,7 @@
       </c>
       <c r="BA82" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB82" s="1" t="str">
         <f t="shared" si="57"/>
@@ -17832,11 +17832,11 @@
       </c>
       <c r="BD82" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE82" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF82" s="1" t="str">
         <f t="shared" si="61"/>
@@ -17979,20 +17979,20 @@
         <v>341</v>
       </c>
       <c r="AU83" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV83" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV83" s="4" t="s">
+      <c r="AW83" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW83" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX83" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Trinity Brewing Company",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1630", 'monday-end':"1730", 'tuesday-start':"1630", 'tuesday-end':"1730", 'wednesday-start':"1630", 'wednesday-end':"1730", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Off house beers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1466 Garden of the Gods Rd, Colorado Springs, CO 80907", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1630", 'monday-end':"1730", 'tuesday-start':"1630", 'tuesday-end':"1730", 'wednesday-start':"1630", 'wednesday-end':"1730", 'thursday-start':"1400", 'thursday-end':"1800", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "$2 Off house beers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1466 Garden of the Gods Rd, Colorado Springs, CO 80907", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY83" s="1" t="str">
         <f t="shared" si="54"/>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="BA83" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB83" s="1" t="str">
         <f t="shared" si="57"/>
@@ -18016,11 +18016,11 @@
       </c>
       <c r="BD83" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE83" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink easy  nacademy</v>
+        <v>pet drink med  nacademy</v>
       </c>
       <c r="BF83" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18169,20 +18169,20 @@
         <v>341</v>
       </c>
       <c r="AU84" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV84" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV84" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW84" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX84" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "3 14 Sweet and Savory Pi Bar",
     'area': "manitou",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1515", 'tuesday-end':"1830", 'wednesday-start':"1515", 'wednesday-end':"1830", 'thursday-start':"1515", 'thursday-end':"1830", 'friday-start':"1515", 'friday-end':"1830", 'saturday-start':"1515", 'saturday-end':"1830"},  'description': "Awesome Food and Drink Specials.  ", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5152 Centennial Blvd, Colorado Springs, CO 80919", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"1515", 'tuesday-end':"1830", 'wednesday-start':"1515", 'wednesday-end':"1830", 'thursday-start':"1515", 'thursday-end':"1830", 'friday-start':"1515", 'friday-end':"1830", 'saturday-start':"1515", 'saturday-end':"1830"},  'description': "Awesome Food and Drink Specials.  ", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5152 Centennial Blvd, Colorado Springs, CO 80919", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY84" s="1" t="str">
         <f t="shared" si="54"/>
@@ -18194,7 +18194,7 @@
       </c>
       <c r="BA84" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB84" s="1" t="str">
         <f t="shared" si="57"/>
@@ -18206,11 +18206,11 @@
       </c>
       <c r="BD84" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE84" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink food easy  manitou</v>
+        <v>pet drink food med  manitou</v>
       </c>
       <c r="BF84" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18356,20 +18356,20 @@
       </c>
       <c r="AR85" s="17"/>
       <c r="AU85" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV85" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV85" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW85" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX85" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Bonny and Read",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 house wine (Rawson's Retreat) &lt;br&gt;$3 house beer (everything on tap) &lt;br&gt;$3 single shot mixed drinks (i.e. Gin &amp; tonic, vodka &amp; soda, etc.) &lt;br&gt;$1.50 Barcat oysters&lt;br&gt;1/2 price appetizers&lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "101 N Tejon St #102, Colorado Springs, CO 80903", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$3 house wine (Rawson's Retreat) &lt;br&gt;$3 house beer (everything on tap) &lt;br&gt;$3 single shot mixed drinks (i.e. Gin &amp; tonic, vodka &amp; soda, etc.) &lt;br&gt;$1.50 Barcat oysters&lt;br&gt;1/2 price appetizers&lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "101 N Tejon St #102, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY85" s="1" t="str">
         <f t="shared" si="54"/>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="BA85" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB85" s="1" t="str">
         <f t="shared" si="57"/>
@@ -18393,11 +18393,11 @@
       </c>
       <c r="BD85" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE85" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  downtown</v>
+        <v>drink food med  downtown</v>
       </c>
       <c r="BF85" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18557,20 +18557,20 @@
         <v>353</v>
       </c>
       <c r="AU86" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV86" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV86" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW86" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX86" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Springs Orleans",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "2 for 1 Appetizers&lt;br&gt;2 for 1 Select Cocktails&lt;br&gt;$3 Beers&lt;br&gt;30 Percent Off All Wines", 'link':"", 'pricing':"",   'phone-number': "", 'address': "123 E Pikes Peak Ave, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "2 for 1 Appetizers&lt;br&gt;2 for 1 Select Cocktails&lt;br&gt;$3 Beers&lt;br&gt;30 Percent Off All Wines", 'link':"", 'pricing':"",   'phone-number': "", 'address': "123 E Pikes Peak Ave, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY86" s="1" t="str">
         <f t="shared" si="54"/>
@@ -18582,7 +18582,7 @@
       </c>
       <c r="BA86" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB86" s="1" t="str">
         <f t="shared" si="57"/>
@@ -18594,11 +18594,11 @@
       </c>
       <c r="BD86" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE86" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy  downtown</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF86" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18757,20 +18757,20 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AU87" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV87" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV87" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW87" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX87" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Bonefish Grill",
     'area': "nacademy",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "DRAFT BEERS $1 OFF&lt;br&gt;HOUSE WINES $4&lt;br&gt;SELECT SPIRITS $5&lt;br&gt;BAR BITES $6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5102 N Nevada Ave, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "DRAFT BEERS $1 OFF&lt;br&gt;HOUSE WINES $4&lt;br&gt;SELECT SPIRITS $5&lt;br&gt;BAR BITES $6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5102 N Nevada Ave, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY87" s="1" t="str">
         <f t="shared" si="54"/>
@@ -18782,7 +18782,7 @@
       </c>
       <c r="BA87" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB87" s="1" t="str">
         <f t="shared" si="57"/>
@@ -18794,11 +18794,11 @@
       </c>
       <c r="BD87" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE87" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF87" s="1" t="str">
         <f t="shared" si="61"/>
@@ -18953,20 +18953,20 @@
         <v>353</v>
       </c>
       <c r="AU88" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV88" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV88" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW88" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX88" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Sonterra Grill",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Select Martinis $6&lt;br&gt;House Margarita $4&lt;br&gt;House Wine $4&lt;br&gt;Draft Beer $2 off&lt;br&gt;Well Drinks $3&lt;br&gt;$3.50 Tapas&lt;br&gt;Appetizers $6-$10", 'link':"", 'pricing':"",   'phone-number': "", 'address': "28B S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"1100", 'saturday-end':"1900"},  'description': "Select Martinis $6&lt;br&gt;House Margarita $4&lt;br&gt;House Wine $4&lt;br&gt;Draft Beer $2 off&lt;br&gt;Well Drinks $3&lt;br&gt;$3.50 Tapas&lt;br&gt;Appetizers $6-$10", 'link':"", 'pricing':"",   'phone-number': "", 'address': "28B S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY88" s="1" t="str">
         <f t="shared" si="54"/>
@@ -18978,7 +18978,7 @@
       </c>
       <c r="BA88" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB88" s="1" t="str">
         <f t="shared" si="57"/>
@@ -18990,11 +18990,11 @@
       </c>
       <c r="BD88" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE88" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy  downtown</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF88" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19155,20 +19155,20 @@
         <v>341</v>
       </c>
       <c r="AU89" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV89" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV89" s="4" t="s">
+      <c r="AW89" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW89" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX89" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Edelweiss Restaurant",
     'area': "broadmoor",'hours': {
-      'sunday-start':"1630", 'sunday-end':"1830", 'monday-start':"1630", 'monday-end':"1830", 'tuesday-start':"1630", 'tuesday-end':"1830", 'wednesday-start':"1630", 'wednesday-end':"1830", 'thursday-start':"1630", 'thursday-end':"1830", 'friday-start':"1630", 'friday-end':"1830", 'saturday-start':"1630", 'saturday-end':"1830"},  'description': "Happy Hour in the Ratskeller&lt;br&gt;$3 draft beers&lt;br&gt; $3 house wines&lt;br&gt; $3 well drinks.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "34 E Ramona Ave, Colorado Springs, CO 80905", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1630", 'sunday-end':"1830", 'monday-start':"1630", 'monday-end':"1830", 'tuesday-start':"1630", 'tuesday-end':"1830", 'wednesday-start':"1630", 'wednesday-end':"1830", 'thursday-start':"1630", 'thursday-end':"1830", 'friday-start':"1630", 'friday-end':"1830", 'saturday-start':"1630", 'saturday-end':"1830"},  'description': "Happy Hour in the Ratskeller&lt;br&gt;$3 draft beers&lt;br&gt; $3 house wines&lt;br&gt; $3 well drinks.", 'link':"", 'pricing':"",   'phone-number': "", 'address': "34 E Ramona Ave, Colorado Springs, CO 80905", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY89" s="1" t="str">
         <f t="shared" si="54"/>
@@ -19180,7 +19180,7 @@
       </c>
       <c r="BA89" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB89" s="1" t="str">
         <f t="shared" si="57"/>
@@ -19192,11 +19192,11 @@
       </c>
       <c r="BD89" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE89" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink easy  broadmoor</v>
+        <v>pet drink med  broadmoor</v>
       </c>
       <c r="BF89" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19354,20 +19354,20 @@
       </c>
       <c r="AR90" s="17"/>
       <c r="AU90" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV90" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV90" s="4" t="s">
+      <c r="AW90" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW90" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX90" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Jake &amp; Tellys Greek Taverna",
     'area': "oldcolo",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Check their Facebook page for weekly specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2616 Colorado Ave #24, Colorado Springs, CO 80904", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Check their Facebook page for weekly specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2616 Colorado Ave #24, Colorado Springs, CO 80904", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY90" s="1" t="str">
         <f t="shared" si="54"/>
@@ -19379,7 +19379,7 @@
       </c>
       <c r="BA90" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB90" s="1" t="str">
         <f t="shared" si="57"/>
@@ -19391,11 +19391,11 @@
       </c>
       <c r="BD90" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE90" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink easy  oldcolo</v>
+        <v>drink med  oldcolo</v>
       </c>
       <c r="BF90" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19549,20 +19549,20 @@
         <v>353</v>
       </c>
       <c r="AU91" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV91" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV91" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW91" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX91" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "MacKenzies Chop House",
     'area': "downtown",'hours': {
-      'sunday-start':"1700", 'sunday-end':"2100", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$7 select appetizers &amp; martinis&lt;br&gt;$2 off all wines by the glass&lt;br&gt;$4 wells and drafts", 'link':"", 'pricing':"",   'phone-number': "", 'address': "128 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1700", 'sunday-end':"2100", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "$7 select appetizers &amp; martinis&lt;br&gt;$2 off all wines by the glass&lt;br&gt;$4 wells and drafts", 'link':"", 'pricing':"",   'phone-number': "", 'address': "128 S Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY91" s="1" t="str">
         <f t="shared" si="54"/>
@@ -19574,7 +19574,7 @@
       </c>
       <c r="BA91" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB91" s="1" t="str">
         <f t="shared" si="57"/>
@@ -19586,11 +19586,11 @@
       </c>
       <c r="BD91" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE91" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy  downtown</v>
+        <v>outdoor drink food med  downtown</v>
       </c>
       <c r="BF91" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19751,20 +19751,20 @@
         <v>341</v>
       </c>
       <c r="AU92" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV92" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV92" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW92" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX92" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Shugas",
     'area': "downtown",'hours': {
-      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Select Cocktails $8&lt;br&gt;$7 Wine by the Glass&lt;br&gt;$6 Beer and a Shot&lt;br&gt;$7 Bruschetta&lt;br&gt;$3 Cup of Soup&lt;br&gt;$3 Small Mac n Cheese", 'link':"", 'pricing':"",   'phone-number': "", 'address': "702 S Cascade Ave, Colorado Springs, CO 80903", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1600", 'sunday-end':"1800", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1600", 'saturday-end':"1800"},  'description': "Select Cocktails $8&lt;br&gt;$7 Wine by the Glass&lt;br&gt;$6 Beer and a Shot&lt;br&gt;$7 Bruschetta&lt;br&gt;$3 Cup of Soup&lt;br&gt;$3 Small Mac n Cheese", 'link':"", 'pricing':"",   'phone-number': "", 'address': "702 S Cascade Ave, Colorado Springs, CO 80903", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY92" s="1" t="str">
         <f t="shared" si="54"/>
@@ -19776,7 +19776,7 @@
       </c>
       <c r="BA92" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB92" s="1" t="str">
         <f t="shared" si="57"/>
@@ -19788,11 +19788,11 @@
       </c>
       <c r="BD92" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE92" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink food easy  downtown</v>
+        <v>pet drink food med  downtown</v>
       </c>
       <c r="BF92" s="1" t="str">
         <f t="shared" si="61"/>
@@ -19950,20 +19950,20 @@
       </c>
       <c r="AR93" s="3"/>
       <c r="AU93" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV93" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV93" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW93" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX93" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Stagecoach Inn",
     'area': "manitou",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Happy Hour is every day in our lounge and on the front patio", 'link':"", 'pricing':"",   'phone-number': "", 'address': "702 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Happy Hour is every day in our lounge and on the front patio", 'link':"", 'pricing':"",   'phone-number': "", 'address': "702 Manitou Ave, Manitou Springs, CO 80829", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY93" s="1" t="str">
         <f t="shared" si="54"/>
@@ -19975,7 +19975,7 @@
       </c>
       <c r="BA93" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB93" s="1" t="str">
         <f t="shared" si="57"/>
@@ -19987,11 +19987,11 @@
       </c>
       <c r="BD93" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE93" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  manitou</v>
+        <v>drink food med  manitou</v>
       </c>
       <c r="BF93" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20137,20 +20137,20 @@
       </c>
       <c r="AR94" s="3"/>
       <c r="AU94" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV94" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV94" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW94" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX94" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Tomo Sushi",
     'area': "nacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"", 'saturday-end':""},  'description': "2 for 1 domestic bottle beers&lt;br&gt;20 percent off all sushi rolls&lt;br&gt;$0.99 small bottles of sake", 'link':"", 'pricing':"",   'phone-number': "", 'address': "8312, 975 N Academy Blvd, Colorado Springs, CO 80909", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1730", 'tuesday-start':"1600", 'tuesday-end':"1730", 'wednesday-start':"1600", 'wednesday-end':"1730", 'thursday-start':"1600", 'thursday-end':"1730", 'friday-start':"1600", 'friday-end':"1730", 'saturday-start':"", 'saturday-end':""},  'description': "2 for 1 domestic bottle beers&lt;br&gt;20 percent off all sushi rolls&lt;br&gt;$0.99 small bottles of sake", 'link':"", 'pricing':"",   'phone-number': "", 'address': "8312, 975 N Academy Blvd, Colorado Springs, CO 80909", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY94" s="1" t="str">
         <f t="shared" si="54"/>
@@ -20162,7 +20162,7 @@
       </c>
       <c r="BA94" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB94" s="1" t="str">
         <f t="shared" si="57"/>
@@ -20174,11 +20174,11 @@
       </c>
       <c r="BD94" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE94" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF94" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20324,20 +20324,20 @@
       </c>
       <c r="AR95" s="3"/>
       <c r="AU95" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV95" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV95" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW95" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX95" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Rock Bottom",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off well liquors; $2 off beers, wines&lt;br&gt;$6 specialty cocktails&lt;br&gt;$5 - $7 select appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3316 Cinema Point, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$1 off well liquors; $2 off beers, wines&lt;br&gt;$6 specialty cocktails&lt;br&gt;$5 - $7 select appetizers", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3316 Cinema Point, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY95" s="1" t="str">
         <f t="shared" si="54"/>
@@ -20349,7 +20349,7 @@
       </c>
       <c r="BA95" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB95" s="1" t="str">
         <f t="shared" si="57"/>
@@ -20361,11 +20361,11 @@
       </c>
       <c r="BD95" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE95" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF95" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20483,20 +20483,20 @@
         <v>341</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV96" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW96" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX96" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Bon Ton Cafe ",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2601 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2601 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY96" s="1" t="str">
         <f t="shared" si="54"/>
@@ -20508,7 +20508,7 @@
       </c>
       <c r="BA96" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB96" s="1" t="str">
         <f t="shared" si="57"/>
@@ -20520,11 +20520,11 @@
       </c>
       <c r="BD96" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE96" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor pet easy  oldcolo</v>
+        <v>outdoor pet med  oldcolo</v>
       </c>
       <c r="BF96" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20640,20 +20640,20 @@
         <v>341</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV97" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW97" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX97" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Pub Dog",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2207 Bott Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2207 Bott Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY97" s="1" t="str">
         <f t="shared" si="54"/>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="BA97" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB97" s="1" t="str">
         <f t="shared" si="57"/>
@@ -20677,11 +20677,11 @@
       </c>
       <c r="BD97" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE97" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  oldcolo</v>
+        <v>pet med  oldcolo</v>
       </c>
       <c r="BF97" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20842,20 +20842,20 @@
         <v>341</v>
       </c>
       <c r="AU98" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV98" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV98" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW98" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX98" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Rudys Little Hideaway",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$1 off alcoholic beverages&lt;br&gt;Food specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "945 S 8th St, Colorado Springs, CO 80905", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "$1 off alcoholic beverages&lt;br&gt;Food specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "945 S 8th St, Colorado Springs, CO 80905", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY98" s="1" t="str">
         <f t="shared" si="54"/>
@@ -20867,7 +20867,7 @@
       </c>
       <c r="BA98" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB98" s="1" t="str">
         <f t="shared" si="57"/>
@@ -20879,11 +20879,11 @@
       </c>
       <c r="BD98" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE98" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink food easy  downtown</v>
+        <v>pet drink food med  downtown</v>
       </c>
       <c r="BF98" s="1" t="str">
         <f t="shared" si="61"/>
@@ -20999,20 +20999,20 @@
         <v>341</v>
       </c>
       <c r="AU99" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV99" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW99" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX99" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Rocky Mountain Brewing",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "625 Paonia St, Colorado Springs, CO 80915", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "625 Paonia St, Colorado Springs, CO 80915", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY99" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21024,7 +21024,7 @@
       </c>
       <c r="BA99" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB99" s="1" t="str">
         <f t="shared" si="57"/>
@@ -21036,11 +21036,11 @@
       </c>
       <c r="BD99" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE99" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  powers</v>
+        <v>pet med  powers</v>
       </c>
       <c r="BF99" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21156,20 +21156,20 @@
         <v>341</v>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV100" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW100" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX100" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "The Burrowing Owl",
     'area': "broadmoor",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1791 S 8th St, Colorado Springs, CO 80905", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1791 S 8th St, Colorado Springs, CO 80905", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY100" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21181,7 +21181,7 @@
       </c>
       <c r="BA100" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB100" s="1" t="str">
         <f t="shared" si="57"/>
@@ -21193,11 +21193,11 @@
       </c>
       <c r="BD100" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE100" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  broadmoor</v>
+        <v>pet med  broadmoor</v>
       </c>
       <c r="BF100" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21312,20 +21312,20 @@
         <v>341</v>
       </c>
       <c r="AU101" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV101" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW101" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX101" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Mountain Shadows Restaurant",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2223 Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2223 Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY101" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21337,7 +21337,7 @@
       </c>
       <c r="BA101" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB101" s="1" t="str">
         <f t="shared" si="57"/>
@@ -21349,11 +21349,11 @@
       </c>
       <c r="BD101" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE101" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  oldcolo</v>
+        <v>pet med  oldcolo</v>
       </c>
       <c r="BF101" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21468,20 +21468,20 @@
         <v>341</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV102" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW102" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX102" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Storybook Brewing",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3121 A N El Paso St, Colorado Springs, CO 80907", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3121 A N El Paso St, Colorado Springs, CO 80907", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY102" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21493,7 +21493,7 @@
       </c>
       <c r="BA102" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB102" s="1" t="str">
         <f t="shared" si="57"/>
@@ -21505,11 +21505,11 @@
       </c>
       <c r="BD102" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE102" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  downtown</v>
+        <v>pet med  downtown</v>
       </c>
       <c r="BF102" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21624,20 +21624,20 @@
         <v>341</v>
       </c>
       <c r="AU103" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV103" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW103" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX103" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "The Airplane Restaurant",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1665 Newport Rd, Colorado Springs, CO 80916", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1665 Newport Rd, Colorado Springs, CO 80916", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY103" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="BA103" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB103" s="1" t="str">
         <f t="shared" si="57"/>
@@ -21661,11 +21661,11 @@
       </c>
       <c r="BD103" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE103" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  powers</v>
+        <v>pet med  powers</v>
       </c>
       <c r="BF103" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21813,20 +21813,20 @@
         <v>341</v>
       </c>
       <c r="AU104" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV104" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV104" s="4" t="s">
+      <c r="AW104" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW104" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX104" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Iron Bird Brewing",
     'area': "downtown",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Discounted beer", 'link':"", 'pricing':"",   'phone-number': "", 'address': "402 S Nevada Ave, Colorado Springs, CO 80903", 'other-amenities': ['','pet','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "Discounted beer", 'link':"", 'pricing':"",   'phone-number': "", 'address': "402 S Nevada Ave, Colorado Springs, CO 80903", 'other-amenities': ['','pet','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY104" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21838,7 +21838,7 @@
       </c>
       <c r="BA104" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB104" s="1" t="str">
         <f t="shared" si="57"/>
@@ -21850,11 +21850,11 @@
       </c>
       <c r="BD104" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE104" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet drink easy  downtown</v>
+        <v>pet drink med  downtown</v>
       </c>
       <c r="BF104" s="1" t="str">
         <f t="shared" si="61"/>
@@ -21972,20 +21972,20 @@
         <v>341</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV105" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW105" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX105" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "TAPAteria",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2607 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2607 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY105" s="1" t="str">
         <f t="shared" si="54"/>
@@ -21997,7 +21997,7 @@
       </c>
       <c r="BA105" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB105" s="1" t="str">
         <f t="shared" si="57"/>
@@ -22009,11 +22009,11 @@
       </c>
       <c r="BD105" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE105" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor pet easy  oldcolo</v>
+        <v>outdoor pet med  oldcolo</v>
       </c>
       <c r="BF105" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22128,20 +22128,20 @@
         <v>341</v>
       </c>
       <c r="AU106" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV106" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW106" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX106" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Colorado Smokehouse",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6679 Camden Boulevard, Fountain, CO 80917", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "6679 Camden Boulevard, Fountain, CO 80917", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY106" s="1" t="str">
         <f t="shared" si="54"/>
@@ -22153,7 +22153,7 @@
       </c>
       <c r="BA106" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB106" s="1" t="str">
         <f t="shared" si="57"/>
@@ -22165,11 +22165,11 @@
       </c>
       <c r="BD106" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE106" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  sacademy</v>
+        <v>pet med  sacademy</v>
       </c>
       <c r="BF106" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22284,20 +22284,20 @@
         <v>341</v>
       </c>
       <c r="AU107" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV107" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW107" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX107" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Paravicinis",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2802 Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2802 Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['','pet','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY107" s="1" t="str">
         <f t="shared" si="54"/>
@@ -22309,7 +22309,7 @@
       </c>
       <c r="BA107" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB107" s="1" t="str">
         <f t="shared" si="57"/>
@@ -22321,11 +22321,11 @@
       </c>
       <c r="BD107" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/pets.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/pets.png@&gt;</v>
       </c>
       <c r="BE107" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>pet easy  oldcolo</v>
+        <v>pet med  oldcolo</v>
       </c>
       <c r="BF107" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22440,20 +22440,20 @@
         <v>353</v>
       </c>
       <c r="AU108" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV108" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW108" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX108" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Front Range Barbeque",
     'area': "oldcolo",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2330 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "2330 W Colorado Ave, Colorado Springs, CO 80904", 'other-amenities': ['outdoor','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY108" s="1" t="str">
         <f t="shared" si="54"/>
@@ -22465,7 +22465,7 @@
       </c>
       <c r="BA108" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB108" s="1" t="str">
         <f t="shared" si="57"/>
@@ -22477,11 +22477,11 @@
       </c>
       <c r="BD108" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
       <c r="BE108" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor easy  oldcolo</v>
+        <v>outdoor med  oldcolo</v>
       </c>
       <c r="BF108" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22596,20 +22596,20 @@
         <v>353</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AV109" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AW109" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AX109" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "3 Margaritas",
     'area': "powers",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3020 New Center Point, Colorado Springs, CO 80922", 'other-amenities': ['outdoor','','easy'], 'has-drink':false, 'has-food':false},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"", 'monday-end':"", 'tuesday-start':"", 'tuesday-end':"", 'wednesday-start':"", 'wednesday-end':"", 'thursday-start':"", 'thursday-end':"", 'friday-start':"", 'friday-end':"", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3020 New Center Point, Colorado Springs, CO 80922", 'other-amenities': ['outdoor','','med'], 'has-drink':false, 'has-food':false},</v>
       </c>
       <c r="AY109" s="1" t="str">
         <f t="shared" si="54"/>
@@ -22621,7 +22621,7 @@
       </c>
       <c r="BA109" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB109" s="1" t="str">
         <f t="shared" si="57"/>
@@ -22633,11 +22633,11 @@
       </c>
       <c r="BD109" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;</v>
       </c>
       <c r="BE109" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor easy  powers</v>
+        <v>outdoor med  powers</v>
       </c>
       <c r="BF109" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22791,20 +22791,20 @@
         <v>353</v>
       </c>
       <c r="AU110" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV110" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV110" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW110" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX110" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Colorado Mountain Brewing",
     'area': "northgate",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 16oz Flagship Beer&lt;br&gt;$6 25oz Flagship Beer&lt;br&gt;$4 House Wine&lt;br&gt;$4 Wells&lt;br&gt;$5 Bloody Marys&lt;br&gt;$5 House Margarita&lt;br&gt;$1 Off Speciality Cocktails and Seasonal House Beers&lt;br&gt;Wide range of food specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1110 Interquest Pkwy, Colorado Springs, CO 80921", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$4 16oz Flagship Beer&lt;br&gt;$6 25oz Flagship Beer&lt;br&gt;$4 House Wine&lt;br&gt;$4 Wells&lt;br&gt;$5 Bloody Marys&lt;br&gt;$5 House Margarita&lt;br&gt;$1 Off Speciality Cocktails and Seasonal House Beers&lt;br&gt;Wide range of food specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1110 Interquest Pkwy, Colorado Springs, CO 80921", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY110" s="1" t="str">
         <f t="shared" si="54"/>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="BA110" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB110" s="1" t="str">
         <f t="shared" si="57"/>
@@ -22828,11 +22828,11 @@
       </c>
       <c r="BD110" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE110" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy  northgate</v>
+        <v>outdoor drink food med  northgate</v>
       </c>
       <c r="BF110" s="1" t="str">
         <f t="shared" si="61"/>
@@ -22992,20 +22992,20 @@
         <v>353</v>
       </c>
       <c r="AU111" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV111" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV111" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW111" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX111" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Hacienda Colorado",
     'area': "nacademy",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1730", 'monday-start':"1400", 'monday-end':"1730", 'tuesday-start':"1400", 'tuesday-end':"1730", 'wednesday-start':"1400", 'wednesday-end':"1730", 'thursday-start':"1400", 'thursday-end':"1730", 'friday-start':"1100", 'friday-end':"1730", 'saturday-start':"1100", 'saturday-end':"1730"},  'description': "$4.50 16oz Beer&lt;br&gt;$5.50 21oz Beer&lt;br&gt;$6.50 Well Drinks&lt;br&gt;$1 Off Wines&lt;br&gt;Wide Range of Discounted Food", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5246 N Nevada Ave, Colorado Springs, CO 80918", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1730", 'monday-start':"1400", 'monday-end':"1730", 'tuesday-start':"1400", 'tuesday-end':"1730", 'wednesday-start':"1400", 'wednesday-end':"1730", 'thursday-start':"1400", 'thursday-end':"1730", 'friday-start':"1100", 'friday-end':"1730", 'saturday-start':"1100", 'saturday-end':"1730"},  'description': "$4.50 16oz Beer&lt;br&gt;$5.50 21oz Beer&lt;br&gt;$6.50 Well Drinks&lt;br&gt;$1 Off Wines&lt;br&gt;Wide Range of Discounted Food", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5246 N Nevada Ave, Colorado Springs, CO 80918", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY111" s="1" t="str">
         <f t="shared" si="54"/>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="BA111" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB111" s="1" t="str">
         <f t="shared" si="57"/>
@@ -23029,11 +23029,11 @@
       </c>
       <c r="BD111" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE111" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy  nacademy</v>
+        <v>outdoor drink food med  nacademy</v>
       </c>
       <c r="BF111" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23178,20 +23178,20 @@
         <v>353</v>
       </c>
       <c r="AU112" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV112" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV112" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW112" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX112" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Prime25",
     'area': "broadmoor",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1605 S Tejon St, Colorado Springs, CO 80905", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1605 S Tejon St, Colorado Springs, CO 80905", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY112" s="1" t="str">
         <f t="shared" si="54"/>
@@ -23203,7 +23203,7 @@
       </c>
       <c r="BA112" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB112" s="1" t="str">
         <f t="shared" si="57"/>
@@ -23215,11 +23215,11 @@
       </c>
       <c r="BD112" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE112" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink food easy  broadmoor</v>
+        <v>outdoor drink food med  broadmoor</v>
       </c>
       <c r="BF112" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23379,20 +23379,20 @@
         <v>353</v>
       </c>
       <c r="AU113" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV113" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV113" s="4" t="s">
+      <c r="AW113" s="4" t="s">
         <v>432</v>
-      </c>
-      <c r="AW113" s="4" t="s">
-        <v>433</v>
       </c>
       <c r="AX113" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Crystal Park Cantina",
     'area': "manitou",'hours': {
-      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Cantina, Fighting Sue $5.00&lt;br&gt;Fruit Marg W/ Sugar Rim $5.00&lt;br&gt;Arnoldo Palmer $5.00&lt;br&gt;Draft Beers $3.00&lt;br&gt;Bottled Beers $2.50&lt;br&gt;Can Beers $2.00", 'link':"", 'pricing':"",   'phone-number': "", 'address': "178 Crystal Park Rd, Manitou Springs, CO 80829", 'other-amenities': ['outdoor','','easy'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1400", 'sunday-end':"1700", 'monday-start':"1400", 'monday-end':"1700", 'tuesday-start':"1400", 'tuesday-end':"1700", 'wednesday-start':"1400", 'wednesday-end':"1700", 'thursday-start':"1400", 'thursday-end':"1700", 'friday-start':"1400", 'friday-end':"1700", 'saturday-start':"1400", 'saturday-end':"1700"},  'description': "Cantina, Fighting Sue $5.00&lt;br&gt;Fruit Marg W/ Sugar Rim $5.00&lt;br&gt;Arnoldo Palmer $5.00&lt;br&gt;Draft Beers $3.00&lt;br&gt;Bottled Beers $2.50&lt;br&gt;Can Beers $2.00", 'link':"", 'pricing':"",   'phone-number': "", 'address': "178 Crystal Park Rd, Manitou Springs, CO 80829", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY113" s="1" t="str">
         <f t="shared" si="54"/>
@@ -23404,7 +23404,7 @@
       </c>
       <c r="BA113" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB113" s="1" t="str">
         <f t="shared" si="57"/>
@@ -23416,11 +23416,11 @@
       </c>
       <c r="BD113" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
+        <v>&lt;img src=@img/outdoor.png@&gt;&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE113" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>outdoor drink easy  manitou</v>
+        <v>outdoor drink med  manitou</v>
       </c>
       <c r="BF113" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23565,20 +23565,20 @@
         <v/>
       </c>
       <c r="AU114" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV114" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV114" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW114" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX114" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Rancho Alegre Mexican Restaurant",
     'area': "broadmoor",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Half off appetizers&lt;br&gt;$2.99 16oz IPA&lt;br&gt;$2.50 16oz Domestic&lt;br&gt;$2.50 Import Beer&lt;br&gt;Daily Food and Drink Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1899 S Nevada Ave, Colorado Springs, CO 80905", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1900", 'tuesday-start':"1500", 'tuesday-end':"1900", 'wednesday-start':"1500", 'wednesday-end':"1900", 'thursday-start':"1500", 'thursday-end':"1900", 'friday-start':"1500", 'friday-end':"1900", 'saturday-start':"", 'saturday-end':""},  'description': "Half off appetizers&lt;br&gt;$2.99 16oz IPA&lt;br&gt;$2.50 16oz Domestic&lt;br&gt;$2.50 Import Beer&lt;br&gt;Daily Food and Drink Specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "1899 S Nevada Ave, Colorado Springs, CO 80905", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY114" s="1" t="str">
         <f t="shared" si="54"/>
@@ -23590,7 +23590,7 @@
       </c>
       <c r="BA114" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB114" s="1" t="str">
         <f t="shared" si="57"/>
@@ -23602,11 +23602,11 @@
       </c>
       <c r="BD114" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE114" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  broadmoor</v>
+        <v>drink food med  broadmoor</v>
       </c>
       <c r="BF114" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23751,20 +23751,20 @@
         <v/>
       </c>
       <c r="AU115" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV115" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV115" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW115" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX115" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Walters Bistro",
     'area': "broadmoor",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1700", 'monday-end':"1830", 'tuesday-start':"1700", 'tuesday-end':"1830", 'wednesday-start':"1700", 'wednesday-end':"1830", 'thursday-start':"1700", 'thursday-end':"1830", 'friday-start':"1700", 'friday-end':"1830", 'saturday-start':"", 'saturday-end':""},  'description': "Half price on house wines, beer, and house cocktails", 'link':"", 'pricing':"",   'phone-number': "", 'address': "146 E Cheyenne Mountain Blvd, Colorado Springs, CO 80906", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1700", 'monday-end':"1830", 'tuesday-start':"1700", 'tuesday-end':"1830", 'wednesday-start':"1700", 'wednesday-end':"1830", 'thursday-start':"1700", 'thursday-end':"1830", 'friday-start':"1700", 'friday-end':"1830", 'saturday-start':"", 'saturday-end':""},  'description': "Half price on house wines, beer, and house cocktails", 'link':"", 'pricing':"",   'phone-number': "", 'address': "146 E Cheyenne Mountain Blvd, Colorado Springs, CO 80906", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY115" s="1" t="str">
         <f t="shared" si="54"/>
@@ -23776,7 +23776,7 @@
       </c>
       <c r="BA115" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB115" s="1" t="str">
         <f t="shared" si="57"/>
@@ -23788,11 +23788,11 @@
       </c>
       <c r="BD115" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE115" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  broadmoor</v>
+        <v>drink food med  broadmoor</v>
       </c>
       <c r="BF115" s="1" t="str">
         <f t="shared" si="61"/>
@@ -23943,20 +23943,20 @@
         <v/>
       </c>
       <c r="AU116" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV116" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV116" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW116" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX116" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Chilis - North Academy",
     'area': "nacademy",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;$3&lt;/b&gt;&lt;br&gt;Chips and Salsa&lt;br&gt;Fried Pickles&lt;br&lt;b&gt;$4&lt;/b&gt;&lt;br&gt;Awesome Blossom Petals&lt;br&gt;Crispy Cheddar Bites&lt;br&gt;Half Order Texas Cheese Fries&lt;br&gt;&lt;b&gt;$5&lt;/b&gt;&lt;br&gt;White Spinach Queso&lt;br&gt;Fresh Guacamole&lt;br&gt;Half Margherita Flatbread&lt;br&gt;&lt;b&gt;$6&lt;/b&gt;&lt;br&gt;Southwestern Eggrolls&lt;br&gt;Boneless Wings (all flavors)", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5807 N Academy Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;$3&lt;/b&gt;&lt;br&gt;Chips and Salsa&lt;br&gt;Fried Pickles&lt;br&lt;b&gt;$4&lt;/b&gt;&lt;br&gt;Awesome Blossom Petals&lt;br&gt;Crispy Cheddar Bites&lt;br&gt;Half Order Texas Cheese Fries&lt;br&gt;&lt;b&gt;$5&lt;/b&gt;&lt;br&gt;White Spinach Queso&lt;br&gt;Fresh Guacamole&lt;br&gt;Half Margherita Flatbread&lt;br&gt;&lt;b&gt;$6&lt;/b&gt;&lt;br&gt;Southwestern Eggrolls&lt;br&gt;Boneless Wings (all flavors)", 'link':"", 'pricing':"",   'phone-number': "", 'address': "5807 N Academy Blvd, Colorado Springs, CO 80918", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY116" s="1" t="str">
         <f t="shared" si="54"/>
@@ -23968,7 +23968,7 @@
       </c>
       <c r="BA116" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB116" s="1" t="str">
         <f t="shared" si="57"/>
@@ -23980,11 +23980,11 @@
       </c>
       <c r="BD116" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE116" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  nacademy</v>
+        <v>drink food med  nacademy</v>
       </c>
       <c r="BF116" s="1" t="str">
         <f t="shared" si="61"/>
@@ -24135,20 +24135,20 @@
         <v/>
       </c>
       <c r="AU117" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV117" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV117" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW117" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX117" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Chilis - Broadmoor",
     'area': "broadmoor",'hours': {
-      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;$3&lt;/b&gt;&lt;br&gt;Chips and Salsa&lt;br&gt;Fried Pickles&lt;br&lt;b&gt;$4&lt;/b&gt;&lt;br&gt;Awesome Blossom Petals&lt;br&gt;Crispy Cheddar Bites&lt;br&gt;Half Order Texas Cheese Fries&lt;br&gt;&lt;b&gt;$5&lt;/b&gt;&lt;br&gt;White Spinach Queso&lt;br&gt;Fresh Guacamole&lt;br&gt;Half Margherita Flatbread&lt;br&gt;&lt;b&gt;$6&lt;/b&gt;&lt;br&gt;Southwestern Eggrolls&lt;br&gt;Boneless Wings (all flavors)", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 1706 E Cheyenne Mountain Blvd, Colorado Springs, CO 80906", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"2400", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "&lt;b&gt;$3&lt;/b&gt;&lt;br&gt;Chips and Salsa&lt;br&gt;Fried Pickles&lt;br&lt;b&gt;$4&lt;/b&gt;&lt;br&gt;Awesome Blossom Petals&lt;br&gt;Crispy Cheddar Bites&lt;br&gt;Half Order Texas Cheese Fries&lt;br&gt;&lt;b&gt;$5&lt;/b&gt;&lt;br&gt;White Spinach Queso&lt;br&gt;Fresh Guacamole&lt;br&gt;Half Margherita Flatbread&lt;br&gt;&lt;b&gt;$6&lt;/b&gt;&lt;br&gt;Southwestern Eggrolls&lt;br&gt;Boneless Wings (all flavors)", 'link':"", 'pricing':"",   'phone-number': "", 'address': " 1706 E Cheyenne Mountain Blvd, Colorado Springs, CO 80906", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY117" s="1" t="str">
         <f t="shared" si="54"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="BA117" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB117" s="1" t="str">
         <f t="shared" si="57"/>
@@ -24172,11 +24172,11 @@
       </c>
       <c r="BD117" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE117" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  broadmoor</v>
+        <v>drink food med  broadmoor</v>
       </c>
       <c r="BF117" s="1" t="str">
         <f t="shared" si="61"/>
@@ -24333,20 +24333,20 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU118" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV118" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV118" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW118" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX118" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Texas Roadhouse - Powers",
     'area': "powers",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3120 N Powers Blvd, Colorado Springs, CO 80922", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "3120 N Powers Blvd, Colorado Springs, CO 80922", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY118" s="1" t="str">
         <f t="shared" si="54"/>
@@ -24358,7 +24358,7 @@
       </c>
       <c r="BA118" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB118" s="1" t="str">
         <f t="shared" si="57"/>
@@ -24370,11 +24370,11 @@
       </c>
       <c r="BD118" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE118" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  powers</v>
+        <v>drink food med  powers</v>
       </c>
       <c r="BF118" s="1" t="str">
         <f t="shared" si="61"/>
@@ -24531,20 +24531,20 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU119" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AV119" s="4" t="s">
         <v>431</v>
       </c>
-      <c r="AV119" s="4" t="s">
-        <v>432</v>
-      </c>
       <c r="AW119" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AX119" s="5" t="str">
         <f t="shared" si="53"/>
         <v>{
     'name': "Texas Roadhouse - Broadmoor",
     'area': "broadmoor",'hours': {
-      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "595 S 8th St, Colorado Springs, CO 80905", 'other-amenities': ['','','easy'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1100", 'sunday-end':"1600", 'monday-start':"1600", 'monday-end':"1800", 'tuesday-start':"1600", 'tuesday-end':"1800", 'wednesday-start':"1600", 'wednesday-end':"1800", 'thursday-start':"1600", 'thursday-end':"1800", 'friday-start':"1600", 'friday-end':"1800", 'saturday-start':"1100", 'saturday-end':"1600"},  'description': "Food and drink specials", 'link':"", 'pricing':"",   'phone-number': "", 'address': "595 S 8th St, Colorado Springs, CO 80905", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY119" s="1" t="str">
         <f t="shared" si="54"/>
@@ -24556,7 +24556,7 @@
       </c>
       <c r="BA119" s="1" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;img src=@img/easy.png@&gt;</v>
+        <v/>
       </c>
       <c r="BB119" s="1" t="str">
         <f t="shared" si="57"/>
@@ -24568,11 +24568,11 @@
       </c>
       <c r="BD119" s="1" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;img src=@img/easy.png@&gt;&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
+        <v>&lt;img src=@img/drinkicon.png@&gt;&lt;img src=@img/foodicon.png@&gt;</v>
       </c>
       <c r="BE119" s="1" t="str">
         <f t="shared" si="60"/>
-        <v>drink food easy  broadmoor</v>
+        <v>drink food med  broadmoor</v>
       </c>
       <c r="BF119" s="1" t="str">
         <f t="shared" si="61"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -229,9 +229,6 @@
     <t>http://www.oskarbluesfooderies.com/</t>
   </si>
   <si>
-    <t>T-Byrd’s Tacos &amp; Tequila</t>
-  </si>
-  <si>
     <t>http://www.tbyrdstacos.com/index.html</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
   </si>
   <si>
     <t>http://www.streetcar520.com/</t>
-  </si>
-  <si>
-    <t>Jose Muldoon’s Food &amp; Drink Downtown</t>
   </si>
   <si>
     <t>http://www.josemuldoons.com/</t>
@@ -1390,6 +1384,12 @@
   </si>
   <si>
     <t>$2 Mooseheads/Monday&lt;br&gt;$2 Tecates/Tuesday&lt;br&gt; 1/2 price bottles on Wine Down Wednesday &lt;br&gt;$3.50 Jameson on Thirsty Thursday</t>
+  </si>
+  <si>
+    <t>T-Byrds Tacos &amp; Tequila</t>
+  </si>
+  <si>
+    <t>Jose Muldoons Food &amp; Drink Downtown</t>
   </si>
 </sst>
 </file>
@@ -2453,10 +2453,10 @@
   <dimension ref="B1:BL119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1:V1048576"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2658,13 +2658,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L2" s="1">
         <v>1515</v>
@@ -2697,7 +2697,7 @@
         <v>1830</v>
       </c>
       <c r="V2" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W33" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -2785,16 +2785,16 @@
       </c>
       <c r="AR2" s="3"/>
       <c r="AT2" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV2" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX2" s="5" t="str">
         <f t="shared" ref="AX2:AX33" si="21">CONCATENATE("{
@@ -2852,13 +2852,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="0"/>
@@ -2945,16 +2945,16 @@
         <v/>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV3" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX3" s="5" t="str">
         <f t="shared" si="21"/>
@@ -3008,13 +3008,13 @@
     </row>
     <row r="4" spans="2:64" ht="21" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J4" s="1">
         <v>1600</v>
@@ -3047,7 +3047,7 @@
         <v>1800</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3134,19 +3134,19 @@
         <v/>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV4" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW4" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX4" s="5" t="str">
         <f t="shared" si="21"/>
@@ -3200,13 +3200,13 @@
     </row>
     <row r="5" spans="2:64" ht="21" customHeight="1">
       <c r="B5" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H5" s="1">
         <v>1100</v>
@@ -3251,7 +3251,7 @@
         <v>1900</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" si="0"/>
@@ -3339,13 +3339,13 @@
       </c>
       <c r="AR5" s="3"/>
       <c r="AU5" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV5" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW5" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX5" s="5" t="str">
         <f t="shared" si="21"/>
@@ -3400,13 +3400,13 @@
     </row>
     <row r="6" spans="2:64" ht="21" customHeight="1">
       <c r="B6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J6" s="1">
         <v>1500</v>
@@ -3433,7 +3433,7 @@
         <v>1800</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="W6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3521,13 +3521,13 @@
       </c>
       <c r="AR6" s="3"/>
       <c r="AU6" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV6" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW6" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX6" s="5" t="str">
         <f t="shared" si="21"/>
@@ -3581,13 +3581,13 @@
     </row>
     <row r="7" spans="2:64" ht="21" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H7" s="1">
         <v>1500</v>
@@ -3632,7 +3632,7 @@
         <v>1800</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" si="0"/>
@@ -3720,13 +3720,13 @@
       </c>
       <c r="AR7" s="3"/>
       <c r="AU7" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV7" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW7" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX7" s="5" t="str">
         <f t="shared" si="21"/>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="8" spans="2:64" ht="21" customHeight="1">
       <c r="B8" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J8" s="1">
         <v>1600</v>
@@ -3819,7 +3819,7 @@
         <v>1900</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -3907,13 +3907,13 @@
       </c>
       <c r="AR8" s="17"/>
       <c r="AU8" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV8" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW8" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX8" s="5" t="str">
         <f t="shared" si="21"/>
@@ -3967,13 +3967,13 @@
     </row>
     <row r="9" spans="2:64" ht="21" customHeight="1">
       <c r="B9" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J9" s="1">
         <v>1600</v>
@@ -4000,7 +4000,7 @@
         <v>1800</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4088,13 +4088,13 @@
       </c>
       <c r="AR9" s="3"/>
       <c r="AU9" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV9" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW9" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX9" s="5" t="str">
         <f t="shared" si="21"/>
@@ -4148,13 +4148,13 @@
     </row>
     <row r="10" spans="2:64" ht="21" customHeight="1">
       <c r="B10" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="J10" s="1">
         <v>1600</v>
@@ -4187,7 +4187,7 @@
         <v>1900</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4274,13 +4274,13 @@
         <v/>
       </c>
       <c r="AU10" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV10" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW10" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX10" s="5" t="str">
         <f t="shared" si="21"/>
@@ -4334,13 +4334,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4427,19 +4427,19 @@
         <v/>
       </c>
       <c r="AS11" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU11" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV11" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW11" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX11" s="5" t="str">
         <f t="shared" si="21"/>
@@ -4493,13 +4493,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H12" s="1">
         <v>1600</v>
@@ -4544,7 +4544,7 @@
         <v>1800</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" si="0"/>
@@ -4631,13 +4631,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AU12" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV12" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW12" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX12" s="5" t="str">
         <f t="shared" si="21"/>
@@ -4691,13 +4691,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J13" s="1">
         <v>1500</v>
@@ -4730,7 +4730,7 @@
         <v>1800</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -4818,13 +4818,13 @@
       </c>
       <c r="AR13" s="17"/>
       <c r="AU13" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV13" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW13" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX13" s="5" t="str">
         <f t="shared" si="21"/>
@@ -4878,13 +4878,13 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1">
       <c r="B14" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J14" s="1">
         <v>1500</v>
@@ -4917,7 +4917,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5005,13 +5005,13 @@
       </c>
       <c r="AR14" s="3"/>
       <c r="AU14" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV14" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW14" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX14" s="5" t="str">
         <f t="shared" si="21"/>
@@ -5065,13 +5065,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H15" s="1">
         <v>1500</v>
@@ -5116,7 +5116,7 @@
         <v>1800</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" si="0"/>
@@ -5204,13 +5204,13 @@
       </c>
       <c r="AR15" s="17"/>
       <c r="AU15" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV15" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW15" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX15" s="5" t="str">
         <f t="shared" si="21"/>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H16" s="1">
         <v>1700</v>
@@ -5315,7 +5315,7 @@
         <v>2100</v>
       </c>
       <c r="V16" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="0"/>
@@ -5403,16 +5403,16 @@
       </c>
       <c r="AR16" s="6"/>
       <c r="AT16" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU16" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV16" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW16" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX16" s="5" t="str">
         <f t="shared" si="21"/>
@@ -5466,13 +5466,13 @@
     </row>
     <row r="17" spans="2:62" ht="21" customHeight="1">
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J17" s="1">
         <v>1400</v>
@@ -5505,7 +5505,7 @@
         <v>1800</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5593,13 +5593,13 @@
       </c>
       <c r="AR17" s="3"/>
       <c r="AU17" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV17" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW17" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX17" s="5" t="str">
         <f t="shared" si="21"/>
@@ -5653,16 +5653,16 @@
     </row>
     <row r="18" spans="2:62" ht="21" customHeight="1">
       <c r="B18" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -5750,13 +5750,13 @@
       </c>
       <c r="AR18" s="3"/>
       <c r="AU18" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV18" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW18" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX18" s="5" t="str">
         <f t="shared" si="21"/>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="19" spans="2:62" ht="21" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H19" s="1">
         <v>2100</v>
@@ -5861,7 +5861,7 @@
         <v>2400</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" si="0"/>
@@ -5948,13 +5948,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AU19" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV19" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW19" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX19" s="5" t="str">
         <f t="shared" si="21"/>
@@ -6008,13 +6008,13 @@
     </row>
     <row r="20" spans="2:62" ht="21" customHeight="1">
       <c r="B20" s="25" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H20" s="1">
         <v>1100</v>
@@ -6053,7 +6053,7 @@
         <v>1800</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" si="0"/>
@@ -6140,13 +6140,13 @@
         <v/>
       </c>
       <c r="AU20" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV20" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW20" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX20" s="5" t="str">
         <f t="shared" si="21"/>
@@ -6200,13 +6200,13 @@
     </row>
     <row r="21" spans="2:62" ht="21" customHeight="1">
       <c r="B21" s="25" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H21" s="1">
         <v>1100</v>
@@ -6245,7 +6245,7 @@
         <v>1800</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" si="0"/>
@@ -6332,13 +6332,13 @@
         <v/>
       </c>
       <c r="AU21" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV21" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW21" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX21" s="5" t="str">
         <f t="shared" si="21"/>
@@ -6392,13 +6392,13 @@
     </row>
     <row r="22" spans="2:62" ht="21" customHeight="1">
       <c r="B22" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H22" s="1">
         <v>1100</v>
@@ -6437,7 +6437,7 @@
         <v>1800</v>
       </c>
       <c r="V22" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" si="0"/>
@@ -6524,13 +6524,13 @@
         <v/>
       </c>
       <c r="AU22" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV22" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW22" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX22" s="5" t="str">
         <f t="shared" si="21"/>
@@ -6584,13 +6584,13 @@
     </row>
     <row r="23" spans="2:62" ht="21" customHeight="1">
       <c r="B23" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H23" s="1">
         <v>1100</v>
@@ -6635,7 +6635,7 @@
         <v>1900</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="0"/>
@@ -6722,13 +6722,13 @@
         <v>11am-7pm</v>
       </c>
       <c r="AU23" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV23" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW23" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX23" s="5" t="str">
         <f t="shared" si="21"/>
@@ -6782,13 +6782,13 @@
     </row>
     <row r="24" spans="2:62" ht="21" customHeight="1">
       <c r="B24" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J24" s="1">
         <v>1500</v>
@@ -6827,7 +6827,7 @@
         <v>1800</v>
       </c>
       <c r="V24" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -6915,13 +6915,13 @@
       </c>
       <c r="AR24" s="3"/>
       <c r="AU24" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV24" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW24" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX24" s="5" t="str">
         <f t="shared" si="21"/>
@@ -6976,13 +6976,13 @@
     </row>
     <row r="25" spans="2:62" ht="21" customHeight="1">
       <c r="B25" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H25" s="1">
         <v>1500</v>
@@ -7021,7 +7021,7 @@
         <v>1800</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="W25" s="1">
         <f t="shared" si="0"/>
@@ -7108,16 +7108,16 @@
         <v/>
       </c>
       <c r="AS25" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU25" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV25" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW25" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX25" s="5" t="str">
         <f t="shared" si="21"/>
@@ -7171,13 +7171,13 @@
     </row>
     <row r="26" spans="2:62" ht="21" customHeight="1">
       <c r="B26" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="W26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7264,16 +7264,16 @@
         <v/>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU26" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV26" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW26" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX26" s="5" t="str">
         <f t="shared" si="21"/>
@@ -7327,13 +7327,13 @@
     </row>
     <row r="27" spans="2:62" ht="21" customHeight="1">
       <c r="B27" s="25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J27" s="1">
         <v>1500</v>
@@ -7366,7 +7366,7 @@
         <v>1800</v>
       </c>
       <c r="V27" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7453,13 +7453,13 @@
         <v/>
       </c>
       <c r="AU27" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV27" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW27" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX27" s="5" t="str">
         <f t="shared" si="21"/>
@@ -7513,13 +7513,13 @@
     </row>
     <row r="28" spans="2:62" ht="21" customHeight="1">
       <c r="B28" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H28" s="1">
         <v>1400</v>
@@ -7564,7 +7564,7 @@
         <v>1700</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="W28" s="1">
         <f t="shared" si="0"/>
@@ -7651,16 +7651,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AS28" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU28" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV28" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW28" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX28" s="5" t="str">
         <f t="shared" si="21"/>
@@ -7714,13 +7714,13 @@
     </row>
     <row r="29" spans="2:62" ht="21" customHeight="1">
       <c r="B29" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V29" s="5"/>
       <c r="W29" s="1" t="str">
@@ -7808,13 +7808,13 @@
         <v/>
       </c>
       <c r="AU29" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV29" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW29" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX29" s="5" t="str">
         <f t="shared" si="21"/>
@@ -7868,13 +7868,13 @@
     </row>
     <row r="30" spans="2:62" ht="21" customHeight="1">
       <c r="B30" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="G30" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H30" s="1">
         <v>1500</v>
@@ -7913,7 +7913,7 @@
         <v>1800</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="0"/>
@@ -8001,13 +8001,13 @@
       </c>
       <c r="AR30" s="3"/>
       <c r="AU30" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV30" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW30" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX30" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8061,13 +8061,13 @@
     </row>
     <row r="31" spans="2:62" ht="21" customHeight="1">
       <c r="B31" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H31" s="1">
         <v>1400</v>
@@ -8112,7 +8112,7 @@
         <v>1700</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="W31" s="1">
         <f t="shared" si="0"/>
@@ -8200,13 +8200,13 @@
       </c>
       <c r="AR31" s="3"/>
       <c r="AU31" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV31" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW31" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX31" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="32" spans="2:62" ht="21" customHeight="1">
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H32" s="1">
         <v>1100</v>
@@ -8311,7 +8311,7 @@
         <v>1700</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="W32" s="1">
         <f t="shared" si="0"/>
@@ -8398,13 +8398,13 @@
         <v>11am-5pm</v>
       </c>
       <c r="AU32" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV32" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW32" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX32" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8458,13 +8458,13 @@
     </row>
     <row r="33" spans="2:63" ht="21" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H33" s="1">
         <v>1630</v>
@@ -8509,7 +8509,7 @@
         <v>1830</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="0"/>
@@ -8597,16 +8597,16 @@
       </c>
       <c r="AR33" s="3"/>
       <c r="AT33" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU33" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV33" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW33" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX33" s="5" t="str">
         <f t="shared" si="21"/>
@@ -8660,13 +8660,13 @@
     </row>
     <row r="34" spans="2:63" ht="21" customHeight="1">
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J34" s="1">
         <v>1600</v>
@@ -8699,7 +8699,7 @@
         <v>1900</v>
       </c>
       <c r="V34" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W34" s="1" t="str">
         <f t="shared" ref="W34:W65" si="31">IF(H34&gt;0,H34/100,"")</f>
@@ -8787,13 +8787,13 @@
       </c>
       <c r="AR34" s="6"/>
       <c r="AU34" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV34" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW34" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX34" s="5" t="str">
         <f t="shared" ref="AX34:AX65" si="52">CONCATENATE("{
@@ -8851,13 +8851,13 @@
     </row>
     <row r="35" spans="2:63" ht="21" customHeight="1">
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H35" s="1">
         <v>1500</v>
@@ -8902,7 +8902,7 @@
         <v>1800</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="31"/>
@@ -8990,13 +8990,13 @@
       </c>
       <c r="AR35" s="11"/>
       <c r="AU35" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV35" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW35" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX35" s="5" t="str">
         <f t="shared" si="52"/>
@@ -9050,13 +9050,13 @@
     </row>
     <row r="36" spans="2:63" ht="21" customHeight="1">
       <c r="B36" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J36" s="1">
         <v>1500</v>
@@ -9089,7 +9089,7 @@
         <v>1900</v>
       </c>
       <c r="V36" s="32" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W36" s="1" t="str">
         <f t="shared" si="31"/>
@@ -9177,13 +9177,13 @@
       </c>
       <c r="AR36" s="6"/>
       <c r="AU36" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV36" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW36" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX36" s="5" t="str">
         <f t="shared" si="52"/>
@@ -9237,13 +9237,13 @@
     </row>
     <row r="37" spans="2:63" ht="21" customHeight="1">
       <c r="B37" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H37" s="1">
         <v>1500</v>
@@ -9288,7 +9288,7 @@
         <v>1800</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="W37" s="1">
         <f t="shared" si="31"/>
@@ -9376,13 +9376,13 @@
       </c>
       <c r="AR37" s="7"/>
       <c r="AU37" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV37" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW37" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX37" s="5" t="str">
         <f t="shared" si="52"/>
@@ -9436,13 +9436,13 @@
     </row>
     <row r="38" spans="2:63" ht="21" customHeight="1">
       <c r="B38" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G38" s="27" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="W38" s="1" t="str">
         <f t="shared" si="31"/>
@@ -9530,13 +9530,13 @@
       </c>
       <c r="AR38" s="17"/>
       <c r="AU38" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV38" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW38" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX38" s="5" t="str">
         <f t="shared" si="52"/>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="39" spans="2:63" ht="21" customHeight="1">
       <c r="B39" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="W39" s="1" t="str">
         <f t="shared" si="31"/>
@@ -9683,16 +9683,16 @@
         <v/>
       </c>
       <c r="AS39" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU39" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV39" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW39" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX39" s="5" t="str">
         <f t="shared" si="52"/>
@@ -9746,13 +9746,13 @@
     </row>
     <row r="40" spans="2:63" ht="21" customHeight="1">
       <c r="B40" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H40" s="1">
         <v>1800</v>
@@ -9797,7 +9797,7 @@
         <v>2200</v>
       </c>
       <c r="V40" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="W40" s="1">
         <f t="shared" si="31"/>
@@ -9885,13 +9885,13 @@
       </c>
       <c r="AR40" s="10"/>
       <c r="AU40" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV40" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW40" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX40" s="5" t="str">
         <f t="shared" si="52"/>
@@ -9945,13 +9945,13 @@
     </row>
     <row r="41" spans="2:63" ht="21" customHeight="1">
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H41" s="1">
         <v>1600</v>
@@ -9990,7 +9990,7 @@
         <v>1900</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="W41" s="1">
         <f t="shared" si="31"/>
@@ -10078,13 +10078,13 @@
       </c>
       <c r="AR41" s="11"/>
       <c r="AU41" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV41" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW41" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX41" s="5" t="str">
         <f t="shared" si="52"/>
@@ -10138,13 +10138,13 @@
     </row>
     <row r="42" spans="2:63" ht="21" customHeight="1">
       <c r="B42" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H42" s="1">
         <v>1100</v>
@@ -10189,7 +10189,7 @@
         <v>1730</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="W42" s="1">
         <f t="shared" si="31"/>
@@ -10276,16 +10276,16 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AS42" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU42" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV42" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW42" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX42" s="5" t="str">
         <f t="shared" si="52"/>
@@ -10339,13 +10339,13 @@
     </row>
     <row r="43" spans="2:63" ht="21" customHeight="1">
       <c r="B43" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H43" s="1">
         <v>1400</v>
@@ -10390,7 +10390,7 @@
         <v>1800</v>
       </c>
       <c r="V43" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="W43" s="1">
         <f t="shared" si="31"/>
@@ -10478,13 +10478,13 @@
       </c>
       <c r="AR43" s="3"/>
       <c r="AU43" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV43" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW43" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX43" s="5" t="str">
         <f t="shared" si="52"/>
@@ -10538,13 +10538,13 @@
     </row>
     <row r="44" spans="2:63" ht="21" customHeight="1">
       <c r="B44" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="J44" s="1">
         <v>1500</v>
@@ -10577,7 +10577,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="W44" s="1" t="str">
         <f t="shared" si="31"/>
@@ -10664,16 +10664,16 @@
         <v/>
       </c>
       <c r="AT44" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU44" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV44" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW44" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX44" s="5" t="str">
         <f t="shared" si="52"/>
@@ -10733,7 +10733,7 @@
         <v>55</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J45" s="1">
         <v>1500</v>
@@ -10766,7 +10766,7 @@
         <v>1800</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="W45" s="1" t="str">
         <f t="shared" si="31"/>
@@ -10853,22 +10853,22 @@
         <v/>
       </c>
       <c r="AR45" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AS45" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AT45" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU45" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV45" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW45" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX45" s="5" t="str">
         <f t="shared" si="52"/>
@@ -10927,13 +10927,13 @@
     </row>
     <row r="46" spans="2:63" ht="21" customHeight="1">
       <c r="B46" s="18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H46" s="1">
         <v>1500</v>
@@ -10978,7 +10978,7 @@
         <v>1800</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="W46" s="1">
         <f t="shared" si="31"/>
@@ -11066,13 +11066,13 @@
       </c>
       <c r="AR46" s="17"/>
       <c r="AU46" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV46" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW46" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX46" s="5" t="str">
         <f t="shared" si="52"/>
@@ -11126,13 +11126,13 @@
     </row>
     <row r="47" spans="2:63" ht="21" customHeight="1">
       <c r="B47" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J47" s="1">
         <v>1600</v>
@@ -11165,7 +11165,7 @@
         <v>1900</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="W47" s="1" t="str">
         <f t="shared" si="31"/>
@@ -11253,13 +11253,13 @@
       </c>
       <c r="AR47" s="3"/>
       <c r="AU47" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV47" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW47" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX47" s="5" t="str">
         <f t="shared" si="52"/>
@@ -11313,13 +11313,13 @@
     </row>
     <row r="48" spans="2:63" ht="21" customHeight="1">
       <c r="B48" s="1" t="s">
-        <v>71</v>
+        <v>433</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="J48" s="1">
         <v>1600</v>
@@ -11358,7 +11358,7 @@
         <v>1900</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="W48" s="1" t="str">
         <f t="shared" si="31"/>
@@ -11445,24 +11445,24 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AR48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AS48" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU48" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV48" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW48" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX48" s="5" t="str">
         <f t="shared" si="52"/>
         <v>{
-    'name': "Jose Muldoon’s Food &amp; Drink Downtown",
+    'name': "Jose Muldoons Food &amp; Drink Downtown",
     'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$3.50 Drinks - House Margaritas, Draft Beers, Wines, Wells and Sangria&lt;br&gt;$5 Grub - Chili Con Queso, Grilled Chicken Mesquitos, Guacamole, Aztec Dip&lt;br&gt;$6 Grub - 1/2 Nacho Grande, Quesadilla, Carnitas Street Tacos&lt;br&gt;$4 Domestic Drafts&lt;br&gt;$5.50 Premium Drafts", 'link':"http://www.josemuldoons.com/", 'pricing':"",   'phone-number': "", 'address': "222 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['outdoor','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
@@ -11511,13 +11511,13 @@
     </row>
     <row r="49" spans="2:62" ht="21" customHeight="1">
       <c r="B49" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J49" s="1">
         <v>1600</v>
@@ -11550,7 +11550,7 @@
         <v>1800</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="W49" s="1" t="str">
         <f t="shared" si="31"/>
@@ -11638,13 +11638,13 @@
       </c>
       <c r="AR49" s="3"/>
       <c r="AU49" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV49" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW49" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX49" s="5" t="str">
         <f t="shared" si="52"/>
@@ -11698,13 +11698,13 @@
     </row>
     <row r="50" spans="2:62" ht="21" customHeight="1">
       <c r="B50" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J50" s="1">
         <v>1600</v>
@@ -11743,7 +11743,7 @@
         <v>1900</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="W50" s="1" t="str">
         <f t="shared" si="31"/>
@@ -11831,13 +11831,13 @@
       </c>
       <c r="AR50" s="6"/>
       <c r="AU50" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV50" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW50" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX50" s="5" t="str">
         <f t="shared" si="52"/>
@@ -11891,13 +11891,13 @@
     </row>
     <row r="51" spans="2:62" ht="21" customHeight="1">
       <c r="B51" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="G51" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J51" s="1">
         <v>1600</v>
@@ -11930,7 +11930,7 @@
         <v>1900</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="W51" s="1" t="str">
         <f t="shared" si="31"/>
@@ -12018,13 +12018,13 @@
       </c>
       <c r="AR51" s="3"/>
       <c r="AU51" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV51" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW51" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX51" s="5" t="str">
         <f t="shared" si="52"/>
@@ -12078,13 +12078,13 @@
     </row>
     <row r="52" spans="2:62" ht="21" customHeight="1">
       <c r="B52" s="25" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H52" s="1">
         <v>1400</v>
@@ -12129,7 +12129,7 @@
         <v>1700</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W52" s="1">
         <f t="shared" si="31"/>
@@ -12217,16 +12217,16 @@
       </c>
       <c r="AR52" s="6"/>
       <c r="AS52" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU52" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV52" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW52" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX52" s="5" t="str">
         <f t="shared" si="52"/>
@@ -12280,13 +12280,13 @@
     </row>
     <row r="53" spans="2:62" ht="21" customHeight="1">
       <c r="B53" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="V53" s="8"/>
       <c r="W53" s="1" t="str">
@@ -12374,13 +12374,13 @@
         <v/>
       </c>
       <c r="AU53" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV53" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW53" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX53" s="5" t="str">
         <f t="shared" si="52"/>
@@ -12435,13 +12435,13 @@
     </row>
     <row r="54" spans="2:62" ht="21" customHeight="1">
       <c r="B54" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H54" s="1">
         <v>1700</v>
@@ -12480,7 +12480,7 @@
         <v>1900</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="31"/>
@@ -12567,16 +12567,16 @@
         <v/>
       </c>
       <c r="AS54" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU54" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV54" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW54" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX54" s="5" t="str">
         <f t="shared" si="52"/>
@@ -12630,13 +12630,13 @@
     </row>
     <row r="55" spans="2:62" ht="21" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H55" s="1">
         <v>1500</v>
@@ -12681,7 +12681,7 @@
         <v>1800</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="W55" s="1">
         <f t="shared" si="31"/>
@@ -12769,13 +12769,13 @@
       </c>
       <c r="AR55" s="3"/>
       <c r="AU55" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV55" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW55" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX55" s="5" t="str">
         <f t="shared" si="52"/>
@@ -12829,13 +12829,13 @@
     </row>
     <row r="56" spans="2:62" ht="21" customHeight="1">
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H56" s="1">
         <v>1500</v>
@@ -12880,7 +12880,7 @@
         <v>1800</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="W56" s="1">
         <f t="shared" si="31"/>
@@ -12968,13 +12968,13 @@
       </c>
       <c r="AR56" s="6"/>
       <c r="AU56" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV56" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW56" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX56" s="5" t="str">
         <f t="shared" si="52"/>
@@ -13028,13 +13028,13 @@
     </row>
     <row r="57" spans="2:62" ht="21" customHeight="1">
       <c r="B57" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H57" s="1">
         <v>1630</v>
@@ -13061,7 +13061,7 @@
         <v>1830</v>
       </c>
       <c r="V57" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W57" s="1">
         <f t="shared" si="31"/>
@@ -13149,13 +13149,13 @@
       </c>
       <c r="AR57" s="3"/>
       <c r="AU57" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV57" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW57" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX57" s="5" t="str">
         <f t="shared" si="52"/>
@@ -13209,13 +13209,13 @@
     </row>
     <row r="58" spans="2:62" ht="21" customHeight="1">
       <c r="B58" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="W58" s="1" t="str">
         <f t="shared" si="31"/>
@@ -13302,16 +13302,16 @@
         <v/>
       </c>
       <c r="AT58" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU58" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV58" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW58" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX58" s="5" t="str">
         <f t="shared" si="52"/>
@@ -13365,13 +13365,13 @@
     </row>
     <row r="59" spans="2:62" ht="21" customHeight="1">
       <c r="B59" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J59" s="1">
         <v>1600</v>
@@ -13404,7 +13404,7 @@
         <v>1900</v>
       </c>
       <c r="V59" s="20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="W59" s="1" t="str">
         <f t="shared" si="31"/>
@@ -13492,13 +13492,13 @@
       </c>
       <c r="AR59" s="3"/>
       <c r="AU59" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV59" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW59" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX59" s="5" t="str">
         <f t="shared" si="52"/>
@@ -13558,7 +13558,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J60" s="1">
         <v>1500</v>
@@ -13591,7 +13591,7 @@
         <v>1800</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W60" s="1" t="str">
         <f t="shared" si="31"/>
@@ -13681,16 +13681,16 @@
         <v>64</v>
       </c>
       <c r="AS60" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU60" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV60" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW60" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX60" s="5" t="str">
         <f t="shared" si="52"/>
@@ -13744,13 +13744,13 @@
     </row>
     <row r="61" spans="2:62" ht="21" customHeight="1">
       <c r="B61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G61" s="27" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H61" s="1">
         <v>1000</v>
@@ -13795,7 +13795,7 @@
         <v>2400</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="W61" s="1">
         <f t="shared" si="31"/>
@@ -13882,13 +13882,13 @@
         <v>10am-12am</v>
       </c>
       <c r="AU61" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV61" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW61" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX61" s="5" t="str">
         <f t="shared" si="52"/>
@@ -13942,13 +13942,13 @@
     </row>
     <row r="62" spans="2:62" ht="21" customHeight="1">
       <c r="B62" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="W62" s="1" t="str">
         <f t="shared" si="31"/>
@@ -14035,16 +14035,16 @@
         <v/>
       </c>
       <c r="AT62" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU62" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV62" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW62" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX62" s="5" t="str">
         <f t="shared" si="52"/>
@@ -14098,13 +14098,13 @@
     </row>
     <row r="63" spans="2:62" ht="21" customHeight="1">
       <c r="B63" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="W63" s="1" t="str">
         <f t="shared" si="31"/>
@@ -14191,13 +14191,13 @@
         <v/>
       </c>
       <c r="AU63" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV63" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW63" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX63" s="5" t="str">
         <f t="shared" si="52"/>
@@ -14251,13 +14251,13 @@
     </row>
     <row r="64" spans="2:62" ht="21" customHeight="1">
       <c r="B64" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H64" s="1">
         <v>1500</v>
@@ -14302,7 +14302,7 @@
         <v>1800</v>
       </c>
       <c r="V64" s="28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="W64" s="1">
         <f t="shared" si="31"/>
@@ -14389,22 +14389,22 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AR64" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AS64" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AT64" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU64" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV64" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW64" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX64" s="5" t="str">
         <f t="shared" si="52"/>
@@ -14458,13 +14458,13 @@
     </row>
     <row r="65" spans="2:61" ht="21" customHeight="1">
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H65" s="1">
         <v>1500</v>
@@ -14594,13 +14594,13 @@
       </c>
       <c r="AR65" s="11"/>
       <c r="AU65" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV65" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW65" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX65" s="5" t="str">
         <f t="shared" si="52"/>
@@ -14654,13 +14654,13 @@
     </row>
     <row r="66" spans="2:61" ht="21" customHeight="1">
       <c r="B66" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="V66" s="8"/>
       <c r="W66" s="1" t="str">
@@ -14748,13 +14748,13 @@
         <v/>
       </c>
       <c r="AU66" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV66" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW66" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX66" s="5" t="str">
         <f t="shared" ref="AX66:AX97" si="83">CONCATENATE("{
@@ -14812,13 +14812,13 @@
     </row>
     <row r="67" spans="2:61" ht="21" customHeight="1">
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="V67" s="34"/>
       <c r="W67" s="1" t="str">
@@ -14907,13 +14907,13 @@
       </c>
       <c r="AR67" s="6"/>
       <c r="AU67" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV67" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW67" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX67" s="5" t="str">
         <f t="shared" si="83"/>
@@ -14967,13 +14967,13 @@
     </row>
     <row r="68" spans="2:61" ht="21" customHeight="1">
       <c r="B68" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H68" s="1">
         <v>1700</v>
@@ -15012,7 +15012,7 @@
         <v>1800</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W68" s="1">
         <f t="shared" si="62"/>
@@ -15100,13 +15100,13 @@
       </c>
       <c r="AR68" s="3"/>
       <c r="AU68" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV68" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW68" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX68" s="5" t="str">
         <f t="shared" si="83"/>
@@ -15160,13 +15160,13 @@
     </row>
     <row r="69" spans="2:61" ht="21" customHeight="1">
       <c r="B69" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J69" s="1">
         <v>1600</v>
@@ -15283,16 +15283,16 @@
         <v/>
       </c>
       <c r="AS69" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU69" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV69" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW69" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX69" s="5" t="str">
         <f t="shared" si="83"/>
@@ -15346,13 +15346,13 @@
     </row>
     <row r="70" spans="2:61" ht="21" customHeight="1">
       <c r="B70" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="W70" s="1" t="str">
         <f t="shared" si="62"/>
@@ -15440,16 +15440,16 @@
       </c>
       <c r="AR70" s="11"/>
       <c r="AT70" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU70" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV70" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW70" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX70" s="5" t="str">
         <f t="shared" si="83"/>
@@ -15503,13 +15503,13 @@
     </row>
     <row r="71" spans="2:61" ht="21" customHeight="1">
       <c r="B71" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="J71" s="1">
         <v>1500</v>
@@ -15542,7 +15542,7 @@
         <v>1900</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="W71" s="1" t="str">
         <f t="shared" si="62"/>
@@ -15629,13 +15629,13 @@
         <v/>
       </c>
       <c r="AU71" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV71" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW71" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX71" s="5" t="str">
         <f t="shared" si="83"/>
@@ -15689,13 +15689,13 @@
     </row>
     <row r="72" spans="2:61" ht="21" customHeight="1">
       <c r="B72" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="V72" s="8"/>
       <c r="W72" s="1" t="str">
@@ -15784,13 +15784,13 @@
       </c>
       <c r="AR72" s="9"/>
       <c r="AU72" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV72" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW72" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX72" s="5" t="str">
         <f t="shared" si="83"/>
@@ -15844,13 +15844,13 @@
     </row>
     <row r="73" spans="2:61" ht="21" customHeight="1">
       <c r="B73" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J73" s="1">
         <v>1500</v>
@@ -15883,7 +15883,7 @@
         <v>1900</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="W73" s="1" t="str">
         <f t="shared" si="62"/>
@@ -15970,13 +15970,13 @@
         <v/>
       </c>
       <c r="AU73" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV73" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW73" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX73" s="5" t="str">
         <f t="shared" si="83"/>
@@ -16030,13 +16030,13 @@
     </row>
     <row r="74" spans="2:61" ht="21" customHeight="1">
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="V74" s="8"/>
       <c r="W74" s="1" t="str">
@@ -16125,13 +16125,13 @@
       </c>
       <c r="AR74" s="6"/>
       <c r="AU74" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV74" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW74" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX74" s="5" t="str">
         <f t="shared" si="83"/>
@@ -16185,13 +16185,13 @@
     </row>
     <row r="75" spans="2:61" ht="21" customHeight="1">
       <c r="B75" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J75" s="1">
         <v>1500</v>
@@ -16224,7 +16224,7 @@
         <v>1800</v>
       </c>
       <c r="V75" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="W75" s="1" t="str">
         <f t="shared" si="62"/>
@@ -16312,13 +16312,13 @@
       </c>
       <c r="AR75" s="3"/>
       <c r="AU75" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV75" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW75" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX75" s="5" t="str">
         <f t="shared" si="83"/>
@@ -16372,13 +16372,13 @@
     </row>
     <row r="76" spans="2:61" ht="21" customHeight="1">
       <c r="B76" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="W76" s="1" t="str">
         <f t="shared" si="62"/>
@@ -16466,16 +16466,16 @@
       </c>
       <c r="AR76" s="3"/>
       <c r="AT76" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU76" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV76" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW76" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX76" s="5" t="str">
         <f t="shared" si="83"/>
@@ -16529,13 +16529,13 @@
     </row>
     <row r="77" spans="2:61" ht="21" customHeight="1">
       <c r="B77" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G77" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J77" s="1">
         <v>1600</v>
@@ -16568,7 +16568,7 @@
         <v>1800</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="W77" s="1" t="str">
         <f t="shared" si="62"/>
@@ -16655,13 +16655,13 @@
         <v/>
       </c>
       <c r="AU77" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV77" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW77" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX77" s="5" t="str">
         <f t="shared" si="83"/>
@@ -16715,13 +16715,13 @@
     </row>
     <row r="78" spans="2:61" ht="21" customHeight="1">
       <c r="B78" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H78" s="1">
         <v>1500</v>
@@ -16766,7 +16766,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="W78" s="1">
         <f t="shared" si="62"/>
@@ -16854,16 +16854,16 @@
       </c>
       <c r="AR78" s="6"/>
       <c r="AT78" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU78" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV78" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW78" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX78" s="5" t="str">
         <f t="shared" si="83"/>
@@ -16917,13 +16917,13 @@
     </row>
     <row r="79" spans="2:61" ht="21" customHeight="1">
       <c r="B79" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G79" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P79" s="1">
         <v>1600</v>
@@ -17029,16 +17029,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AT79" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU79" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV79" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW79" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX79" s="5" t="str">
         <f t="shared" si="83"/>
@@ -17092,13 +17092,13 @@
     </row>
     <row r="80" spans="2:61" ht="21" customHeight="1">
       <c r="B80" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J80" s="1">
         <v>1400</v>
@@ -17137,7 +17137,7 @@
         <v>1800</v>
       </c>
       <c r="V80" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="W80" s="1" t="str">
         <f t="shared" si="62"/>
@@ -17224,16 +17224,16 @@
         <v>11am-6pm</v>
       </c>
       <c r="AS80" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU80" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV80" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW80" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX80" s="5" t="str">
         <f t="shared" si="83"/>
@@ -17288,13 +17288,13 @@
     </row>
     <row r="81" spans="2:64" ht="21" customHeight="1">
       <c r="B81" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J81" s="1">
         <v>1500</v>
@@ -17327,7 +17327,7 @@
         <v>1900</v>
       </c>
       <c r="V81" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="W81" s="1" t="str">
         <f t="shared" si="62"/>
@@ -17414,13 +17414,13 @@
         <v/>
       </c>
       <c r="AU81" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV81" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW81" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX81" s="5" t="str">
         <f t="shared" si="83"/>
@@ -17474,13 +17474,13 @@
     </row>
     <row r="82" spans="2:64" ht="21" customHeight="1">
       <c r="B82" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H82" s="1">
         <v>1600</v>
@@ -17525,7 +17525,7 @@
         <v>1800</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" si="62"/>
@@ -17613,16 +17613,16 @@
       </c>
       <c r="AR82" s="3"/>
       <c r="AT82" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU82" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV82" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW82" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX82" s="5" t="str">
         <f t="shared" si="83"/>
@@ -17676,13 +17676,13 @@
     </row>
     <row r="83" spans="2:64" ht="21" customHeight="1">
       <c r="B83" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H83" s="1">
         <v>1500</v>
@@ -17727,7 +17727,7 @@
         <v>1800</v>
       </c>
       <c r="V83" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" si="62"/>
@@ -17815,13 +17815,13 @@
       </c>
       <c r="AR83" s="3"/>
       <c r="AU83" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV83" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW83" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX83" s="5" t="str">
         <f t="shared" si="83"/>
@@ -17876,13 +17876,13 @@
     </row>
     <row r="84" spans="2:64" ht="21" customHeight="1">
       <c r="B84" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J84" s="1">
         <v>1500</v>
@@ -17921,7 +17921,7 @@
         <v>1900</v>
       </c>
       <c r="V84" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W84" s="1" t="str">
         <f t="shared" si="62"/>
@@ -18009,16 +18009,16 @@
       </c>
       <c r="AR84" s="3"/>
       <c r="AS84" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU84" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV84" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW84" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX84" s="5" t="str">
         <f t="shared" si="83"/>
@@ -18072,13 +18072,13 @@
     </row>
     <row r="85" spans="2:64" ht="21" customHeight="1">
       <c r="B85" s="25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G85" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H85" s="1">
         <v>1600</v>
@@ -18123,7 +18123,7 @@
         <v>1900</v>
       </c>
       <c r="V85" s="31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="62"/>
@@ -18211,13 +18211,13 @@
       </c>
       <c r="AR85" s="3"/>
       <c r="AU85" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV85" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW85" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX85" s="5" t="str">
         <f t="shared" si="83"/>
@@ -18271,13 +18271,13 @@
     </row>
     <row r="86" spans="2:64" ht="21" customHeight="1">
       <c r="B86" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H86" s="1">
         <v>1500</v>
@@ -18322,7 +18322,7 @@
         <v>1800</v>
       </c>
       <c r="V86" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="62"/>
@@ -18409,16 +18409,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AS86" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU86" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV86" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW86" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX86" s="5" t="str">
         <f t="shared" si="83"/>
@@ -18474,13 +18474,13 @@
     </row>
     <row r="87" spans="2:64" ht="21" customHeight="1">
       <c r="B87" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H87" s="1">
         <v>1500</v>
@@ -18525,7 +18525,7 @@
         <v>1800</v>
       </c>
       <c r="V87" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" si="62"/>
@@ -18613,13 +18613,13 @@
       </c>
       <c r="AR87" s="3"/>
       <c r="AU87" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV87" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW87" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX87" s="5" t="str">
         <f t="shared" si="83"/>
@@ -18673,13 +18673,13 @@
     </row>
     <row r="88" spans="2:64" ht="21" customHeight="1">
       <c r="B88" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="W88" s="1" t="str">
         <f t="shared" si="62"/>
@@ -18766,16 +18766,16 @@
         <v/>
       </c>
       <c r="AT88" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU88" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV88" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW88" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX88" s="5" t="str">
         <f t="shared" si="83"/>
@@ -18829,13 +18829,13 @@
     </row>
     <row r="89" spans="2:64" ht="21" customHeight="1">
       <c r="B89" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J89" s="1">
         <v>1500</v>
@@ -18868,7 +18868,7 @@
         <v>1800</v>
       </c>
       <c r="V89" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="W89" s="1" t="str">
         <f t="shared" si="62"/>
@@ -18955,16 +18955,16 @@
         <v/>
       </c>
       <c r="AR89" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AU89" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV89" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW89" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX89" s="5" t="str">
         <f t="shared" si="83"/>
@@ -19018,13 +19018,13 @@
     </row>
     <row r="90" spans="2:64" ht="21" customHeight="1">
       <c r="B90" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J90" s="1">
         <v>1500</v>
@@ -19057,7 +19057,7 @@
         <v>1800</v>
       </c>
       <c r="V90" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W90" s="1" t="str">
         <f t="shared" si="62"/>
@@ -19144,13 +19144,13 @@
         <v/>
       </c>
       <c r="AU90" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV90" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW90" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX90" s="5" t="str">
         <f t="shared" si="83"/>
@@ -19204,13 +19204,13 @@
     </row>
     <row r="91" spans="2:64" ht="21" customHeight="1">
       <c r="B91" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J91" s="1">
         <v>1600</v>
@@ -19243,7 +19243,7 @@
         <v>1800</v>
       </c>
       <c r="V91" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="W91" s="1" t="str">
         <f t="shared" si="62"/>
@@ -19331,13 +19331,13 @@
       </c>
       <c r="AR91" s="3"/>
       <c r="AU91" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV91" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW91" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX91" s="5" t="str">
         <f t="shared" si="83"/>
@@ -19391,13 +19391,13 @@
     </row>
     <row r="92" spans="2:64" ht="21" customHeight="1">
       <c r="B92" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W92" s="1" t="str">
         <f t="shared" si="62"/>
@@ -19484,19 +19484,19 @@
         <v/>
       </c>
       <c r="AS92" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AT92" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU92" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV92" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW92" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX92" s="5" t="str">
         <f t="shared" si="83"/>
@@ -19550,13 +19550,13 @@
     </row>
     <row r="93" spans="2:64" ht="21" customHeight="1">
       <c r="B93" s="8" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J93" s="1">
         <v>1500</v>
@@ -19589,7 +19589,7 @@
         <v>1800</v>
       </c>
       <c r="V93" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="W93" s="1" t="str">
         <f t="shared" si="62"/>
@@ -19676,21 +19676,21 @@
         <v/>
       </c>
       <c r="AR93" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU93" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV93" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW93" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX93" s="5" t="str">
         <f t="shared" si="83"/>
         <v>{
-    'name': "T-Byrd’s Tacos &amp; Tequila",
+    'name': "T-Byrds Tacos &amp; Tequila",
     'area': "downtown",'hours': {
       'sunday-start':"", 'sunday-end':"", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"", 'saturday-end':""},  'description': "$5 Margs&lt;br&gt;$5 Sangria Swirl&lt;br&gt;$3 Tacate, Dos XX, and Mandelo&lt;br&gt;$3 Baby Margs&lt;br&gt;Tacos $2.50-$3.25&lt;br&gt;$5 Guac&lt;br&gt;$3.95 Chips and Salsa", 'link':"http://www.tbyrdstacos.com/index.html", 'pricing':"",   'phone-number': "", 'address': "26 E Kiowa St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
@@ -19739,13 +19739,13 @@
     </row>
     <row r="94" spans="2:64" ht="21" customHeight="1">
       <c r="B94" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H94" s="1">
         <v>1100</v>
@@ -19790,7 +19790,7 @@
         <v>1600</v>
       </c>
       <c r="V94" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="62"/>
@@ -19878,13 +19878,13 @@
       </c>
       <c r="AR94" s="3"/>
       <c r="AU94" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV94" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW94" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX94" s="5" t="str">
         <f t="shared" si="83"/>
@@ -19938,13 +19938,13 @@
     </row>
     <row r="95" spans="2:64" ht="21" customHeight="1">
       <c r="B95" s="25" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H95" s="1">
         <v>1100</v>
@@ -19989,7 +19989,7 @@
         <v>1600</v>
       </c>
       <c r="V95" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="62"/>
@@ -20076,13 +20076,13 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU95" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV95" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW95" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX95" s="5" t="str">
         <f t="shared" si="83"/>
@@ -20136,13 +20136,13 @@
     </row>
     <row r="96" spans="2:64" ht="21" customHeight="1">
       <c r="B96" s="25" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H96" s="1">
         <v>1100</v>
@@ -20187,7 +20187,7 @@
         <v>1600</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W96" s="1">
         <f t="shared" si="62"/>
@@ -20274,13 +20274,13 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU96" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV96" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW96" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX96" s="5" t="str">
         <f t="shared" si="83"/>
@@ -20334,13 +20334,13 @@
     </row>
     <row r="97" spans="2:61" ht="21" customHeight="1">
       <c r="B97" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="W97" s="1" t="str">
         <f t="shared" si="62"/>
@@ -20427,16 +20427,16 @@
         <v/>
       </c>
       <c r="AT97" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU97" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV97" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW97" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX97" s="5" t="str">
         <f t="shared" si="83"/>
@@ -20490,13 +20490,13 @@
     </row>
     <row r="98" spans="2:61" ht="21" customHeight="1">
       <c r="B98" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L98" s="1">
         <v>1700</v>
@@ -20529,7 +20529,7 @@
         <v>1900</v>
       </c>
       <c r="V98" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="W98" s="1" t="str">
         <f t="shared" ref="W98:W119" si="93">IF(H98&gt;0,H98/100,"")</f>
@@ -20617,16 +20617,16 @@
       </c>
       <c r="AR98" s="6"/>
       <c r="AU98" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV98" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW98" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX98" s="5" t="str">
-        <f t="shared" ref="AX98:AX129" si="114">CONCATENATE("{
+        <f t="shared" ref="AX98:AX119" si="114">CONCATENATE("{
     'name': """,B98,""",
     'area': ","""",C98,""",",
 "'hours': {
@@ -20657,7 +20657,7 @@
         <v/>
       </c>
       <c r="BD98" s="1" t="str">
-        <f t="shared" ref="BD98:BD129" si="120">CONCATENATE(AY98,AZ98,BA98,BB98,BC98,BK98)</f>
+        <f t="shared" ref="BD98:BD119" si="120">CONCATENATE(AY98,AZ98,BA98,BB98,BC98,BK98)</f>
         <v>&lt;img src=@img/drinkicon.png@&gt;</v>
       </c>
       <c r="BE98" s="1" t="str">
@@ -20675,19 +20675,19 @@
         <v>-104.8235583</v>
       </c>
       <c r="BI98" s="1" t="str">
-        <f t="shared" ref="BI98:BI129" si="123">CONCATENATE("[",BG98,",",BH98,"],")</f>
+        <f t="shared" ref="BI98:BI119" si="123">CONCATENATE("[",BG98,",",BH98,"],")</f>
         <v>[38.8333217,-104.8235583],</v>
       </c>
     </row>
     <row r="99" spans="2:61" ht="21" customHeight="1">
       <c r="B99" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H99" s="1">
         <v>1600</v>
@@ -20732,7 +20732,7 @@
         <v>1800</v>
       </c>
       <c r="V99" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="93"/>
@@ -20820,13 +20820,13 @@
       </c>
       <c r="AR99" s="3"/>
       <c r="AU99" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV99" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW99" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX99" s="5" t="str">
         <f t="shared" si="114"/>
@@ -20880,13 +20880,13 @@
     </row>
     <row r="100" spans="2:61" ht="21" customHeight="1">
       <c r="B100" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J100" s="1">
         <v>1600</v>
@@ -20919,7 +20919,7 @@
         <v>1730</v>
       </c>
       <c r="V100" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="W100" s="1" t="str">
         <f t="shared" si="93"/>
@@ -21006,13 +21006,13 @@
         <v/>
       </c>
       <c r="AU100" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV100" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW100" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX100" s="5" t="str">
         <f t="shared" si="114"/>
@@ -21066,13 +21066,13 @@
     </row>
     <row r="101" spans="2:61" ht="21" customHeight="1">
       <c r="B101" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H101" s="1">
         <v>1600</v>
@@ -21117,7 +21117,7 @@
         <v>2000</v>
       </c>
       <c r="V101" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" si="93"/>
@@ -21205,13 +21205,13 @@
       </c>
       <c r="AR101" s="3"/>
       <c r="AU101" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV101" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW101" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX101" s="5" t="str">
         <f t="shared" si="114"/>
@@ -21265,13 +21265,13 @@
     </row>
     <row r="102" spans="2:61" ht="21" customHeight="1">
       <c r="B102" s="18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="V102" s="5"/>
       <c r="W102" s="1" t="str">
@@ -21359,16 +21359,16 @@
         <v/>
       </c>
       <c r="AT102" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU102" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV102" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW102" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX102" s="5" t="str">
         <f t="shared" si="114"/>
@@ -21422,13 +21422,13 @@
     </row>
     <row r="103" spans="2:61" ht="21" customHeight="1">
       <c r="B103" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V103" s="2"/>
       <c r="W103" s="1" t="str">
@@ -21517,13 +21517,13 @@
       </c>
       <c r="AR103" s="3"/>
       <c r="AU103" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV103" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW103" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX103" s="5" t="str">
         <f t="shared" si="114"/>
@@ -21577,13 +21577,13 @@
     </row>
     <row r="104" spans="2:61" ht="21" customHeight="1">
       <c r="B104" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="G104" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J104" s="1">
         <v>1700</v>
@@ -21616,7 +21616,7 @@
         <v>1900</v>
       </c>
       <c r="V104" s="34" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="W104" s="1" t="str">
         <f t="shared" si="93"/>
@@ -21704,13 +21704,13 @@
       </c>
       <c r="AR104" s="6"/>
       <c r="AU104" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV104" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW104" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX104" s="5" t="str">
         <f t="shared" si="114"/>
@@ -21770,7 +21770,7 @@
         <v>55</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J105" s="1">
         <v>1700</v>
@@ -21803,7 +21803,7 @@
         <v>1900</v>
       </c>
       <c r="V105" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="W105" s="1" t="str">
         <f t="shared" si="93"/>
@@ -21890,16 +21890,16 @@
         <v/>
       </c>
       <c r="AR105" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AU105" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV105" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW105" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX105" s="5" t="str">
         <f t="shared" si="114"/>
@@ -21953,13 +21953,13 @@
     </row>
     <row r="106" spans="2:61" ht="21" customHeight="1">
       <c r="B106" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="G106" s="12" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H106" s="1">
         <v>1600</v>
@@ -22004,7 +22004,7 @@
         <v>1800</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="93"/>
@@ -22092,13 +22092,13 @@
       </c>
       <c r="AR106" s="3"/>
       <c r="AU106" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV106" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW106" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX106" s="5" t="str">
         <f t="shared" si="114"/>
@@ -22152,13 +22152,13 @@
     </row>
     <row r="107" spans="2:61" ht="21" customHeight="1">
       <c r="B107" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H107" s="1">
         <v>1600</v>
@@ -22191,7 +22191,7 @@
         <v>1800</v>
       </c>
       <c r="V107" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="93"/>
@@ -22279,13 +22279,13 @@
       </c>
       <c r="AR107" s="9"/>
       <c r="AU107" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV107" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW107" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX107" s="5" t="str">
         <f t="shared" si="114"/>
@@ -22339,13 +22339,13 @@
     </row>
     <row r="108" spans="2:61" ht="21" customHeight="1">
       <c r="B108" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L108" s="1">
         <v>1600</v>
@@ -22378,7 +22378,7 @@
         <v>1900</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W108" s="1" t="str">
         <f t="shared" si="93"/>
@@ -22466,13 +22466,13 @@
       </c>
       <c r="AR108" s="3"/>
       <c r="AU108" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV108" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW108" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX108" s="5" t="str">
         <f t="shared" si="114"/>
@@ -22526,13 +22526,13 @@
     </row>
     <row r="109" spans="2:61" ht="21" customHeight="1">
       <c r="B109" s="25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H109" s="1">
         <v>1500</v>
@@ -22577,7 +22577,7 @@
         <v>1800</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="93"/>
@@ -22665,16 +22665,16 @@
       </c>
       <c r="AR109" s="3"/>
       <c r="AS109" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU109" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV109" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW109" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX109" s="5" t="str">
         <f t="shared" si="114"/>
@@ -22728,13 +22728,13 @@
     </row>
     <row r="110" spans="2:61" ht="21" customHeight="1">
       <c r="B110" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="J110" s="1">
         <v>1600</v>
@@ -22767,7 +22767,7 @@
         <v>1800</v>
       </c>
       <c r="V110" s="5" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="W110" s="1" t="str">
         <f t="shared" si="93"/>
@@ -22855,16 +22855,16 @@
       </c>
       <c r="AR110" s="6"/>
       <c r="AT110" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU110" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV110" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW110" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX110" s="5" t="str">
         <f t="shared" si="114"/>
@@ -22918,13 +22918,13 @@
     </row>
     <row r="111" spans="2:61" ht="21" customHeight="1">
       <c r="B111" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H111" s="1">
         <v>1100</v>
@@ -22969,7 +22969,7 @@
         <v>1900</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="W111" s="1">
         <f t="shared" si="93"/>
@@ -23057,16 +23057,16 @@
       </c>
       <c r="AR111" s="3"/>
       <c r="AS111" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AU111" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV111" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW111" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX111" s="5" t="str">
         <f t="shared" si="114"/>
@@ -23120,13 +23120,13 @@
     </row>
     <row r="112" spans="2:61" ht="21" customHeight="1">
       <c r="B112" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J112" s="1">
         <v>1600</v>
@@ -23159,7 +23159,7 @@
         <v>1730</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="W112" s="1" t="str">
         <f t="shared" si="93"/>
@@ -23247,13 +23247,13 @@
       </c>
       <c r="AR112" s="3"/>
       <c r="AU112" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV112" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW112" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX112" s="5" t="str">
         <f t="shared" si="114"/>
@@ -23307,13 +23307,13 @@
     </row>
     <row r="113" spans="2:61" ht="21" customHeight="1">
       <c r="B113" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H113" s="1">
         <v>1600</v>
@@ -23358,7 +23358,7 @@
         <v>1900</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="W113" s="1">
         <f t="shared" si="93"/>
@@ -23445,13 +23445,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AU113" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV113" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW113" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX113" s="5" t="str">
         <f t="shared" si="114"/>
@@ -23505,13 +23505,13 @@
     </row>
     <row r="114" spans="2:61" ht="21" customHeight="1">
       <c r="B114" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J114" s="1">
         <v>1500</v>
@@ -23532,7 +23532,7 @@
         <v>2100</v>
       </c>
       <c r="V114" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W114" s="1" t="str">
         <f t="shared" si="93"/>
@@ -23620,13 +23620,13 @@
       </c>
       <c r="AR114" s="3"/>
       <c r="AU114" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV114" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW114" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX114" s="5" t="str">
         <f t="shared" si="114"/>
@@ -23680,13 +23680,13 @@
     </row>
     <row r="115" spans="2:61" ht="21" customHeight="1">
       <c r="B115" s="17" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J115" s="1">
         <v>1630</v>
@@ -23713,7 +23713,7 @@
         <v>1800</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="W115" s="1" t="str">
         <f t="shared" si="93"/>
@@ -23801,16 +23801,16 @@
       </c>
       <c r="AR115" s="3"/>
       <c r="AT115" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="AU115" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV115" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW115" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX115" s="5" t="str">
         <f t="shared" si="114"/>
@@ -23864,13 +23864,13 @@
     </row>
     <row r="116" spans="2:61" ht="21" customHeight="1">
       <c r="B116" s="25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H116" s="1">
         <v>1600</v>
@@ -23915,7 +23915,7 @@
         <v>1900</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="W116" s="1">
         <f t="shared" si="93"/>
@@ -24003,13 +24003,13 @@
       </c>
       <c r="AR116" s="3"/>
       <c r="AU116" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV116" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW116" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX116" s="5" t="str">
         <f t="shared" si="114"/>
@@ -24063,13 +24063,13 @@
     </row>
     <row r="117" spans="2:61" ht="21" customHeight="1">
       <c r="B117" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W117" s="1" t="str">
         <f t="shared" si="93"/>
@@ -24156,13 +24156,13 @@
         <v/>
       </c>
       <c r="AU117" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV117" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW117" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX117" s="5" t="str">
         <f t="shared" si="114"/>
@@ -24216,13 +24216,13 @@
     </row>
     <row r="118" spans="2:61" ht="21" customHeight="1">
       <c r="B118" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J118" s="1">
         <v>1700</v>
@@ -24255,7 +24255,7 @@
         <v>1830</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="W118" s="1" t="str">
         <f t="shared" si="93"/>
@@ -24342,13 +24342,13 @@
         <v/>
       </c>
       <c r="AU118" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV118" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW118" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AX118" s="5" t="str">
         <f t="shared" si="114"/>
@@ -24402,13 +24402,13 @@
     </row>
     <row r="119" spans="2:61" ht="21" customHeight="1">
       <c r="B119" s="25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J119" s="1">
         <v>1400</v>
@@ -24447,7 +24447,7 @@
         <v>1900</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="W119" s="1" t="str">
         <f t="shared" si="93"/>
@@ -24535,13 +24535,13 @@
       </c>
       <c r="AR119" s="3"/>
       <c r="AU119" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AV119" s="4" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AW119" s="4" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AX119" s="5" t="str">
         <f t="shared" si="114"/>
@@ -24645,10 +24645,10 @@
         <v>-104.82306</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E2" s="8"/>
     </row>
@@ -24660,10 +24660,10 @@
         <v>-104.82317999999999</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -24675,10 +24675,10 @@
         <v>-104.82387</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -24690,10 +24690,10 @@
         <v>-104.82407000000001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -24705,10 +24705,10 @@
         <v>-104.83453</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E6" s="8"/>
     </row>
@@ -24720,10 +24720,10 @@
         <v>-104.8241113</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -24734,10 +24734,10 @@
         <v>-104.8235078</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -24748,10 +24748,10 @@
         <v>-104.82483999999999</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -24762,10 +24762,10 @@
         <v>-104.86208000000001</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -24776,10 +24776,10 @@
         <v>-104.86077</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24790,10 +24790,10 @@
         <v>-104.864165</v>
       </c>
       <c r="C12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24804,10 +24804,10 @@
         <v>-104.86541</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -24818,10 +24818,10 @@
         <v>-104.91531999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -24832,10 +24832,10 @@
         <v>-104.9178137</v>
       </c>
       <c r="C15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75">
@@ -24846,10 +24846,10 @@
         <v>-104.91963</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -24860,10 +24860,10 @@
         <v>-104.91604</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -24874,10 +24874,10 @@
         <v>-104.91552</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -24888,10 +24888,10 @@
         <v>-104.91779</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75">
@@ -24902,10 +24902,10 @@
         <v>-104.91792</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -24916,10 +24916,10 @@
         <v>-104.71729000000001</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
@@ -24930,10 +24930,10 @@
         <v>-104.71872</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75">
@@ -24944,10 +24944,10 @@
         <v>-104.7109871</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -24958,10 +24958,10 @@
         <v>-104.72107</v>
       </c>
       <c r="C24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D24" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -24972,10 +24972,10 @@
         <v>-104.71510000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -24986,10 +24986,10 @@
         <v>-104.72270399999999</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -25000,10 +25000,10 @@
         <v>-104.71393999999999</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -25014,10 +25014,10 @@
         <v>-104.7167</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -25028,10 +25028,10 @@
         <v>-104.71691</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D29" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -25042,10 +25042,10 @@
         <v>-104.71639</v>
       </c>
       <c r="C30" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D30" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75">
@@ -25056,10 +25056,10 @@
         <v>-104.71841430000001</v>
       </c>
       <c r="C31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75">
@@ -25070,10 +25070,10 @@
         <v>-104.71903</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D32" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -25084,10 +25084,10 @@
         <v>-104.8244246</v>
       </c>
       <c r="C33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D33" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
@@ -25098,10 +25098,10 @@
         <v>-104.827124</v>
       </c>
       <c r="C34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -25112,10 +25112,10 @@
         <v>-104.81879170000001</v>
       </c>
       <c r="C35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
@@ -25126,10 +25126,10 @@
         <v>-104.82262</v>
       </c>
       <c r="C36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -25140,10 +25140,10 @@
         <v>-104.8184667</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
@@ -25154,10 +25154,10 @@
         <v>-104.8235583</v>
       </c>
       <c r="C38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -25168,10 +25168,10 @@
         <v>-104.822571</v>
       </c>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -25182,10 +25182,10 @@
         <v>-104.82375</v>
       </c>
       <c r="C40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -25196,10 +25196,10 @@
         <v>-104.8235583</v>
       </c>
       <c r="C41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -25210,10 +25210,10 @@
         <v>-104.82393</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -25224,10 +25224,10 @@
         <v>-104.82666999999999</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D43" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -25238,10 +25238,10 @@
         <v>-104.8226938</v>
       </c>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -25252,10 +25252,10 @@
         <v>-104.8231</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D45" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -25266,10 +25266,10 @@
         <v>-104.82272</v>
       </c>
       <c r="C46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -25280,10 +25280,10 @@
         <v>-105.04581</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -25294,10 +25294,10 @@
         <v>-104.85966000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -25308,10 +25308,10 @@
         <v>-104.87315</v>
       </c>
       <c r="C49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -25322,10 +25322,10 @@
         <v>-104.78243000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -25336,10 +25336,10 @@
         <v>-104.84954</v>
       </c>
       <c r="C51" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D51" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -25350,10 +25350,10 @@
         <v>-104.8554</v>
       </c>
       <c r="C52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D52" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -25364,10 +25364,10 @@
         <v>-104.87358999999999</v>
       </c>
       <c r="C53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -25378,10 +25378,10 @@
         <v>-104.82319819999999</v>
       </c>
       <c r="C54" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D54" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -25392,10 +25392,10 @@
         <v>-104.82472</v>
       </c>
       <c r="C55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D55" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -25406,10 +25406,10 @@
         <v>-104.82538</v>
       </c>
       <c r="C56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -25420,10 +25420,10 @@
         <v>-104.91367</v>
       </c>
       <c r="C57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -25434,10 +25434,10 @@
         <v>-104.82259999999999</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D58" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -25448,10 +25448,10 @@
         <v>-104.7906933</v>
       </c>
       <c r="C59" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -25462,10 +25462,10 @@
         <v>-104.79201999999999</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D60" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25476,10 +25476,10 @@
         <v>-104.77376529999999</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D61" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -25490,10 +25490,10 @@
         <v>-104.7742415</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D62" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -25504,10 +25504,10 @@
         <v>-104.7947455</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D63" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -25518,10 +25518,10 @@
         <v>-104.7764085</v>
       </c>
       <c r="C64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D64" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -25532,10 +25532,10 @@
         <v>-104.77398049999999</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -25546,10 +25546,10 @@
         <v>-104.80538</v>
       </c>
       <c r="C66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -25560,10 +25560,10 @@
         <v>-104.80002</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -25574,10 +25574,10 @@
         <v>-104.79742</v>
       </c>
       <c r="C68" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D68" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -25588,10 +25588,10 @@
         <v>-104.80141500000001</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -25602,10 +25602,10 @@
         <v>-104.80368</v>
       </c>
       <c r="C70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -25616,10 +25616,10 @@
         <v>-104.7687567</v>
       </c>
       <c r="C71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D71" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -25630,10 +25630,10 @@
         <v>-104.75874</v>
       </c>
       <c r="C72" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D72" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -25644,10 +25644,10 @@
         <v>-104.7575033</v>
       </c>
       <c r="C73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -25658,10 +25658,10 @@
         <v>-104.747446</v>
       </c>
       <c r="C74" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D74" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -25672,10 +25672,10 @@
         <v>-104.7567483</v>
       </c>
       <c r="C75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -25686,10 +25686,10 @@
         <v>-104.76197999999999</v>
       </c>
       <c r="C76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D76" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -25700,10 +25700,10 @@
         <v>-104.7684613</v>
       </c>
       <c r="C77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D77" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -25714,10 +25714,10 @@
         <v>-104.73662299999999</v>
       </c>
       <c r="C78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D78" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -25728,10 +25728,10 @@
         <v>-104.8233</v>
       </c>
       <c r="C79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -25742,10 +25742,10 @@
         <v>-104.71791</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -25756,10 +25756,10 @@
         <v>-104.82729</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D81" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -25770,10 +25770,10 @@
         <v>-104.8241113</v>
       </c>
       <c r="C82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -25784,10 +25784,10 @@
         <v>-104.85431</v>
       </c>
       <c r="C83" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D83" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -25798,10 +25798,10 @@
         <v>-104.863874</v>
       </c>
       <c r="C84" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -25812,10 +25812,10 @@
         <v>-104.82317999999999</v>
       </c>
       <c r="C85" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D85" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -25826,10 +25826,10 @@
         <v>-104.82241999999999</v>
       </c>
       <c r="C86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D86" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -25840,10 +25840,10 @@
         <v>-104.81832780000001</v>
       </c>
       <c r="C87" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D87" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -25854,10 +25854,10 @@
         <v>-104.82402999999999</v>
       </c>
       <c r="C88" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D88" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -25868,10 +25868,10 @@
         <v>-104.82483999999999</v>
       </c>
       <c r="C89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D89" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -25882,10 +25882,10 @@
         <v>-104.86452</v>
       </c>
       <c r="C90" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D90" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -25896,10 +25896,10 @@
         <v>-104.82414</v>
       </c>
       <c r="C91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -25910,10 +25910,10 @@
         <v>-104.82622000000001</v>
       </c>
       <c r="C92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D92" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -25924,10 +25924,10 @@
         <v>-104.91434</v>
       </c>
       <c r="C93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -25938,10 +25938,10 @@
         <v>-104.7562155</v>
       </c>
       <c r="C94" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D94" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -25952,10 +25952,10 @@
         <v>-104.71706</v>
       </c>
       <c r="C95" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -25966,10 +25966,10 @@
         <v>-104.86448</v>
       </c>
       <c r="C96" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D96" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -25980,10 +25980,10 @@
         <v>-104.86297</v>
       </c>
       <c r="C97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D97" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -25994,10 +25994,10 @@
         <v>-104.84134</v>
       </c>
       <c r="C98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -26008,10 +26008,10 @@
         <v>-104.71677099999999</v>
       </c>
       <c r="C99" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D99" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -26022,10 +26022,10 @@
         <v>-104.83983670000001</v>
       </c>
       <c r="C100" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D100" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -26036,10 +26036,10 @@
         <v>-104.85939999999999</v>
       </c>
       <c r="C101" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D101" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -26050,10 +26050,10 @@
         <v>-104.8125695</v>
       </c>
       <c r="C102" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D102" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -26064,10 +26064,10 @@
         <v>-104.72629999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -26078,10 +26078,10 @@
         <v>-104.82259000000001</v>
       </c>
       <c r="C104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -26092,10 +26092,10 @@
         <v>-104.86471</v>
       </c>
       <c r="C105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D105" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -26106,10 +26106,10 @@
         <v>-104.7396383</v>
       </c>
       <c r="C106" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D106" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -26120,10 +26120,10 @@
         <v>-104.86696000000001</v>
       </c>
       <c r="C107" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D107" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -26134,10 +26134,10 @@
         <v>-104.86066</v>
       </c>
       <c r="C108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D108" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -26148,10 +26148,10 @@
         <v>-104.71932</v>
       </c>
       <c r="C109" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D109" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -26162,10 +26162,10 @@
         <v>-104.811695</v>
       </c>
       <c r="C110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D110" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -26176,10 +26176,10 @@
         <v>-104.8177993</v>
       </c>
       <c r="C111" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D111" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -26190,10 +26190,10 @@
         <v>-104.82487999999999</v>
       </c>
       <c r="C112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D112" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -26204,10 +26204,10 @@
         <v>-104.89675</v>
       </c>
       <c r="C113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D113" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -26218,10 +26218,10 @@
         <v>-104.8221449</v>
       </c>
       <c r="C114" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D114" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -26232,10 +26232,10 @@
         <v>-104.8237797</v>
       </c>
       <c r="C115" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D115" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -26246,10 +26246,10 @@
         <v>-104.78644</v>
       </c>
       <c r="C116" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D116" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -26260,10 +26260,10 @@
         <v>-104.80183</v>
       </c>
       <c r="C117" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D117" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -26274,10 +26274,10 @@
         <v>-104.72076</v>
       </c>
       <c r="C118" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D118" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -26288,10 +26288,10 @@
         <v>-104.83919</v>
       </c>
       <c r="C119" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D119" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Dropbox\CLD\Orange House\Happy Hour\colo_spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB34257-0620-48A1-B0E5-4DE4C6487216}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB7BB7-3077-4CAA-9824-9D0E49CDA450}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2464,10 +2464,10 @@
   <dimension ref="B1:BL121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="BH8" sqref="BH8"/>
+      <selection pane="bottomRight" activeCell="U103" sqref="U103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="21" customHeight="1"/>
@@ -21482,43 +21482,43 @@
         <v>1600</v>
       </c>
       <c r="I103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J103">
         <v>1600</v>
       </c>
       <c r="K103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L103">
         <v>1600</v>
       </c>
       <c r="M103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="N103">
         <v>1600</v>
       </c>
       <c r="O103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="P103">
         <v>1600</v>
       </c>
       <c r="Q103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="R103">
         <v>1600</v>
       </c>
       <c r="S103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="T103">
         <v>1600</v>
       </c>
       <c r="U103">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="V103" s="25" t="s">
         <v>209</v>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="X103">
         <f t="shared" si="154"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y103">
         <f t="shared" si="155"/>
@@ -21537,7 +21537,7 @@
       </c>
       <c r="Z103">
         <f t="shared" si="156"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA103">
         <f t="shared" si="157"/>
@@ -21545,7 +21545,7 @@
       </c>
       <c r="AB103">
         <f t="shared" si="158"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC103">
         <f t="shared" si="159"/>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="AD103">
         <f t="shared" si="160"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE103">
         <f t="shared" si="161"/>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="AF103">
         <f t="shared" si="162"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG103">
         <f t="shared" si="163"/>
@@ -21569,7 +21569,7 @@
       </c>
       <c r="AH103">
         <f t="shared" si="164"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI103">
         <f t="shared" si="165"/>
@@ -21577,35 +21577,35 @@
       </c>
       <c r="AJ103">
         <f t="shared" si="166"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK103" t="str">
         <f t="shared" si="167"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AL103" t="str">
         <f t="shared" si="168"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AM103" t="str">
         <f t="shared" si="169"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AN103" t="str">
         <f t="shared" si="170"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AO103" t="str">
         <f t="shared" si="171"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AP103" t="str">
         <f t="shared" si="172"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AQ103" t="str">
         <f t="shared" si="173"/>
-        <v>4pm-8pm</v>
+        <v>4pm-7pm</v>
       </c>
       <c r="AR103" s="1"/>
       <c r="AU103" t="s">
@@ -21622,7 +21622,7 @@
         <v>{
     'name': "The Brass Tap",
     'area': "northgate",'hours': {
-      'sunday-start':"1600", 'sunday-end':"2000", 'monday-start':"1600", 'monday-end':"2000", 'tuesday-start':"1600", 'tuesday-end':"2000", 'wednesday-start':"1600", 'wednesday-end':"2000", 'thursday-start':"1600", 'thursday-end':"2000", 'friday-start':"1600", 'friday-end':"2000", 'saturday-start':"1600", 'saturday-end':"2000"},  'description': "$4 Happy hour pints&lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "13271 Bass Pro Dr Ste 110, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
+      'sunday-start':"1600", 'sunday-end':"1900", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$4 Happy hour pints&lt;br&gt;", 'link':"", 'pricing':"",   'phone-number': "", 'address': "13271 Bass Pro Dr Ste 110, Colorado Springs, CO 80921", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':false},</v>
       </c>
       <c r="AY103" t="str">
         <f t="shared" si="175"/>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -690,9 +690,6 @@
     <t>$1.75 to $2 drafts and wells</t>
   </si>
   <si>
-    <t>$2.50 wells &amp; domestic pints&lt;br&gt;$3.25 premium pints&lt;br&gt;$2.75 domestic bottles&lt;br&gt;$3.75 premium bottles&lt;br&gt;75 cents wings! No minimum order. DINE IN ONLY</t>
-  </si>
-  <si>
     <t>Domestic bottles and drafts, great wine and well specials.</t>
   </si>
   <si>
@@ -1383,6 +1380,9 @@
   </si>
   <si>
     <t>&lt;b&gt;HOUSE MARGS&lt;/b&gt;&lt;br&gt;Frozen or Rocks- 12oz $3.75,  Grande $5.75&lt;br&gt;&lt;b&gt;FLAVORED MARGS&lt;/b&gt;&lt;br&gt;Frozen or Rocks - Choice of Lime, Strawberry or Mango -12oz $4, Grande $6&lt;br&gt;$1 OFF ALL DRAFT BEERS&lt;br&gt;MODELO and CORONAS $3.50&lt;br&gt;HOUSE WINE $3&lt;br&gt;WELL DRINKS $3&lt;br&gt;$3 Off All Appetizers (Excluding Tableside Guacamole)</t>
+  </si>
+  <si>
+    <t>$3 wells &amp; domestic pints&lt;br&gt;$3.50 premium pints&lt;br&gt;$3.00 domestic bottles&lt;br&gt;$4 premium bottles&lt;br&gt;$9 domestic pitchers&lt;br&gt;$11 premium pitchers&lt;br&gt;75 cents wings! No minimum order. DINE IN ONLY</t>
   </si>
 </sst>
 </file>
@@ -2430,10 +2430,10 @@
   <dimension ref="B1:BL117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2633,13 +2633,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="L2">
         <v>1515</v>
@@ -2672,7 +2672,7 @@
         <v>1830</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:W33" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -2760,16 +2760,16 @@
       </c>
       <c r="AR2" s="1"/>
       <c r="AT2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX2" s="3" t="str">
         <f t="shared" ref="AX2:AX33" si="21">CONCATENATE("{
@@ -2827,13 +2827,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="0"/>
@@ -2920,16 +2920,16 @@
         <v/>
       </c>
       <c r="AS3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX3" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3022,7 +3022,7 @@
         <v>1800</v>
       </c>
       <c r="V4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
@@ -3112,16 +3112,16 @@
         <v>67</v>
       </c>
       <c r="AS4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV4" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX4" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3314,13 +3314,13 @@
       </c>
       <c r="AR5" s="1"/>
       <c r="AU5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX5" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3381,7 +3381,7 @@
         <v>138</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J6">
         <v>1500</v>
@@ -3496,13 +3496,13 @@
       </c>
       <c r="AR6" s="1"/>
       <c r="AU6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX6" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3562,7 +3562,7 @@
         <v>138</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H7">
         <v>1500</v>
@@ -3695,13 +3695,13 @@
       </c>
       <c r="AR7" s="1"/>
       <c r="AU7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX7" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3755,13 +3755,13 @@
     </row>
     <row r="8" spans="2:64" ht="21" customHeight="1">
       <c r="B8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>417</v>
-      </c>
-      <c r="C8" t="s">
-        <v>356</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>418</v>
       </c>
       <c r="J8">
         <v>1600</v>
@@ -3800,7 +3800,7 @@
         <v>1900</v>
       </c>
       <c r="V8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" ref="W8" si="31">IF(H8&gt;0,H8/100,"")</f>
@@ -3888,13 +3888,13 @@
       </c>
       <c r="AR8" s="1"/>
       <c r="AU8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV8" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX8" s="3" t="str">
         <f t="shared" ref="AX8" si="52">CONCATENATE("{
@@ -3958,7 +3958,7 @@
         <v>123</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J9">
         <v>1600</v>
@@ -4079,13 +4079,13 @@
       </c>
       <c r="AR9" s="1"/>
       <c r="AU9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV9" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX9" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4145,7 +4145,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J10">
         <v>1600</v>
@@ -4172,7 +4172,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="0"/>
@@ -4260,13 +4260,13 @@
       </c>
       <c r="AR10" s="1"/>
       <c r="AU10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX10" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4326,7 +4326,7 @@
         <v>96</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J11">
         <v>1600</v>
@@ -4446,13 +4446,13 @@
         <v/>
       </c>
       <c r="AU11" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX11" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4506,13 +4506,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
         <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W12" t="str">
         <f t="shared" si="0"/>
@@ -4599,19 +4599,19 @@
         <v/>
       </c>
       <c r="AS12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AT12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX12" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4665,13 +4665,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
         <v>138</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H13">
         <v>1600</v>
@@ -4716,7 +4716,7 @@
         <v>1800</v>
       </c>
       <c r="V13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W13">
         <f t="shared" si="0"/>
@@ -4803,13 +4803,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AU13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX13" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="14" spans="2:64" ht="21" customHeight="1">
       <c r="B14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
         <v>55</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J14">
         <v>1500</v>
@@ -4902,7 +4902,7 @@
         <v>1800</v>
       </c>
       <c r="V14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W14" t="str">
         <f t="shared" si="0"/>
@@ -4990,13 +4990,13 @@
       </c>
       <c r="AR14" s="1"/>
       <c r="AU14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX14" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5056,7 +5056,7 @@
         <v>123</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H15">
         <v>1500</v>
@@ -5189,13 +5189,13 @@
       </c>
       <c r="AR15" s="1"/>
       <c r="AU15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX15" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5249,13 +5249,13 @@
     </row>
     <row r="16" spans="2:64" ht="21" customHeight="1">
       <c r="B16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C16" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="0"/>
@@ -5343,16 +5343,16 @@
       </c>
       <c r="AR16" s="4"/>
       <c r="AT16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX16" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5412,7 +5412,7 @@
         <v>138</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J17">
         <v>1400</v>
@@ -5445,7 +5445,7 @@
         <v>1800</v>
       </c>
       <c r="V17" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="0"/>
@@ -5533,13 +5533,13 @@
       </c>
       <c r="AR17" s="1"/>
       <c r="AU17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX17" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5599,7 +5599,7 @@
         <v>111</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V18" t="s">
         <v>197</v>
@@ -5690,13 +5690,13 @@
       </c>
       <c r="AR18" s="1"/>
       <c r="AU18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX18" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5756,7 +5756,7 @@
         <v>123</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H19">
         <v>2100</v>
@@ -5888,13 +5888,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AU19" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX19" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5948,13 +5948,13 @@
     </row>
     <row r="20" spans="2:62" ht="21" customHeight="1">
       <c r="B20" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H20">
         <v>1100</v>
@@ -5993,7 +5993,7 @@
         <v>1800</v>
       </c>
       <c r="V20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W20">
         <f t="shared" si="0"/>
@@ -6080,13 +6080,13 @@
         <v/>
       </c>
       <c r="AU20" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX20" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6140,13 +6140,13 @@
     </row>
     <row r="21" spans="2:62" ht="21" customHeight="1">
       <c r="B21" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>138</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H21">
         <v>1100</v>
@@ -6185,7 +6185,7 @@
         <v>1800</v>
       </c>
       <c r="V21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W21">
         <f t="shared" si="0"/>
@@ -6272,13 +6272,13 @@
         <v/>
       </c>
       <c r="AU21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX21" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6332,13 +6332,13 @@
     </row>
     <row r="22" spans="2:62" ht="21" customHeight="1">
       <c r="B22" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C22" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H22">
         <v>1100</v>
@@ -6377,7 +6377,7 @@
         <v>1800</v>
       </c>
       <c r="V22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W22">
         <f t="shared" si="0"/>
@@ -6464,13 +6464,13 @@
         <v/>
       </c>
       <c r="AU22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX22" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6530,7 +6530,7 @@
         <v>96</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H23">
         <v>1100</v>
@@ -6662,13 +6662,13 @@
         <v>11am-7pm</v>
       </c>
       <c r="AU23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX23" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6728,7 +6728,7 @@
         <v>55</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J24">
         <v>1500</v>
@@ -6855,13 +6855,13 @@
       </c>
       <c r="AR24" s="1"/>
       <c r="AU24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX24" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6916,13 +6916,13 @@
     </row>
     <row r="25" spans="2:62" ht="21" customHeight="1">
       <c r="B25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C25" t="s">
         <v>124</v>
       </c>
       <c r="G25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H25">
         <v>1500</v>
@@ -6961,7 +6961,7 @@
         <v>1800</v>
       </c>
       <c r="V25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W25">
         <f t="shared" si="0"/>
@@ -7048,16 +7048,16 @@
         <v/>
       </c>
       <c r="AS25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX25" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7111,13 +7111,13 @@
     </row>
     <row r="26" spans="2:62" ht="21" customHeight="1">
       <c r="B26" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C26" t="s">
         <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="0"/>
@@ -7204,16 +7204,16 @@
         <v/>
       </c>
       <c r="AT26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX26" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7273,7 +7273,7 @@
         <v>55</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J27">
         <v>1500</v>
@@ -7306,7 +7306,7 @@
         <v>1800</v>
       </c>
       <c r="V27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W27" t="str">
         <f t="shared" si="0"/>
@@ -7393,13 +7393,13 @@
         <v/>
       </c>
       <c r="AU27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV27" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW27" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX27" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7453,13 +7453,13 @@
     </row>
     <row r="28" spans="2:62" ht="21" customHeight="1">
       <c r="B28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C28" t="s">
         <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H28">
         <v>1400</v>
@@ -7504,7 +7504,7 @@
         <v>1700</v>
       </c>
       <c r="V28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W28">
         <f t="shared" si="0"/>
@@ -7591,16 +7591,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AS28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV28" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW28" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW28" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX28" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7748,13 +7748,13 @@
         <v/>
       </c>
       <c r="AU29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV29" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX29" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7814,7 +7814,7 @@
         <v>123</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H30">
         <v>1500</v>
@@ -7941,13 +7941,13 @@
       </c>
       <c r="AR30" s="1"/>
       <c r="AU30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV30" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW30" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX30" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8007,7 +8007,7 @@
         <v>123</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J31">
         <v>1500</v>
@@ -8040,7 +8040,7 @@
         <v>1800</v>
       </c>
       <c r="V31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W31" t="str">
         <f t="shared" si="0"/>
@@ -8128,13 +8128,13 @@
       </c>
       <c r="AR31" s="1"/>
       <c r="AU31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV31" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW31" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX31" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8194,7 +8194,7 @@
         <v>138</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H32">
         <v>1100</v>
@@ -8326,13 +8326,13 @@
         <v>11am-5pm</v>
       </c>
       <c r="AU32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV32" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW32" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW32" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX32" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8386,13 +8386,13 @@
     </row>
     <row r="33" spans="2:63" ht="21" customHeight="1">
       <c r="B33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H33">
         <v>1630</v>
@@ -8437,7 +8437,7 @@
         <v>1830</v>
       </c>
       <c r="V33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W33">
         <f t="shared" si="0"/>
@@ -8525,16 +8525,16 @@
       </c>
       <c r="AR33" s="1"/>
       <c r="AT33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV33" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW33" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW33" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX33" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8594,7 +8594,7 @@
         <v>138</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H34">
         <v>1500</v>
@@ -8727,13 +8727,13 @@
       </c>
       <c r="AR34" s="8"/>
       <c r="AU34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV34" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW34" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX34" s="3" t="str">
         <f t="shared" ref="AX34:AX64" si="82">CONCATENATE("{
@@ -8791,13 +8791,13 @@
     </row>
     <row r="35" spans="2:63" ht="21" customHeight="1">
       <c r="B35" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C35" t="s">
         <v>143</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J35">
         <v>1500</v>
@@ -8918,13 +8918,13 @@
       </c>
       <c r="AR35" s="4"/>
       <c r="AU35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV35" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW35" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW35" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX35" s="3" t="str">
         <f t="shared" si="82"/>
@@ -8984,7 +8984,7 @@
         <v>55</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H36">
         <v>1500</v>
@@ -9117,13 +9117,13 @@
       </c>
       <c r="AR36" s="5"/>
       <c r="AU36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV36" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW36" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX36" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9183,7 +9183,7 @@
         <v>96</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="61"/>
@@ -9271,13 +9271,13 @@
       </c>
       <c r="AR37" s="1"/>
       <c r="AU37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV37" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW37" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX37" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9331,13 +9331,13 @@
     </row>
     <row r="38" spans="2:63" ht="21" customHeight="1">
       <c r="B38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C38" t="s">
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W38" t="str">
         <f t="shared" si="61"/>
@@ -9424,16 +9424,16 @@
         <v/>
       </c>
       <c r="AS38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV38" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW38" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX38" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9493,7 +9493,7 @@
         <v>55</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H39">
         <v>1800</v>
@@ -9626,13 +9626,13 @@
       </c>
       <c r="AR39" s="7"/>
       <c r="AU39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV39" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW39" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW39" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX39" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9692,7 +9692,7 @@
         <v>138</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H40">
         <v>1600</v>
@@ -9731,7 +9731,7 @@
         <v>1900</v>
       </c>
       <c r="V40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W40">
         <f t="shared" si="61"/>
@@ -9819,13 +9819,13 @@
       </c>
       <c r="AR40" s="8"/>
       <c r="AU40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV40" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW40" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX40" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9879,13 +9879,13 @@
     </row>
     <row r="41" spans="2:63" ht="21" customHeight="1">
       <c r="B41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C41" t="s">
         <v>138</v>
       </c>
       <c r="G41" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H41">
         <v>1100</v>
@@ -9930,7 +9930,7 @@
         <v>1730</v>
       </c>
       <c r="V41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W41">
         <f t="shared" si="61"/>
@@ -10017,16 +10017,16 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AS41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU41" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV41" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW41" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX41" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10219,13 +10219,13 @@
       </c>
       <c r="AR42" s="1"/>
       <c r="AU42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV42" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW42" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX42" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10279,13 +10279,13 @@
     </row>
     <row r="43" spans="2:63" ht="21" customHeight="1">
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
       <c r="G43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J43">
         <v>1500</v>
@@ -10318,7 +10318,7 @@
         <v>1800</v>
       </c>
       <c r="V43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="61"/>
@@ -10405,16 +10405,16 @@
         <v/>
       </c>
       <c r="AT43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV43" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW43" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW43" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX43" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10597,19 +10597,19 @@
         <v>145</v>
       </c>
       <c r="AS44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AT44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV44" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW44" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX44" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10668,13 +10668,13 @@
     </row>
     <row r="45" spans="2:63" ht="21" customHeight="1">
       <c r="B45" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C45" t="s">
         <v>73</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H45">
         <v>1500</v>
@@ -10719,7 +10719,7 @@
         <v>1800</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W45">
         <f t="shared" si="61"/>
@@ -10807,13 +10807,13 @@
       </c>
       <c r="AR45" s="1"/>
       <c r="AU45" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV45" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW45" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW45" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX45" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10873,7 +10873,7 @@
         <v>143</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J46">
         <v>1600</v>
@@ -10906,7 +10906,7 @@
         <v>1900</v>
       </c>
       <c r="V46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="61"/>
@@ -10994,13 +10994,13 @@
       </c>
       <c r="AR46" s="1"/>
       <c r="AU46" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV46" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW46" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX46" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11054,7 +11054,7 @@
     </row>
     <row r="47" spans="2:63" ht="21" customHeight="1">
       <c r="B47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
@@ -11189,16 +11189,16 @@
         <v>70</v>
       </c>
       <c r="AS47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU47" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV47" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX47" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11379,13 +11379,13 @@
       </c>
       <c r="AR48" s="1"/>
       <c r="AU48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV48" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW48" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX48" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11445,7 +11445,7 @@
         <v>143</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J49">
         <v>1600</v>
@@ -11484,7 +11484,7 @@
         <v>1900</v>
       </c>
       <c r="V49" t="s">
-        <v>215</v>
+        <v>431</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="61"/>
@@ -11572,20 +11572,20 @@
       </c>
       <c r="AR49" s="4"/>
       <c r="AU49" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV49" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW49" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX49" s="3" t="str">
         <f t="shared" si="82"/>
         <v>{
     'name': "Kelly Obrians",
     'area': "sacademy",'hours': {
-      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$2.50 wells &amp; domestic pints&lt;br&gt;$3.25 premium pints&lt;br&gt;$2.75 domestic bottles&lt;br&gt;$3.75 premium bottles&lt;br&gt;75 cents wings! No minimum order. DINE IN ONLY", 'link':"", 'pricing':"",   'phone-number': "", 'address': "239 N Academy Blvd, Colorado Springs, CO 80909", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"", 'sunday-end':"", 'monday-start':"1600", 'monday-end':"1900", 'tuesday-start':"1600", 'tuesday-end':"1900", 'wednesday-start':"1600", 'wednesday-end':"1900", 'thursday-start':"1600", 'thursday-end':"1900", 'friday-start':"1600", 'friday-end':"1900", 'saturday-start':"1600", 'saturday-end':"1900"},  'description': "$3 wells &amp; domestic pints&lt;br&gt;$3.50 premium pints&lt;br&gt;$3.00 domestic bottles&lt;br&gt;$4 premium bottles&lt;br&gt;$9 domestic pitchers&lt;br&gt;$11 premium pitchers&lt;br&gt;75 cents wings! No minimum order. DINE IN ONLY", 'link':"", 'pricing':"",   'phone-number': "", 'address': "239 N Academy Blvd, Colorado Springs, CO 80909", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY49" t="str">
         <f t="shared" si="83"/>
@@ -11638,7 +11638,7 @@
         <v>143</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J50">
         <v>1600</v>
@@ -11671,7 +11671,7 @@
         <v>1900</v>
       </c>
       <c r="V50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="61"/>
@@ -11759,13 +11759,13 @@
       </c>
       <c r="AR50" s="1"/>
       <c r="AU50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV50" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW50" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW50" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX50" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11825,7 +11825,7 @@
         <v>123</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H51">
         <v>1400</v>
@@ -11958,16 +11958,16 @@
       </c>
       <c r="AR51" s="4"/>
       <c r="AS51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV51" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX51" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12027,7 +12027,7 @@
         <v>143</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="61"/>
@@ -12114,13 +12114,13 @@
         <v/>
       </c>
       <c r="AU52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV52" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX52" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12175,13 +12175,13 @@
     </row>
     <row r="53" spans="2:62" ht="21" customHeight="1">
       <c r="B53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H53">
         <v>1700</v>
@@ -12220,7 +12220,7 @@
         <v>1900</v>
       </c>
       <c r="V53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W53">
         <f t="shared" si="61"/>
@@ -12307,16 +12307,16 @@
         <v/>
       </c>
       <c r="AS53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV53" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX53" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12376,7 +12376,7 @@
         <v>138</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H54">
         <v>1500</v>
@@ -12509,13 +12509,13 @@
       </c>
       <c r="AR54" s="4"/>
       <c r="AU54" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV54" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW54" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW54" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX54" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12569,13 +12569,13 @@
     </row>
     <row r="55" spans="2:62" ht="21" customHeight="1">
       <c r="B55" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J55">
         <v>1600</v>
@@ -12608,7 +12608,7 @@
         <v>1900</v>
       </c>
       <c r="V55" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" ref="W55:AJ55" si="92">IF(H55&gt;0,H55/100,"")</f>
@@ -12696,13 +12696,13 @@
       </c>
       <c r="AR55" s="1"/>
       <c r="AU55" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV55" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW55" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX55" s="3" t="str">
         <f>CONCATENATE("{
@@ -12881,13 +12881,13 @@
       </c>
       <c r="AR56" s="1"/>
       <c r="AU56" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV56" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW56" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX56" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12941,13 +12941,13 @@
     </row>
     <row r="57" spans="2:62" ht="21" customHeight="1">
       <c r="B57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="61"/>
@@ -13034,16 +13034,16 @@
         <v/>
       </c>
       <c r="AT57" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU57" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV57" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW57" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX57" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13097,13 +13097,13 @@
     </row>
     <row r="58" spans="2:62" ht="21" customHeight="1">
       <c r="B58" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H58">
         <v>1600</v>
@@ -13148,7 +13148,7 @@
         <v>1800</v>
       </c>
       <c r="V58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="W58">
         <f t="shared" ref="W58" si="93">IF(H58&gt;0,H58/100,"")</f>
@@ -13235,13 +13235,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AU58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV58" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW58" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX58" s="3" t="str">
         <f t="shared" ref="AX58" si="114">CONCATENATE("{
@@ -13428,16 +13428,16 @@
         <v>64</v>
       </c>
       <c r="AS59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV59" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW59" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX59" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13497,7 +13497,7 @@
         <v>138</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H60">
         <v>1000</v>
@@ -13542,7 +13542,7 @@
         <v>2400</v>
       </c>
       <c r="V60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W60">
         <f t="shared" si="61"/>
@@ -13629,13 +13629,13 @@
         <v>10am-12am</v>
       </c>
       <c r="AU60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV60" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW60" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW60" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX60" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13689,13 +13689,13 @@
     </row>
     <row r="61" spans="2:62" ht="21" customHeight="1">
       <c r="B61" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="61"/>
@@ -13782,16 +13782,16 @@
         <v/>
       </c>
       <c r="AT61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU61" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV61" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW61" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX61" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13851,7 +13851,7 @@
         <v>96</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="61"/>
@@ -13938,13 +13938,13 @@
         <v/>
       </c>
       <c r="AU62" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV62" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW62" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX62" s="3" t="str">
         <f t="shared" si="82"/>
@@ -14139,19 +14139,19 @@
         <v>72</v>
       </c>
       <c r="AS63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AT63" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV63" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW63" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW63" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX63" s="3" t="str">
         <f t="shared" si="82"/>
@@ -14211,7 +14211,7 @@
         <v>138</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H64">
         <v>1500</v>
@@ -14256,7 +14256,7 @@
         <v>1800</v>
       </c>
       <c r="V64" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="W64">
         <f t="shared" si="61"/>
@@ -14344,13 +14344,13 @@
       </c>
       <c r="AR64" s="8"/>
       <c r="AU64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV64" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW64" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX64" s="3" t="str">
         <f t="shared" si="82"/>
@@ -14410,7 +14410,7 @@
         <v>123</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" ref="W65:W95" si="123">IF(H65&gt;0,H65/100,"")</f>
@@ -14497,13 +14497,13 @@
         <v/>
       </c>
       <c r="AU65" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV65" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW65" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX65" s="3" t="str">
         <f t="shared" ref="AX65:AX95" si="144">CONCATENATE("{
@@ -14567,7 +14567,7 @@
         <v>138</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V66" s="26"/>
       <c r="W66" t="str">
@@ -14656,13 +14656,13 @@
       </c>
       <c r="AR66" s="4"/>
       <c r="AU66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV66" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW66" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX66" s="3" t="str">
         <f t="shared" si="144"/>
@@ -14716,13 +14716,13 @@
     </row>
     <row r="67" spans="2:61" ht="21" customHeight="1">
       <c r="B67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G67" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J67">
         <v>1600</v>
@@ -14839,16 +14839,16 @@
         <v/>
       </c>
       <c r="AS67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU67" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV67" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW67" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX67" s="3" t="str">
         <f t="shared" si="144"/>
@@ -14902,13 +14902,13 @@
     </row>
     <row r="68" spans="2:61" ht="21" customHeight="1">
       <c r="B68" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="123"/>
@@ -14996,16 +14996,16 @@
       </c>
       <c r="AR68" s="8"/>
       <c r="AT68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV68" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW68" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX68" s="3" t="str">
         <f t="shared" si="144"/>
@@ -15059,13 +15059,13 @@
     </row>
     <row r="69" spans="2:61" ht="21" customHeight="1">
       <c r="B69" t="s">
+        <v>356</v>
+      </c>
+      <c r="C69" t="s">
+        <v>355</v>
+      </c>
+      <c r="G69" t="s">
         <v>357</v>
-      </c>
-      <c r="C69" t="s">
-        <v>356</v>
-      </c>
-      <c r="G69" t="s">
-        <v>358</v>
       </c>
       <c r="J69">
         <v>1500</v>
@@ -15098,7 +15098,7 @@
         <v>1900</v>
       </c>
       <c r="V69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="123"/>
@@ -15185,13 +15185,13 @@
         <v/>
       </c>
       <c r="AU69" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV69" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW69" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX69" s="3" t="str">
         <f t="shared" si="144"/>
@@ -15251,7 +15251,7 @@
         <v>96</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="123"/>
@@ -15339,13 +15339,13 @@
       </c>
       <c r="AR70" s="6"/>
       <c r="AU70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV70" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW70" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX70" s="3" t="str">
         <f t="shared" si="144"/>
@@ -15405,7 +15405,7 @@
         <v>96</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J71">
         <v>1500</v>
@@ -15525,13 +15525,13 @@
         <v/>
       </c>
       <c r="AU71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV71" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW71" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX71" s="3" t="str">
         <f t="shared" si="144"/>
@@ -15591,7 +15591,7 @@
         <v>138</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="123"/>
@@ -15679,13 +15679,13 @@
       </c>
       <c r="AR72" s="4"/>
       <c r="AU72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV72" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW72" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX72" s="3" t="str">
         <f t="shared" si="144"/>
@@ -15739,13 +15739,13 @@
     </row>
     <row r="73" spans="2:61" ht="21" customHeight="1">
       <c r="B73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
         <v>96</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J73">
         <v>1600</v>
@@ -15778,7 +15778,7 @@
         <v>1900</v>
       </c>
       <c r="V73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="123"/>
@@ -15866,13 +15866,13 @@
       </c>
       <c r="AR73" s="1"/>
       <c r="AU73" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV73" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW73" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX73" s="3" t="str">
         <f t="shared" si="144"/>
@@ -15926,13 +15926,13 @@
     </row>
     <row r="74" spans="2:61" ht="21" customHeight="1">
       <c r="B74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
         <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="123"/>
@@ -16020,16 +16020,16 @@
       </c>
       <c r="AR74" s="1"/>
       <c r="AT74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU74" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV74" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW74" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX74" s="3" t="str">
         <f t="shared" si="144"/>
@@ -16209,13 +16209,13 @@
         <v/>
       </c>
       <c r="AU75" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV75" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW75" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW75" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX75" s="3" t="str">
         <f t="shared" si="144"/>
@@ -16269,13 +16269,13 @@
     </row>
     <row r="76" spans="2:61" ht="21" customHeight="1">
       <c r="B76" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C76" t="s">
         <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H76">
         <v>1500</v>
@@ -16320,7 +16320,7 @@
         <v>1800</v>
       </c>
       <c r="V76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W76">
         <f t="shared" si="123"/>
@@ -16408,16 +16408,16 @@
       </c>
       <c r="AR76" s="4"/>
       <c r="AT76" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU76" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV76" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW76" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX76" s="3" t="str">
         <f t="shared" si="144"/>
@@ -16583,16 +16583,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AT77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU77" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV77" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW77" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW77" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX77" s="3" t="str">
         <f t="shared" si="144"/>
@@ -16652,7 +16652,7 @@
         <v>96</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J78">
         <v>1400</v>
@@ -16691,7 +16691,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="123"/>
@@ -16778,16 +16778,16 @@
         <v>11am-6pm</v>
       </c>
       <c r="AS78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU78" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV78" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW78" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX78" s="3" t="str">
         <f t="shared" si="144"/>
@@ -16847,7 +16847,7 @@
         <v>138</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J79">
         <v>1500</v>
@@ -16967,13 +16967,13 @@
         <v/>
       </c>
       <c r="AU79" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV79" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW79" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX79" s="3" t="str">
         <f t="shared" si="144"/>
@@ -17027,13 +17027,13 @@
     </row>
     <row r="80" spans="2:61" ht="21" customHeight="1">
       <c r="B80" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C80" t="s">
         <v>55</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H80">
         <v>1600</v>
@@ -17078,7 +17078,7 @@
         <v>1800</v>
       </c>
       <c r="V80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W80">
         <f t="shared" si="123"/>
@@ -17166,16 +17166,16 @@
       </c>
       <c r="AR80" s="1"/>
       <c r="AT80" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU80" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV80" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW80" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX80" s="3" t="str">
         <f t="shared" si="144"/>
@@ -17280,7 +17280,7 @@
         <v>1800</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W81">
         <f t="shared" si="123"/>
@@ -17368,13 +17368,13 @@
       </c>
       <c r="AR81" s="1"/>
       <c r="AU81" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV81" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW81" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW81" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX81" s="3" t="str">
         <f t="shared" si="144"/>
@@ -17429,13 +17429,13 @@
     </row>
     <row r="82" spans="2:64" ht="21" customHeight="1">
       <c r="B82" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C82" t="s">
         <v>55</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J82">
         <v>1500</v>
@@ -17474,7 +17474,7 @@
         <v>1900</v>
       </c>
       <c r="V82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="W82" t="str">
         <f t="shared" si="123"/>
@@ -17562,16 +17562,16 @@
       </c>
       <c r="AR82" s="1"/>
       <c r="AS82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV82" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW82" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX82" s="3" t="str">
         <f t="shared" si="144"/>
@@ -17631,7 +17631,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H83">
         <v>1600</v>
@@ -17764,13 +17764,13 @@
       </c>
       <c r="AR83" s="1"/>
       <c r="AU83" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV83" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW83" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX83" s="3" t="str">
         <f t="shared" si="144"/>
@@ -17824,13 +17824,13 @@
     </row>
     <row r="84" spans="2:64" ht="21" customHeight="1">
       <c r="B84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84" t="s">
         <v>55</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H84">
         <v>1500</v>
@@ -17875,7 +17875,7 @@
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W84">
         <f t="shared" si="123"/>
@@ -17962,16 +17962,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AS84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU84" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV84" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW84" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX84" s="3" t="str">
         <f t="shared" si="144"/>
@@ -18027,13 +18027,13 @@
     </row>
     <row r="85" spans="2:64" ht="21" customHeight="1">
       <c r="B85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C85" t="s">
         <v>84</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H85">
         <v>1500</v>
@@ -18078,7 +18078,7 @@
         <v>1800</v>
       </c>
       <c r="V85" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="W85">
         <f t="shared" si="123"/>
@@ -18166,13 +18166,13 @@
       </c>
       <c r="AR85" s="1"/>
       <c r="AU85" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV85" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW85" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX85" s="3" t="str">
         <f t="shared" si="144"/>
@@ -18226,13 +18226,13 @@
     </row>
     <row r="86" spans="2:64" ht="21" customHeight="1">
       <c r="B86" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C86" t="s">
         <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W86" t="str">
         <f t="shared" si="123"/>
@@ -18319,16 +18319,16 @@
         <v/>
       </c>
       <c r="AT86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV86" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW86" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX86" s="3" t="str">
         <f t="shared" si="144"/>
@@ -18511,13 +18511,13 @@
         <v>69</v>
       </c>
       <c r="AU87" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV87" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW87" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX87" s="3" t="str">
         <f t="shared" si="144"/>
@@ -18577,7 +18577,7 @@
         <v>55</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J88">
         <v>1500</v>
@@ -18697,13 +18697,13 @@
         <v/>
       </c>
       <c r="AU88" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV88" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW88" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX88" s="3" t="str">
         <f t="shared" si="144"/>
@@ -18884,13 +18884,13 @@
       </c>
       <c r="AR89" s="1"/>
       <c r="AU89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV89" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW89" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX89" s="3" t="str">
         <f t="shared" si="144"/>
@@ -18944,13 +18944,13 @@
     </row>
     <row r="90" spans="2:64" ht="21" customHeight="1">
       <c r="B90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="123"/>
@@ -19037,19 +19037,19 @@
         <v/>
       </c>
       <c r="AS90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AT90" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU90" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV90" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW90" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX90" s="3" t="str">
         <f t="shared" si="144"/>
@@ -19103,7 +19103,7 @@
     </row>
     <row r="91" spans="2:64" ht="21" customHeight="1">
       <c r="B91" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C91" t="s">
         <v>55</v>
@@ -19232,13 +19232,13 @@
         <v>65</v>
       </c>
       <c r="AU91" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV91" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW91" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX91" s="3" t="str">
         <f t="shared" si="144"/>
@@ -19298,7 +19298,7 @@
         <v>123</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H92">
         <v>1100</v>
@@ -19431,13 +19431,13 @@
       </c>
       <c r="AR92" s="1"/>
       <c r="AU92" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV92" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW92" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX92" s="3" t="str">
         <f t="shared" si="144"/>
@@ -19491,13 +19491,13 @@
     </row>
     <row r="93" spans="2:64" ht="21" customHeight="1">
       <c r="B93" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G93" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="H93">
         <v>1100</v>
@@ -19629,13 +19629,13 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU93" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV93" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW93" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX93" s="3" t="str">
         <f t="shared" si="144"/>
@@ -19689,13 +19689,13 @@
     </row>
     <row r="94" spans="2:64" ht="21" customHeight="1">
       <c r="B94" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>96</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H94">
         <v>1100</v>
@@ -19827,13 +19827,13 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV94" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW94" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX94" s="3" t="str">
         <f t="shared" si="144"/>
@@ -19887,13 +19887,13 @@
     </row>
     <row r="95" spans="2:64" ht="21" customHeight="1">
       <c r="B95" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s">
         <v>96</v>
       </c>
       <c r="G95" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W95" t="str">
         <f t="shared" si="123"/>
@@ -19980,16 +19980,16 @@
         <v/>
       </c>
       <c r="AT95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU95" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV95" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW95" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX95" s="3" t="str">
         <f t="shared" si="144"/>
@@ -20049,7 +20049,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L96">
         <v>1700</v>
@@ -20170,13 +20170,13 @@
       </c>
       <c r="AR96" s="4"/>
       <c r="AU96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV96" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW96" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW96" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX96" s="3" t="str">
         <f t="shared" ref="AX96:AX117" si="175">CONCATENATE("{
@@ -20240,7 +20240,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H97">
         <v>1600</v>
@@ -20373,13 +20373,13 @@
       </c>
       <c r="AR97" s="1"/>
       <c r="AU97" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV97" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW97" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX97" s="3" t="str">
         <f t="shared" si="175"/>
@@ -20439,7 +20439,7 @@
         <v>123</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J98">
         <v>1600</v>
@@ -20559,13 +20559,13 @@
         <v/>
       </c>
       <c r="AU98" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV98" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW98" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX98" s="3" t="str">
         <f t="shared" si="175"/>
@@ -20625,7 +20625,7 @@
         <v>124</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H99">
         <v>1600</v>
@@ -20758,13 +20758,13 @@
       </c>
       <c r="AR99" s="1"/>
       <c r="AU99" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV99" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW99" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW99" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX99" s="3" t="str">
         <f t="shared" si="175"/>
@@ -20818,13 +20818,13 @@
     </row>
     <row r="100" spans="2:61" ht="21" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C100" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="V100" s="3"/>
       <c r="W100" t="str">
@@ -20912,16 +20912,16 @@
         <v/>
       </c>
       <c r="AT100" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU100" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV100" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW100" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX100" s="3" t="str">
         <f t="shared" si="175"/>
@@ -21069,13 +21069,13 @@
       </c>
       <c r="AR101" s="1"/>
       <c r="AU101" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV101" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW101" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX101" s="3" t="str">
         <f t="shared" si="175"/>
@@ -21135,7 +21135,7 @@
         <v>138</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J102">
         <v>1700</v>
@@ -21256,13 +21256,13 @@
       </c>
       <c r="AR102" s="4"/>
       <c r="AU102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV102" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW102" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX102" s="3" t="str">
         <f t="shared" si="175"/>
@@ -21445,13 +21445,13 @@
         <v>147</v>
       </c>
       <c r="AU103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV103" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW103" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX103" s="3" t="str">
         <f t="shared" si="175"/>
@@ -21511,7 +21511,7 @@
         <v>124</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H104">
         <v>1600</v>
@@ -21644,13 +21644,13 @@
       </c>
       <c r="AR104" s="1"/>
       <c r="AU104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV104" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW104" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX104" s="3" t="str">
         <f t="shared" si="175"/>
@@ -21710,7 +21710,7 @@
         <v>123</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H105">
         <v>1600</v>
@@ -21831,13 +21831,13 @@
       </c>
       <c r="AR105" s="6"/>
       <c r="AU105" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV105" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW105" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX105" s="3" t="str">
         <f t="shared" si="175"/>
@@ -21897,7 +21897,7 @@
         <v>55</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L106">
         <v>1600</v>
@@ -22018,13 +22018,13 @@
       </c>
       <c r="AR106" s="1"/>
       <c r="AU106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV106" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW106" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW106" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX106" s="3" t="str">
         <f t="shared" si="175"/>
@@ -22084,7 +22084,7 @@
         <v>55</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H107">
         <v>1500</v>
@@ -22217,16 +22217,16 @@
       </c>
       <c r="AR107" s="1"/>
       <c r="AS107" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU107" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV107" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW107" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX107" s="3" t="str">
         <f t="shared" si="175"/>
@@ -22286,7 +22286,7 @@
         <v>96</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J108">
         <v>1600</v>
@@ -22319,7 +22319,7 @@
         <v>1800</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="W108" t="str">
         <f t="shared" si="154"/>
@@ -22407,16 +22407,16 @@
       </c>
       <c r="AR108" s="4"/>
       <c r="AT108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU108" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV108" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW108" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX108" s="3" t="str">
         <f t="shared" si="175"/>
@@ -22521,7 +22521,7 @@
         <v>1900</v>
       </c>
       <c r="V109" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="W109">
         <f t="shared" si="154"/>
@@ -22609,16 +22609,16 @@
       </c>
       <c r="AR109" s="1"/>
       <c r="AS109" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AU109" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW109" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX109" s="3" t="str">
         <f t="shared" si="175"/>
@@ -22672,13 +22672,13 @@
     </row>
     <row r="110" spans="2:61" ht="21" customHeight="1">
       <c r="B110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C110" t="s">
         <v>138</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J110">
         <v>1600</v>
@@ -22711,7 +22711,7 @@
         <v>1730</v>
       </c>
       <c r="V110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="W110" t="str">
         <f t="shared" si="154"/>
@@ -22799,13 +22799,13 @@
       </c>
       <c r="AR110" s="1"/>
       <c r="AU110" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV110" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW110" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX110" s="3" t="str">
         <f t="shared" si="175"/>
@@ -22865,7 +22865,7 @@
         <v>55</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H111">
         <v>1600</v>
@@ -22997,13 +22997,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AU111" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV111" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW111" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX111" s="3" t="str">
         <f t="shared" si="175"/>
@@ -23172,13 +23172,13 @@
       </c>
       <c r="AR112" s="1"/>
       <c r="AU112" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV112" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW112" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX112" s="3" t="str">
         <f t="shared" si="175"/>
@@ -23232,13 +23232,13 @@
     </row>
     <row r="113" spans="2:61" ht="21" customHeight="1">
       <c r="B113" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C113" t="s">
         <v>138</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J113">
         <v>1630</v>
@@ -23265,7 +23265,7 @@
         <v>1800</v>
       </c>
       <c r="V113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W113" t="str">
         <f t="shared" si="154"/>
@@ -23353,16 +23353,16 @@
       </c>
       <c r="AR113" s="1"/>
       <c r="AT113" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AU113" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV113" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW113" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW113" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX113" s="3" t="str">
         <f t="shared" si="175"/>
@@ -23422,7 +23422,7 @@
         <v>55</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H114">
         <v>1600</v>
@@ -23555,13 +23555,13 @@
       </c>
       <c r="AR114" s="1"/>
       <c r="AU114" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV114" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW114" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW114" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX114" s="3" t="str">
         <f t="shared" si="175"/>
@@ -23708,13 +23708,13 @@
         <v/>
       </c>
       <c r="AU115" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV115" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW115" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AX115" s="3" t="str">
         <f t="shared" si="175"/>
@@ -23768,13 +23768,13 @@
     </row>
     <row r="116" spans="2:61" ht="21" customHeight="1">
       <c r="B116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="J116">
         <v>1700</v>
@@ -23807,7 +23807,7 @@
         <v>1830</v>
       </c>
       <c r="V116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="154"/>
@@ -23894,13 +23894,13 @@
         <v/>
       </c>
       <c r="AU116" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV116" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AW116" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AX116" s="3" t="str">
         <f t="shared" si="175"/>
@@ -23960,7 +23960,7 @@
         <v>55</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J117">
         <v>1400</v>
@@ -24087,13 +24087,13 @@
       </c>
       <c r="AR117" s="1"/>
       <c r="AU117" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV117" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AW117" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="AW117" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="AX117" s="3" t="str">
         <f t="shared" si="175"/>
@@ -24326,7 +24326,7 @@
         <v>155</v>
       </c>
       <c r="D11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24337,10 +24337,10 @@
         <v>-104.864165</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24466,7 +24466,7 @@
         <v>165</v>
       </c>
       <c r="D21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
@@ -24494,7 +24494,7 @@
         <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -24505,10 +24505,10 @@
         <v>-104.72107</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -24519,10 +24519,10 @@
         <v>-104.71510000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -24533,10 +24533,10 @@
         <v>-104.72270399999999</v>
       </c>
       <c r="C26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -24547,10 +24547,10 @@
         <v>-104.71393999999999</v>
       </c>
       <c r="C27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -24561,10 +24561,10 @@
         <v>-104.7167</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -24575,10 +24575,10 @@
         <v>-104.71691</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -24589,10 +24589,10 @@
         <v>-104.71639</v>
       </c>
       <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" t="s">
         <v>380</v>
-      </c>
-      <c r="D30" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75">
@@ -24603,10 +24603,10 @@
         <v>-104.71841430000001</v>
       </c>
       <c r="C31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75">
@@ -24617,10 +24617,10 @@
         <v>-104.71903</v>
       </c>
       <c r="C32" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -24631,10 +24631,10 @@
         <v>-104.8244246</v>
       </c>
       <c r="C33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
@@ -24645,10 +24645,10 @@
         <v>-104.827124</v>
       </c>
       <c r="C34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -24659,10 +24659,10 @@
         <v>-104.81879170000001</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
@@ -24673,10 +24673,10 @@
         <v>-104.82262</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -24687,10 +24687,10 @@
         <v>-104.8184667</v>
       </c>
       <c r="C37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
@@ -24701,10 +24701,10 @@
         <v>-104.8235583</v>
       </c>
       <c r="C38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -24715,10 +24715,10 @@
         <v>-104.822571</v>
       </c>
       <c r="C39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -24729,10 +24729,10 @@
         <v>-104.82375</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -24743,10 +24743,10 @@
         <v>-104.8235583</v>
       </c>
       <c r="C41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -24757,10 +24757,10 @@
         <v>-104.82393</v>
       </c>
       <c r="C42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -24771,10 +24771,10 @@
         <v>-104.82666999999999</v>
       </c>
       <c r="C43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -24785,10 +24785,10 @@
         <v>-104.8226938</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -24799,10 +24799,10 @@
         <v>-104.8231</v>
       </c>
       <c r="C45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -24813,10 +24813,10 @@
         <v>-104.82272</v>
       </c>
       <c r="C46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -24827,10 +24827,10 @@
         <v>-105.04581</v>
       </c>
       <c r="C47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -24841,10 +24841,10 @@
         <v>-104.85966000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -24855,10 +24855,10 @@
         <v>-104.87315</v>
       </c>
       <c r="C49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -24869,10 +24869,10 @@
         <v>-104.78243000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -24883,10 +24883,10 @@
         <v>-104.84954</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -24897,10 +24897,10 @@
         <v>-104.8554</v>
       </c>
       <c r="C52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D52" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -24911,10 +24911,10 @@
         <v>-104.87358999999999</v>
       </c>
       <c r="C53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D53" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -24925,10 +24925,10 @@
         <v>-104.82319819999999</v>
       </c>
       <c r="C54" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -24939,10 +24939,10 @@
         <v>-104.82472</v>
       </c>
       <c r="C55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -24953,10 +24953,10 @@
         <v>-104.82538</v>
       </c>
       <c r="C56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -24967,10 +24967,10 @@
         <v>-104.91367</v>
       </c>
       <c r="C57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -24981,10 +24981,10 @@
         <v>-104.82259999999999</v>
       </c>
       <c r="C58" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -24995,10 +24995,10 @@
         <v>-104.7906933</v>
       </c>
       <c r="C59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D59" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -25009,10 +25009,10 @@
         <v>-104.79201999999999</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25023,10 +25023,10 @@
         <v>-104.77376529999999</v>
       </c>
       <c r="C61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -25037,10 +25037,10 @@
         <v>-104.7742415</v>
       </c>
       <c r="C62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -25051,10 +25051,10 @@
         <v>-104.7947455</v>
       </c>
       <c r="C63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -25065,10 +25065,10 @@
         <v>-104.7764085</v>
       </c>
       <c r="C64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -25079,10 +25079,10 @@
         <v>-104.77398049999999</v>
       </c>
       <c r="C65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -25093,10 +25093,10 @@
         <v>-104.80538</v>
       </c>
       <c r="C66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -25107,10 +25107,10 @@
         <v>-104.80002</v>
       </c>
       <c r="C67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -25121,10 +25121,10 @@
         <v>-104.79742</v>
       </c>
       <c r="C68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -25135,10 +25135,10 @@
         <v>-104.80141500000001</v>
       </c>
       <c r="C69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D69" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -25149,10 +25149,10 @@
         <v>-104.80368</v>
       </c>
       <c r="C70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -25163,10 +25163,10 @@
         <v>-104.7687567</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D71" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -25177,10 +25177,10 @@
         <v>-104.75874</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -25191,10 +25191,10 @@
         <v>-104.7575033</v>
       </c>
       <c r="C73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -25205,10 +25205,10 @@
         <v>-104.747446</v>
       </c>
       <c r="C74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -25219,10 +25219,10 @@
         <v>-104.7567483</v>
       </c>
       <c r="C75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D75" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -25233,10 +25233,10 @@
         <v>-104.76197999999999</v>
       </c>
       <c r="C76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D76" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -25247,10 +25247,10 @@
         <v>-104.7684613</v>
       </c>
       <c r="C77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D77" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -25261,10 +25261,10 @@
         <v>-104.73662299999999</v>
       </c>
       <c r="C78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D78" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -25275,10 +25275,10 @@
         <v>-104.8233</v>
       </c>
       <c r="C79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D79" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -25289,10 +25289,10 @@
         <v>-104.71791</v>
       </c>
       <c r="C80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -25303,10 +25303,10 @@
         <v>-104.82729</v>
       </c>
       <c r="C81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D81" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -25331,10 +25331,10 @@
         <v>-104.85431</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -25345,10 +25345,10 @@
         <v>-104.863874</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D84" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -25359,7 +25359,7 @@
         <v>-104.82317999999999</v>
       </c>
       <c r="C85" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D85" t="s">
         <v>146</v>
@@ -25373,10 +25373,10 @@
         <v>-104.82241999999999</v>
       </c>
       <c r="C86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D86" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -25387,10 +25387,10 @@
         <v>-104.81832780000001</v>
       </c>
       <c r="C87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -25401,10 +25401,10 @@
         <v>-104.82402999999999</v>
       </c>
       <c r="C88" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D88" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -25415,10 +25415,10 @@
         <v>-104.82483999999999</v>
       </c>
       <c r="C89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -25429,10 +25429,10 @@
         <v>-104.86452</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D90" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -25443,10 +25443,10 @@
         <v>-104.82414</v>
       </c>
       <c r="C91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -25457,10 +25457,10 @@
         <v>-104.82622000000001</v>
       </c>
       <c r="C92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -25471,10 +25471,10 @@
         <v>-104.91434</v>
       </c>
       <c r="C93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -25485,10 +25485,10 @@
         <v>-104.7562155</v>
       </c>
       <c r="C94" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -25499,10 +25499,10 @@
         <v>-104.71706</v>
       </c>
       <c r="C95" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D95" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -25513,10 +25513,10 @@
         <v>-104.86448</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D96" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -25527,10 +25527,10 @@
         <v>-104.86297</v>
       </c>
       <c r="C97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D97" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -25541,10 +25541,10 @@
         <v>-104.84134</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D98" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -25555,10 +25555,10 @@
         <v>-104.71677099999999</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -25569,10 +25569,10 @@
         <v>-104.83983670000001</v>
       </c>
       <c r="C100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -25583,10 +25583,10 @@
         <v>-104.85939999999999</v>
       </c>
       <c r="C101" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D101" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -25597,10 +25597,10 @@
         <v>-104.8125695</v>
       </c>
       <c r="C102" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D102" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -25611,10 +25611,10 @@
         <v>-104.72629999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D103" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -25625,10 +25625,10 @@
         <v>-104.82259000000001</v>
       </c>
       <c r="C104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D104" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -25639,10 +25639,10 @@
         <v>-104.86471</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -25653,10 +25653,10 @@
         <v>-104.7396383</v>
       </c>
       <c r="C106" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D106" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -25667,10 +25667,10 @@
         <v>-104.86696000000001</v>
       </c>
       <c r="C107" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D107" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -25681,10 +25681,10 @@
         <v>-104.86066</v>
       </c>
       <c r="C108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D108" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -25695,10 +25695,10 @@
         <v>-104.71932</v>
       </c>
       <c r="C109" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D109" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -25709,10 +25709,10 @@
         <v>-104.811695</v>
       </c>
       <c r="C110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -25723,10 +25723,10 @@
         <v>-104.8177993</v>
       </c>
       <c r="C111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D111" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -25737,10 +25737,10 @@
         <v>-104.82487999999999</v>
       </c>
       <c r="C112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D112" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -25751,10 +25751,10 @@
         <v>-104.89675</v>
       </c>
       <c r="C113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D113" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -25765,10 +25765,10 @@
         <v>-104.8221449</v>
       </c>
       <c r="C114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D114" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -25779,10 +25779,10 @@
         <v>-104.8237797</v>
       </c>
       <c r="C115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D115" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -25793,10 +25793,10 @@
         <v>-104.78644</v>
       </c>
       <c r="C116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D116" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -25807,10 +25807,10 @@
         <v>-104.80183</v>
       </c>
       <c r="C117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -25821,10 +25821,10 @@
         <v>-104.72076</v>
       </c>
       <c r="C118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D118" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -25835,10 +25835,10 @@
         <v>-104.83919</v>
       </c>
       <c r="C119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D119" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/database_working.xlsx
+++ b/database_working.xlsx
@@ -627,9 +627,6 @@
     <t>$2.50 bottles of domestic beers, $4.25 domestic mini pitchers, $6.25 craft mini pitchers and $3.00 hot dogs</t>
   </si>
   <si>
-    <t>Happy Hour Food In Bar Area Only Happy Hour Drinks Available On Patio&lt;br&gt;$2 Off All Draft Beer&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$6 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;Jalapeno Poppers $4.5 &lt;br&gt;Chicken Waffle Wings $4.5 &lt;br&gt;Poutine $5.5&lt;br&gt; Kale Caesar $4.5 &lt;br&gt;Pimento Cheese Dip $4&lt;br&gt; Bacon Jam Burger $6 &lt;br&gt;Short Rib Grilled Cheese $6</t>
-  </si>
-  <si>
     <t>Daily Specials</t>
   </si>
   <si>
@@ -1386,6 +1383,9 @@
   </si>
   <si>
     <t>&lt;b&gt;FOOD&lt;/b&gt;Oysters 1.75 EA&lt;br&gt;Calamari 9&lt;br&gt;The Wedge 5&lt;br&gt;Clam Chowder 6&lt;br&gt;Seafood Sampler 22&lt;br&gt;Peel N Eat Shrimp 7&lt;br&gt;Golden Whitefish Roe 16&lt;br&gt;Fruit De Mer 6&lt;br&gt;Steamed Mussels 9&lt;br&gt;Ahi Tuna Poke 14&lt;br&gt;Tostada 4&lt;br&gt;Shrimp and Grits 8&lt;br&gt;Best Rice Ever 9&lt;br&gt;Hush Puppies 6&lt;br&gt;&lt;b&gt;FROM THE BAR&lt;/b&gt;&lt;br&gt;Strawberry Lemonade 5&lt;br&gt;Cucumber Lemon Press 5&lt;br&gt;Whiskey Tea 5&lt;br&gt;On-Tap Cocktail Feature 7&lt;br&gt;Oyster Shooters 3&lt;br&gt;Well Cocktails 5&lt;br&gt;All Drafts 1 off&lt;br&gt;The POST Howdy Western Pilsner 4&lt;br&gt;Seasonal Sangria 8&lt;br&gt;Select Red, Rose, and White Wines 7&lt;br&gt;Chilled Sake 6&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Happy Hour Food In Bar Area Only Happy Hour 3-5pm and 8:30-10pm&lt;br&gt; Drinks Available On Patio&lt;br&gt;$5 All Draft Beers&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$5-7 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;$1.5 Oysters&lt;br&gt;$5 Bottomless Popcorn&lt;br&gt;$15 Charcuterie and Cheese Plate&lt;br&gt;$7 Duck Confit Green Chile Fries&lt;br&gt;$9 Buffalo Style Pig Ears&lt;br&gt;$6 Tomatillo Potato Enchiladas&lt;br&gt;$3 Smoked Lamb Tacos&lt;br&gt;$6Chicken Waffle Wings&lt;br&gt;$2 Tempura Jalapeno Poppers&lt;br&gt;$6 Pear and Jicama Lettuce Cups&lt;br&gt;$13 Bone Marrow Luge - Served with a Shot of Woody Creek Rye Whiskey&lt;br&gt;$8 Grilled Cheese&lt;br&gt;$9 Bacon Jam Burger&lt;br&gt;$12 Tiny Burger&lt;br&gt;$10 Rabbit Pot Pie</t>
   </si>
 </sst>
 </file>
@@ -2433,10 +2433,10 @@
   <dimension ref="B1:BL117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="U86" sqref="U86"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="V34" sqref="V34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1"/>
@@ -2636,13 +2636,13 @@
     </row>
     <row r="2" spans="2:64" ht="21" customHeight="1">
       <c r="B2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
         <v>84</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L2">
         <v>1515</v>
@@ -2675,7 +2675,7 @@
         <v>1830</v>
       </c>
       <c r="V2" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="W2" t="str">
         <f t="shared" ref="W2:W32" si="0">IF(H2&gt;0,H2/100,"")</f>
@@ -2763,16 +2763,16 @@
       </c>
       <c r="AR2" s="1"/>
       <c r="AT2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX2" s="3" t="str">
         <f t="shared" ref="AX2:AX32" si="21">CONCATENATE("{
@@ -2830,13 +2830,13 @@
     </row>
     <row r="3" spans="2:64" ht="21" customHeight="1">
       <c r="B3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="W3" t="str">
         <f t="shared" si="0"/>
@@ -2923,16 +2923,16 @@
         <v/>
       </c>
       <c r="AS3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV3" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW3" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX3" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3025,7 +3025,7 @@
         <v>1800</v>
       </c>
       <c r="V4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="W4" t="str">
         <f t="shared" si="0"/>
@@ -3115,16 +3115,16 @@
         <v>67</v>
       </c>
       <c r="AS4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV4" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW4" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX4" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3317,13 +3317,13 @@
       </c>
       <c r="AR5" s="1"/>
       <c r="AU5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV5" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW5" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX5" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3384,7 +3384,7 @@
         <v>137</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J6">
         <v>1500</v>
@@ -3411,7 +3411,7 @@
         <v>1800</v>
       </c>
       <c r="V6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="W6" t="str">
         <f t="shared" si="0"/>
@@ -3499,13 +3499,13 @@
       </c>
       <c r="AR6" s="1"/>
       <c r="AU6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW6" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX6" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3565,7 +3565,7 @@
         <v>137</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7">
         <v>1500</v>
@@ -3610,7 +3610,7 @@
         <v>1800</v>
       </c>
       <c r="V7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W7">
         <f t="shared" si="0"/>
@@ -3698,13 +3698,13 @@
       </c>
       <c r="AR7" s="1"/>
       <c r="AU7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX7" s="3" t="str">
         <f t="shared" si="21"/>
@@ -3758,13 +3758,13 @@
     </row>
     <row r="8" spans="2:64" ht="21" customHeight="1">
       <c r="B8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="J8">
         <v>1600</v>
@@ -3803,7 +3803,7 @@
         <v>1900</v>
       </c>
       <c r="V8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W8" t="str">
         <f t="shared" ref="W8" si="31">IF(H8&gt;0,H8/100,"")</f>
@@ -3891,13 +3891,13 @@
       </c>
       <c r="AR8" s="1"/>
       <c r="AU8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX8" s="3" t="str">
         <f t="shared" ref="AX8" si="52">CONCATENATE("{
@@ -3961,7 +3961,7 @@
         <v>122</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J9">
         <v>1600</v>
@@ -3994,7 +3994,7 @@
         <v>1900</v>
       </c>
       <c r="V9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="W9" t="str">
         <f t="shared" si="0"/>
@@ -4082,13 +4082,13 @@
       </c>
       <c r="AR9" s="1"/>
       <c r="AU9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV9" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW9" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX9" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4148,7 +4148,7 @@
         <v>55</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J10">
         <v>1600</v>
@@ -4175,7 +4175,7 @@
         <v>1800</v>
       </c>
       <c r="V10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="W10" t="str">
         <f t="shared" si="0"/>
@@ -4263,13 +4263,13 @@
       </c>
       <c r="AR10" s="1"/>
       <c r="AU10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV10" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX10" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4323,13 +4323,13 @@
     </row>
     <row r="11" spans="2:64" ht="21" customHeight="1">
       <c r="B11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
       </c>
       <c r="G11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="W11" t="str">
         <f t="shared" si="0"/>
@@ -4416,19 +4416,19 @@
         <v/>
       </c>
       <c r="AS11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX11" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4482,13 +4482,13 @@
     </row>
     <row r="12" spans="2:64" ht="21" customHeight="1">
       <c r="B12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C12" t="s">
         <v>137</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H12">
         <v>1600</v>
@@ -4533,7 +4533,7 @@
         <v>1800</v>
       </c>
       <c r="V12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W12">
         <f t="shared" si="0"/>
@@ -4620,13 +4620,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AU12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX12" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="13" spans="2:64" ht="21" customHeight="1">
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J13">
         <v>1500</v>
@@ -4719,7 +4719,7 @@
         <v>1800</v>
       </c>
       <c r="V13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="W13" t="str">
         <f t="shared" si="0"/>
@@ -4807,13 +4807,13 @@
       </c>
       <c r="AR13" s="1"/>
       <c r="AU13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV13" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW13" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX13" s="3" t="str">
         <f t="shared" si="21"/>
@@ -4873,7 +4873,7 @@
         <v>122</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H14">
         <v>1500</v>
@@ -4918,7 +4918,7 @@
         <v>1800</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W14">
         <f t="shared" si="0"/>
@@ -5006,13 +5006,13 @@
       </c>
       <c r="AR14" s="1"/>
       <c r="AU14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX14" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5066,13 +5066,13 @@
     </row>
     <row r="15" spans="2:64" ht="21" customHeight="1">
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
         <v>55</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="W15" t="str">
         <f t="shared" si="0"/>
@@ -5160,16 +5160,16 @@
       </c>
       <c r="AR15" s="4"/>
       <c r="AT15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV15" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW15" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX15" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5229,7 +5229,7 @@
         <v>137</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J16">
         <v>1400</v>
@@ -5262,7 +5262,7 @@
         <v>1800</v>
       </c>
       <c r="V16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W16" t="str">
         <f t="shared" si="0"/>
@@ -5350,13 +5350,13 @@
       </c>
       <c r="AR16" s="1"/>
       <c r="AU16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV16" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW16" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX16" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5416,10 +5416,10 @@
         <v>110</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="V17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W17" t="str">
         <f t="shared" si="0"/>
@@ -5507,13 +5507,13 @@
       </c>
       <c r="AR17" s="1"/>
       <c r="AU17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV17" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW17" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX17" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5573,7 +5573,7 @@
         <v>122</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H18">
         <v>2100</v>
@@ -5618,7 +5618,7 @@
         <v>2400</v>
       </c>
       <c r="V18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="W18">
         <f t="shared" si="0"/>
@@ -5705,13 +5705,13 @@
         <v>9pm-12am</v>
       </c>
       <c r="AU18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW18" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX18" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5765,13 +5765,13 @@
     </row>
     <row r="19" spans="2:62" ht="21" customHeight="1">
       <c r="B19" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H19">
         <v>1100</v>
@@ -5810,7 +5810,7 @@
         <v>1800</v>
       </c>
       <c r="V19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W19">
         <f t="shared" si="0"/>
@@ -5897,13 +5897,13 @@
         <v/>
       </c>
       <c r="AU19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV19" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW19" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX19" s="3" t="str">
         <f t="shared" si="21"/>
@@ -5957,13 +5957,13 @@
     </row>
     <row r="20" spans="2:62" ht="21" customHeight="1">
       <c r="B20" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>137</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H20">
         <v>1100</v>
@@ -6002,7 +6002,7 @@
         <v>1800</v>
       </c>
       <c r="V20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W20">
         <f t="shared" si="0"/>
@@ -6089,13 +6089,13 @@
         <v/>
       </c>
       <c r="AU20" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW20" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX20" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6149,13 +6149,13 @@
     </row>
     <row r="21" spans="2:62" ht="21" customHeight="1">
       <c r="B21" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
         <v>95</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H21">
         <v>1100</v>
@@ -6194,7 +6194,7 @@
         <v>1800</v>
       </c>
       <c r="V21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="W21">
         <f t="shared" si="0"/>
@@ -6281,13 +6281,13 @@
         <v/>
       </c>
       <c r="AU21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW21" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX21" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6347,7 +6347,7 @@
         <v>95</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H22">
         <v>1100</v>
@@ -6479,13 +6479,13 @@
         <v>11am-7pm</v>
       </c>
       <c r="AU22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV22" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW22" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX22" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6545,7 +6545,7 @@
         <v>55</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J23">
         <v>1500</v>
@@ -6672,13 +6672,13 @@
       </c>
       <c r="AR23" s="1"/>
       <c r="AU23" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV23" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW23" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX23" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6733,13 +6733,13 @@
     </row>
     <row r="24" spans="2:62" ht="21" customHeight="1">
       <c r="B24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C24" t="s">
         <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H24">
         <v>1500</v>
@@ -6778,7 +6778,7 @@
         <v>1800</v>
       </c>
       <c r="V24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W24">
         <f t="shared" si="0"/>
@@ -6865,16 +6865,16 @@
         <v/>
       </c>
       <c r="AS24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV24" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW24" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX24" s="3" t="str">
         <f t="shared" si="21"/>
@@ -6928,13 +6928,13 @@
     </row>
     <row r="25" spans="2:62" ht="21" customHeight="1">
       <c r="B25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C25" t="s">
         <v>142</v>
       </c>
       <c r="G25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="W25" t="str">
         <f t="shared" si="0"/>
@@ -7021,16 +7021,16 @@
         <v/>
       </c>
       <c r="AT25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU25" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV25" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW25" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX25" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7090,7 +7090,7 @@
         <v>55</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J26">
         <v>1500</v>
@@ -7123,7 +7123,7 @@
         <v>1800</v>
       </c>
       <c r="V26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="W26" t="str">
         <f t="shared" si="0"/>
@@ -7210,13 +7210,13 @@
         <v/>
       </c>
       <c r="AU26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV26" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW26" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX26" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7270,13 +7270,13 @@
     </row>
     <row r="27" spans="2:62" ht="21" customHeight="1">
       <c r="B27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C27" t="s">
         <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H27">
         <v>1400</v>
@@ -7321,7 +7321,7 @@
         <v>1700</v>
       </c>
       <c r="V27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="W27">
         <f t="shared" si="0"/>
@@ -7408,16 +7408,16 @@
         <v>2pm-5pm</v>
       </c>
       <c r="AS27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV27" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW27" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW27" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX27" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7565,13 +7565,13 @@
         <v/>
       </c>
       <c r="AU28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV28" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW28" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX28" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7631,7 +7631,7 @@
         <v>122</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H29">
         <v>1500</v>
@@ -7670,7 +7670,7 @@
         <v>1800</v>
       </c>
       <c r="V29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="W29">
         <f t="shared" si="0"/>
@@ -7758,13 +7758,13 @@
       </c>
       <c r="AR29" s="1"/>
       <c r="AU29" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV29" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW29" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX29" s="3" t="str">
         <f t="shared" si="21"/>
@@ -7818,13 +7818,13 @@
     </row>
     <row r="30" spans="2:62" ht="21" customHeight="1">
       <c r="B30" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C30" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J30">
         <v>1500</v>
@@ -7857,7 +7857,7 @@
         <v>1800</v>
       </c>
       <c r="V30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="W30" t="str">
         <f t="shared" si="0"/>
@@ -7945,13 +7945,13 @@
       </c>
       <c r="AR30" s="1"/>
       <c r="AU30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV30" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW30" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW30" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX30" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8011,7 +8011,7 @@
         <v>137</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31">
         <v>1100</v>
@@ -8056,7 +8056,7 @@
         <v>1700</v>
       </c>
       <c r="V31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="W31">
         <f t="shared" si="0"/>
@@ -8143,13 +8143,13 @@
         <v>11am-5pm</v>
       </c>
       <c r="AU31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV31" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW31" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW31" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX31" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8203,13 +8203,13 @@
     </row>
     <row r="32" spans="2:62" ht="21" customHeight="1">
       <c r="B32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H32">
         <v>1630</v>
@@ -8254,7 +8254,7 @@
         <v>1830</v>
       </c>
       <c r="V32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W32">
         <f t="shared" si="0"/>
@@ -8342,16 +8342,16 @@
       </c>
       <c r="AR32" s="1"/>
       <c r="AT32" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV32" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW32" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW32" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX32" s="3" t="str">
         <f t="shared" si="21"/>
@@ -8411,7 +8411,7 @@
         <v>137</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H33">
         <v>1500</v>
@@ -8456,7 +8456,7 @@
         <v>1800</v>
       </c>
       <c r="V33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W33">
         <f t="shared" ref="W33:W64" si="61">IF(H33&gt;0,H33/100,"")</f>
@@ -8544,13 +8544,13 @@
       </c>
       <c r="AR33" s="8"/>
       <c r="AU33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV33" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW33" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX33" s="3" t="str">
         <f t="shared" ref="AX33:AX64" si="82">CONCATENATE("{
@@ -8608,13 +8608,13 @@
     </row>
     <row r="34" spans="2:63" ht="21" customHeight="1">
       <c r="B34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C34" t="s">
         <v>142</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J34">
         <v>1500</v>
@@ -8647,7 +8647,7 @@
         <v>1900</v>
       </c>
       <c r="V34" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="W34" t="str">
         <f t="shared" si="61"/>
@@ -8735,13 +8735,13 @@
       </c>
       <c r="AR34" s="4"/>
       <c r="AU34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV34" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW34" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW34" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX34" s="3" t="str">
         <f t="shared" si="82"/>
@@ -8801,52 +8801,52 @@
         <v>55</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H35">
         <v>1500</v>
       </c>
       <c r="I35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J35">
         <v>1500</v>
       </c>
       <c r="K35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L35">
         <v>1500</v>
       </c>
       <c r="M35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N35">
         <v>1500</v>
       </c>
       <c r="O35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="P35">
         <v>1500</v>
       </c>
       <c r="Q35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="R35">
         <v>1500</v>
       </c>
       <c r="S35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="T35">
         <v>1500</v>
       </c>
       <c r="U35">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="V35" t="s">
-        <v>194</v>
+        <v>432</v>
       </c>
       <c r="W35">
         <f t="shared" si="61"/>
@@ -8854,7 +8854,7 @@
       </c>
       <c r="X35">
         <f t="shared" si="62"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y35">
         <f t="shared" si="63"/>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="Z35">
         <f t="shared" si="64"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA35">
         <f t="shared" si="65"/>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="AB35">
         <f t="shared" si="66"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC35">
         <f t="shared" si="67"/>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="AD35">
         <f t="shared" si="68"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE35">
         <f t="shared" si="69"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="AF35">
         <f t="shared" si="70"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG35">
         <f t="shared" si="71"/>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="AH35">
         <f t="shared" si="72"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI35">
         <f t="shared" si="73"/>
@@ -8902,52 +8902,52 @@
       </c>
       <c r="AJ35">
         <f t="shared" si="74"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK35" t="str">
         <f t="shared" si="75"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AL35" t="str">
         <f t="shared" si="76"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AM35" t="str">
         <f t="shared" si="77"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AN35" t="str">
         <f t="shared" si="78"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AO35" t="str">
         <f t="shared" si="79"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AP35" t="str">
         <f t="shared" si="80"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AQ35" t="str">
         <f t="shared" si="81"/>
-        <v>3pm-6pm</v>
+        <v>3pm-5pm</v>
       </c>
       <c r="AR35" s="5"/>
       <c r="AU35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV35" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW35" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX35" s="3" t="str">
         <f t="shared" si="82"/>
         <v>{
     'name': "Four by Brother Luck",
     'area': "downtown",'hours': {
-      'sunday-start':"1500", 'sunday-end':"1800", 'monday-start':"1500", 'monday-end':"1800", 'tuesday-start':"1500", 'tuesday-end':"1800", 'wednesday-start':"1500", 'wednesday-end':"1800", 'thursday-start':"1500", 'thursday-end':"1800", 'friday-start':"1500", 'friday-end':"1800", 'saturday-start':"1500", 'saturday-end':"1800"},  'description': "Happy Hour Food In Bar Area Only Happy Hour Drinks Available On Patio&lt;br&gt;$2 Off All Draft Beer&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$6 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;Jalapeno Poppers $4.5 &lt;br&gt;Chicken Waffle Wings $4.5 &lt;br&gt;Poutine $5.5&lt;br&gt; Kale Caesar $4.5 &lt;br&gt;Pimento Cheese Dip $4&lt;br&gt; Bacon Jam Burger $6 &lt;br&gt;Short Rib Grilled Cheese $6", 'link':"", 'pricing':"",   'phone-number': "", 'address': "321 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
+      'sunday-start':"1500", 'sunday-end':"1700", 'monday-start':"1500", 'monday-end':"1700", 'tuesday-start':"1500", 'tuesday-end':"1700", 'wednesday-start':"1500", 'wednesday-end':"1700", 'thursday-start':"1500", 'thursday-end':"1700", 'friday-start':"1500", 'friday-end':"1700", 'saturday-start':"1500", 'saturday-end':"1700"},  'description': "Happy Hour Food In Bar Area Only Happy Hour 3-5pm and 8:30-10pm&lt;br&gt; Drinks Available On Patio&lt;br&gt;$5 All Draft Beers&lt;br&gt;$4 Jameson And Fernet Pours&lt;br&gt;$5-7 Cocktails&lt;br&gt;$6 House Wine&lt;br&gt;$1.5 Oysters&lt;br&gt;$5 Bottomless Popcorn&lt;br&gt;$15 Charcuterie and Cheese Plate&lt;br&gt;$7 Duck Confit Green Chile Fries&lt;br&gt;$9 Buffalo Style Pig Ears&lt;br&gt;$6 Tomatillo Potato Enchiladas&lt;br&gt;$3 Smoked Lamb Tacos&lt;br&gt;$6Chicken Waffle Wings&lt;br&gt;$2 Tempura Jalapeno Poppers&lt;br&gt;$6 Pear and Jicama Lettuce Cups&lt;br&gt;$13 Bone Marrow Luge - Served with a Shot of Woody Creek Rye Whiskey&lt;br&gt;$8 Grilled Cheese&lt;br&gt;$9 Bacon Jam Burger&lt;br&gt;$12 Tiny Burger&lt;br&gt;$10 Rabbit Pot Pie", 'link':"", 'pricing':"",   'phone-number': "", 'address': "321 N Tejon St, Colorado Springs, CO 80903", 'other-amenities': ['','','med'], 'has-drink':true, 'has-food':true},</v>
       </c>
       <c r="AY35" t="str">
         <f t="shared" si="83"/>
@@ -9000,7 +9000,7 @@
         <v>95</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="W36" t="str">
         <f t="shared" si="61"/>
@@ -9088,13 +9088,13 @@
       </c>
       <c r="AR36" s="1"/>
       <c r="AU36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV36" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW36" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX36" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9148,13 +9148,13 @@
     </row>
     <row r="37" spans="2:63" ht="21" customHeight="1">
       <c r="B37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" t="s">
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="W37" t="str">
         <f t="shared" si="61"/>
@@ -9241,16 +9241,16 @@
         <v/>
       </c>
       <c r="AS37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV37" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW37" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX37" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9310,7 +9310,7 @@
         <v>55</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H38">
         <v>1800</v>
@@ -9443,13 +9443,13 @@
       </c>
       <c r="AR38" s="7"/>
       <c r="AU38" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV38" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW38" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW38" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX38" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9509,7 +9509,7 @@
         <v>137</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H39">
         <v>1600</v>
@@ -9548,7 +9548,7 @@
         <v>1900</v>
       </c>
       <c r="V39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="W39">
         <f t="shared" si="61"/>
@@ -9636,13 +9636,13 @@
       </c>
       <c r="AR39" s="8"/>
       <c r="AU39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV39" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW39" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX39" s="3" t="str">
         <f t="shared" si="82"/>
@@ -9696,13 +9696,13 @@
     </row>
     <row r="40" spans="2:63" ht="21" customHeight="1">
       <c r="B40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" t="s">
         <v>137</v>
       </c>
       <c r="G40" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H40">
         <v>1100</v>
@@ -9747,7 +9747,7 @@
         <v>1730</v>
       </c>
       <c r="V40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="W40">
         <f t="shared" si="61"/>
@@ -9834,16 +9834,16 @@
         <v>11am-5.3pm</v>
       </c>
       <c r="AS40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU40" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV40" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW40" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX40" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10036,13 +10036,13 @@
       </c>
       <c r="AR41" s="1"/>
       <c r="AU41" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV41" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW41" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX41" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10096,13 +10096,13 @@
     </row>
     <row r="42" spans="2:63" ht="21" customHeight="1">
       <c r="B42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J42">
         <v>1500</v>
@@ -10135,7 +10135,7 @@
         <v>1800</v>
       </c>
       <c r="V42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W42" t="str">
         <f t="shared" si="61"/>
@@ -10222,16 +10222,16 @@
         <v/>
       </c>
       <c r="AT42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV42" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW42" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW42" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX42" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10414,19 +10414,19 @@
         <v>144</v>
       </c>
       <c r="AS43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV43" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW43" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX43" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10485,13 +10485,13 @@
     </row>
     <row r="44" spans="2:63" ht="21" customHeight="1">
       <c r="B44" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C44" t="s">
         <v>73</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H44">
         <v>1500</v>
@@ -10536,7 +10536,7 @@
         <v>1800</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="W44">
         <f t="shared" si="61"/>
@@ -10624,13 +10624,13 @@
       </c>
       <c r="AR44" s="1"/>
       <c r="AU44" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV44" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW44" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW44" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX44" s="3" t="str">
         <f t="shared" si="82"/>
@@ -10684,13 +10684,13 @@
     </row>
     <row r="45" spans="2:63" ht="21" customHeight="1">
       <c r="B45" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C45" t="s">
         <v>55</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H45">
         <v>1500</v>
@@ -10735,7 +10735,7 @@
         <v>1800</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="W45">
         <f t="shared" ref="W45" si="92">IF(H45&gt;0,H45/100,"")</f>
@@ -10823,13 +10823,13 @@
       </c>
       <c r="AR45" s="1"/>
       <c r="AU45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV45" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW45" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX45" s="3" t="str">
         <f t="shared" ref="AX45" si="113">CONCATENATE("{
@@ -10893,7 +10893,7 @@
         <v>142</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J46">
         <v>1600</v>
@@ -10926,7 +10926,7 @@
         <v>1900</v>
       </c>
       <c r="V46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W46" t="str">
         <f t="shared" si="61"/>
@@ -11014,13 +11014,13 @@
       </c>
       <c r="AR46" s="1"/>
       <c r="AU46" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV46" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW46" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX46" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11074,7 +11074,7 @@
     </row>
     <row r="47" spans="2:63" ht="21" customHeight="1">
       <c r="B47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C47" t="s">
         <v>55</v>
@@ -11209,16 +11209,16 @@
         <v>70</v>
       </c>
       <c r="AS47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV47" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW47" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX47" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11399,13 +11399,13 @@
       </c>
       <c r="AR48" s="1"/>
       <c r="AU48" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV48" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW48" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX48" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11465,7 +11465,7 @@
         <v>142</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J49">
         <v>1600</v>
@@ -11504,7 +11504,7 @@
         <v>1900</v>
       </c>
       <c r="V49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="W49" t="str">
         <f t="shared" si="61"/>
@@ -11592,13 +11592,13 @@
       </c>
       <c r="AR49" s="4"/>
       <c r="AU49" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV49" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW49" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX49" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11658,7 +11658,7 @@
         <v>142</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J50">
         <v>1600</v>
@@ -11691,7 +11691,7 @@
         <v>1900</v>
       </c>
       <c r="V50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="W50" t="str">
         <f t="shared" si="61"/>
@@ -11779,13 +11779,13 @@
       </c>
       <c r="AR50" s="1"/>
       <c r="AU50" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV50" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW50" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW50" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX50" s="3" t="str">
         <f t="shared" si="82"/>
@@ -11845,7 +11845,7 @@
         <v>122</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H51">
         <v>1400</v>
@@ -11890,7 +11890,7 @@
         <v>1700</v>
       </c>
       <c r="V51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W51">
         <f t="shared" si="61"/>
@@ -11978,16 +11978,16 @@
       </c>
       <c r="AR51" s="4"/>
       <c r="AS51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU51" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV51" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW51" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX51" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12047,7 +12047,7 @@
         <v>142</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="W52" t="str">
         <f t="shared" si="61"/>
@@ -12134,13 +12134,13 @@
         <v/>
       </c>
       <c r="AU52" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV52" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW52" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX52" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12195,13 +12195,13 @@
     </row>
     <row r="53" spans="2:62" ht="21" customHeight="1">
       <c r="B53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C53" t="s">
         <v>55</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H53">
         <v>1700</v>
@@ -12240,7 +12240,7 @@
         <v>1900</v>
       </c>
       <c r="V53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="W53">
         <f t="shared" si="61"/>
@@ -12327,16 +12327,16 @@
         <v/>
       </c>
       <c r="AS53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV53" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW53" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX53" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12396,7 +12396,7 @@
         <v>137</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H54">
         <v>1500</v>
@@ -12441,7 +12441,7 @@
         <v>1800</v>
       </c>
       <c r="V54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="W54">
         <f t="shared" si="61"/>
@@ -12529,13 +12529,13 @@
       </c>
       <c r="AR54" s="4"/>
       <c r="AU54" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV54" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW54" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW54" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX54" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12589,13 +12589,13 @@
     </row>
     <row r="55" spans="2:62" ht="21" customHeight="1">
       <c r="B55" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C55" t="s">
         <v>55</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J55">
         <v>1600</v>
@@ -12628,7 +12628,7 @@
         <v>1900</v>
       </c>
       <c r="V55" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="W55" t="str">
         <f t="shared" ref="W55:AJ55" si="123">IF(H55&gt;0,H55/100,"")</f>
@@ -12716,13 +12716,13 @@
       </c>
       <c r="AR55" s="1"/>
       <c r="AU55" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV55" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW55" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX55" s="3" t="str">
         <f>CONCATENATE("{
@@ -12901,13 +12901,13 @@
       </c>
       <c r="AR56" s="1"/>
       <c r="AU56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV56" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW56" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX56" s="3" t="str">
         <f t="shared" si="82"/>
@@ -12961,13 +12961,13 @@
     </row>
     <row r="57" spans="2:62" ht="21" customHeight="1">
       <c r="B57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" t="s">
         <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="W57" t="str">
         <f t="shared" si="61"/>
@@ -13054,16 +13054,16 @@
         <v/>
       </c>
       <c r="AT57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU57" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV57" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW57" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX57" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13117,13 +13117,13 @@
     </row>
     <row r="58" spans="2:62" ht="21" customHeight="1">
       <c r="B58" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C58" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H58">
         <v>1600</v>
@@ -13168,7 +13168,7 @@
         <v>1800</v>
       </c>
       <c r="V58" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="W58">
         <f t="shared" ref="W58" si="124">IF(H58&gt;0,H58/100,"")</f>
@@ -13255,13 +13255,13 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AU58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV58" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW58" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX58" s="3" t="str">
         <f t="shared" ref="AX58" si="145">CONCATENATE("{
@@ -13448,16 +13448,16 @@
         <v>64</v>
       </c>
       <c r="AS59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU59" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV59" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW59" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX59" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13517,7 +13517,7 @@
         <v>137</v>
       </c>
       <c r="G60" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H60">
         <v>1000</v>
@@ -13562,7 +13562,7 @@
         <v>2400</v>
       </c>
       <c r="V60" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="W60">
         <f t="shared" si="61"/>
@@ -13649,13 +13649,13 @@
         <v>10am-12am</v>
       </c>
       <c r="AU60" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV60" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW60" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW60" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX60" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13709,13 +13709,13 @@
     </row>
     <row r="61" spans="2:62" ht="21" customHeight="1">
       <c r="B61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="G61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W61" t="str">
         <f t="shared" si="61"/>
@@ -13802,16 +13802,16 @@
         <v/>
       </c>
       <c r="AT61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV61" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW61" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX61" s="3" t="str">
         <f t="shared" si="82"/>
@@ -13871,7 +13871,7 @@
         <v>95</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="W62" t="str">
         <f t="shared" si="61"/>
@@ -13958,13 +13958,13 @@
         <v/>
       </c>
       <c r="AU62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV62" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW62" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX62" s="3" t="str">
         <f t="shared" si="82"/>
@@ -14159,19 +14159,19 @@
         <v>72</v>
       </c>
       <c r="AS63" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV63" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW63" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW63" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX63" s="3" t="str">
         <f t="shared" si="82"/>
@@ -14231,7 +14231,7 @@
         <v>137</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H64">
         <v>1500</v>
@@ -14276,7 +14276,7 @@
         <v>1800</v>
       </c>
       <c r="V64" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="W64">
         <f t="shared" si="61"/>
@@ -14364,13 +14364,13 @@
       </c>
       <c r="AR64" s="8"/>
       <c r="AU64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV64" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW64" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX64" s="3" t="str">
         <f t="shared" si="82"/>
@@ -14430,7 +14430,7 @@
         <v>122</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="W65" t="str">
         <f t="shared" ref="W65:W95" si="154">IF(H65&gt;0,H65/100,"")</f>
@@ -14517,13 +14517,13 @@
         <v/>
       </c>
       <c r="AU65" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV65" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW65" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX65" s="3" t="str">
         <f t="shared" ref="AX65:AX95" si="175">CONCATENATE("{
@@ -14587,7 +14587,7 @@
         <v>137</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V66" s="26"/>
       <c r="W66" t="str">
@@ -14676,13 +14676,13 @@
       </c>
       <c r="AR66" s="4"/>
       <c r="AU66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV66" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW66" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX66" s="3" t="str">
         <f t="shared" si="175"/>
@@ -14736,13 +14736,13 @@
     </row>
     <row r="67" spans="2:61" ht="21" customHeight="1">
       <c r="B67" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C67" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J67">
         <v>1600</v>
@@ -14859,16 +14859,16 @@
         <v/>
       </c>
       <c r="AS67" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU67" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV67" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW67" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX67" s="3" t="str">
         <f t="shared" si="175"/>
@@ -14922,13 +14922,13 @@
     </row>
     <row r="68" spans="2:61" ht="21" customHeight="1">
       <c r="B68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
         <v>73</v>
       </c>
       <c r="G68" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="W68" t="str">
         <f t="shared" si="154"/>
@@ -15016,16 +15016,16 @@
       </c>
       <c r="AR68" s="8"/>
       <c r="AT68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU68" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV68" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW68" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX68" s="3" t="str">
         <f t="shared" si="175"/>
@@ -15079,13 +15079,13 @@
     </row>
     <row r="69" spans="2:61" ht="21" customHeight="1">
       <c r="B69" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" t="s">
+        <v>352</v>
+      </c>
+      <c r="G69" t="s">
         <v>354</v>
-      </c>
-      <c r="C69" t="s">
-        <v>353</v>
-      </c>
-      <c r="G69" t="s">
-        <v>355</v>
       </c>
       <c r="J69">
         <v>1500</v>
@@ -15118,7 +15118,7 @@
         <v>1900</v>
       </c>
       <c r="V69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="W69" t="str">
         <f t="shared" si="154"/>
@@ -15205,13 +15205,13 @@
         <v/>
       </c>
       <c r="AU69" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV69" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW69" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX69" s="3" t="str">
         <f t="shared" si="175"/>
@@ -15271,7 +15271,7 @@
         <v>95</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="W70" t="str">
         <f t="shared" si="154"/>
@@ -15359,13 +15359,13 @@
       </c>
       <c r="AR70" s="6"/>
       <c r="AU70" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV70" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW70" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX70" s="3" t="str">
         <f t="shared" si="175"/>
@@ -15425,7 +15425,7 @@
         <v>95</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J71">
         <v>1500</v>
@@ -15545,13 +15545,13 @@
         <v/>
       </c>
       <c r="AU71" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV71" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW71" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX71" s="3" t="str">
         <f t="shared" si="175"/>
@@ -15611,7 +15611,7 @@
         <v>137</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="W72" t="str">
         <f t="shared" si="154"/>
@@ -15699,13 +15699,13 @@
       </c>
       <c r="AR72" s="4"/>
       <c r="AU72" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV72" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW72" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX72" s="3" t="str">
         <f t="shared" si="175"/>
@@ -15759,13 +15759,13 @@
     </row>
     <row r="73" spans="2:61" ht="21" customHeight="1">
       <c r="B73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
         <v>95</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J73">
         <v>1600</v>
@@ -15798,7 +15798,7 @@
         <v>1900</v>
       </c>
       <c r="V73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W73" t="str">
         <f t="shared" si="154"/>
@@ -15886,13 +15886,13 @@
       </c>
       <c r="AR73" s="1"/>
       <c r="AU73" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV73" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW73" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX73" s="3" t="str">
         <f t="shared" si="175"/>
@@ -15946,13 +15946,13 @@
     </row>
     <row r="74" spans="2:61" ht="21" customHeight="1">
       <c r="B74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
         <v>95</v>
       </c>
       <c r="G74" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W74" t="str">
         <f t="shared" si="154"/>
@@ -16040,16 +16040,16 @@
       </c>
       <c r="AR74" s="1"/>
       <c r="AT74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU74" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV74" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW74" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX74" s="3" t="str">
         <f t="shared" si="175"/>
@@ -16229,13 +16229,13 @@
         <v/>
       </c>
       <c r="AU75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV75" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW75" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW75" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX75" s="3" t="str">
         <f t="shared" si="175"/>
@@ -16289,13 +16289,13 @@
     </row>
     <row r="76" spans="2:61" ht="21" customHeight="1">
       <c r="B76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" t="s">
         <v>55</v>
       </c>
       <c r="G76" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H76">
         <v>1500</v>
@@ -16340,7 +16340,7 @@
         <v>1800</v>
       </c>
       <c r="V76" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="W76">
         <f t="shared" si="154"/>
@@ -16428,16 +16428,16 @@
       </c>
       <c r="AR76" s="4"/>
       <c r="AT76" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU76" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV76" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW76" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX76" s="3" t="str">
         <f t="shared" si="175"/>
@@ -16603,16 +16603,16 @@
         <v>4pm-6pm</v>
       </c>
       <c r="AT77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU77" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV77" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW77" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW77" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX77" s="3" t="str">
         <f t="shared" si="175"/>
@@ -16672,7 +16672,7 @@
         <v>95</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J78">
         <v>1400</v>
@@ -16711,7 +16711,7 @@
         <v>1800</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="W78" t="str">
         <f t="shared" si="154"/>
@@ -16798,16 +16798,16 @@
         <v>11am-6pm</v>
       </c>
       <c r="AS78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV78" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW78" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX78" s="3" t="str">
         <f t="shared" si="175"/>
@@ -16867,7 +16867,7 @@
         <v>137</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J79">
         <v>1500</v>
@@ -16900,7 +16900,7 @@
         <v>1900</v>
       </c>
       <c r="V79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W79" t="str">
         <f t="shared" si="154"/>
@@ -16987,13 +16987,13 @@
         <v/>
       </c>
       <c r="AU79" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV79" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW79" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX79" s="3" t="str">
         <f t="shared" si="175"/>
@@ -17047,13 +17047,13 @@
     </row>
     <row r="80" spans="2:61" ht="21" customHeight="1">
       <c r="B80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
         <v>55</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H80">
         <v>1600</v>
@@ -17098,7 +17098,7 @@
         <v>1800</v>
       </c>
       <c r="V80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="W80">
         <f t="shared" si="154"/>
@@ -17186,16 +17186,16 @@
       </c>
       <c r="AR80" s="1"/>
       <c r="AT80" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU80" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV80" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW80" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX80" s="3" t="str">
         <f t="shared" si="175"/>
@@ -17300,7 +17300,7 @@
         <v>1800</v>
       </c>
       <c r="V81" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W81">
         <f t="shared" si="154"/>
@@ -17388,13 +17388,13 @@
       </c>
       <c r="AR81" s="1"/>
       <c r="AU81" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV81" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW81" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW81" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX81" s="3" t="str">
         <f t="shared" si="175"/>
@@ -17449,13 +17449,13 @@
     </row>
     <row r="82" spans="2:64" ht="21" customHeight="1">
       <c r="B82" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C82" t="s">
         <v>55</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J82">
         <v>1500</v>
@@ -17494,7 +17494,7 @@
         <v>1900</v>
       </c>
       <c r="V82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="W82" t="str">
         <f t="shared" si="154"/>
@@ -17582,16 +17582,16 @@
       </c>
       <c r="AR82" s="1"/>
       <c r="AS82" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU82" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV82" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW82" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX82" s="3" t="str">
         <f t="shared" si="175"/>
@@ -17651,7 +17651,7 @@
         <v>55</v>
       </c>
       <c r="G83" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H83">
         <v>1600</v>
@@ -17784,13 +17784,13 @@
       </c>
       <c r="AR83" s="1"/>
       <c r="AU83" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV83" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW83" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX83" s="3" t="str">
         <f t="shared" si="175"/>
@@ -17844,13 +17844,13 @@
     </row>
     <row r="84" spans="2:64" ht="21" customHeight="1">
       <c r="B84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" t="s">
         <v>55</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H84">
         <v>1500</v>
@@ -17895,7 +17895,7 @@
         <v>1800</v>
       </c>
       <c r="V84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="W84">
         <f t="shared" si="154"/>
@@ -17982,16 +17982,16 @@
         <v>3pm-6pm</v>
       </c>
       <c r="AS84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV84" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW84" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX84" s="3" t="str">
         <f t="shared" si="175"/>
@@ -18047,13 +18047,13 @@
     </row>
     <row r="85" spans="2:64" ht="21" customHeight="1">
       <c r="B85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
         <v>84</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H85">
         <v>1500</v>
@@ -18098,7 +18098,7 @@
         <v>1800</v>
       </c>
       <c r="V85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="W85">
         <f t="shared" si="154"/>
@@ -18186,13 +18186,13 @@
       </c>
       <c r="AR85" s="1"/>
       <c r="AU85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV85" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW85" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX85" s="3" t="str">
         <f t="shared" si="175"/>
@@ -18246,13 +18246,13 @@
     </row>
     <row r="86" spans="2:64" ht="21" customHeight="1">
       <c r="B86" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C86" t="s">
         <v>55</v>
       </c>
       <c r="G86" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="W86" t="str">
         <f t="shared" si="154"/>
@@ -18339,16 +18339,16 @@
         <v/>
       </c>
       <c r="AT86" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU86" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV86" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW86" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX86" s="3" t="str">
         <f t="shared" si="175"/>
@@ -18531,13 +18531,13 @@
         <v>69</v>
       </c>
       <c r="AU87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV87" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW87" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX87" s="3" t="str">
         <f t="shared" si="175"/>
@@ -18597,7 +18597,7 @@
         <v>55</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J88">
         <v>1500</v>
@@ -18717,13 +18717,13 @@
         <v/>
       </c>
       <c r="AU88" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV88" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW88" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX88" s="3" t="str">
         <f t="shared" si="175"/>
@@ -18904,13 +18904,13 @@
       </c>
       <c r="AR89" s="1"/>
       <c r="AU89" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV89" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW89" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX89" s="3" t="str">
         <f t="shared" si="175"/>
@@ -18964,13 +18964,13 @@
     </row>
     <row r="90" spans="2:64" ht="21" customHeight="1">
       <c r="B90" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C90" t="s">
         <v>73</v>
       </c>
       <c r="G90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="W90" t="str">
         <f t="shared" si="154"/>
@@ -19057,19 +19057,19 @@
         <v/>
       </c>
       <c r="AS90" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AT90" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU90" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV90" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW90" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX90" s="3" t="str">
         <f t="shared" si="175"/>
@@ -19123,7 +19123,7 @@
     </row>
     <row r="91" spans="2:64" ht="21" customHeight="1">
       <c r="B91" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C91" t="s">
         <v>55</v>
@@ -19252,13 +19252,13 @@
         <v>65</v>
       </c>
       <c r="AU91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV91" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW91" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX91" s="3" t="str">
         <f t="shared" si="175"/>
@@ -19318,7 +19318,7 @@
         <v>122</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H92">
         <v>1100</v>
@@ -19363,7 +19363,7 @@
         <v>1600</v>
       </c>
       <c r="V92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W92">
         <f t="shared" si="154"/>
@@ -19451,13 +19451,13 @@
       </c>
       <c r="AR92" s="1"/>
       <c r="AU92" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV92" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW92" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX92" s="3" t="str">
         <f t="shared" si="175"/>
@@ -19511,13 +19511,13 @@
     </row>
     <row r="93" spans="2:64" ht="21" customHeight="1">
       <c r="B93" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="G93" s="9" t="s">
         <v>367</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>368</v>
       </c>
       <c r="H93">
         <v>1100</v>
@@ -19562,7 +19562,7 @@
         <v>1600</v>
       </c>
       <c r="V93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W93">
         <f t="shared" si="154"/>
@@ -19649,13 +19649,13 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU93" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV93" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW93" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX93" s="3" t="str">
         <f t="shared" si="175"/>
@@ -19709,13 +19709,13 @@
     </row>
     <row r="94" spans="2:64" ht="21" customHeight="1">
       <c r="B94" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>95</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H94">
         <v>1100</v>
@@ -19760,7 +19760,7 @@
         <v>1600</v>
       </c>
       <c r="V94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W94">
         <f t="shared" si="154"/>
@@ -19847,13 +19847,13 @@
         <v>11am-4pm</v>
       </c>
       <c r="AU94" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV94" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW94" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX94" s="3" t="str">
         <f t="shared" si="175"/>
@@ -19907,13 +19907,13 @@
     </row>
     <row r="95" spans="2:64" ht="21" customHeight="1">
       <c r="B95" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C95" t="s">
         <v>95</v>
       </c>
       <c r="G95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W95" t="str">
         <f t="shared" si="154"/>
@@ -20000,16 +20000,16 @@
         <v/>
       </c>
       <c r="AT95" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV95" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW95" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX95" s="3" t="str">
         <f t="shared" si="175"/>
@@ -20069,7 +20069,7 @@
         <v>55</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L96">
         <v>1700</v>
@@ -20190,13 +20190,13 @@
       </c>
       <c r="AR96" s="4"/>
       <c r="AU96" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV96" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW96" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW96" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX96" s="3" t="str">
         <f t="shared" ref="AX96:AX117" si="206">CONCATENATE("{
@@ -20260,7 +20260,7 @@
         <v>55</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H97">
         <v>1600</v>
@@ -20393,13 +20393,13 @@
       </c>
       <c r="AR97" s="1"/>
       <c r="AU97" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV97" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW97" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX97" s="3" t="str">
         <f t="shared" si="206"/>
@@ -20459,7 +20459,7 @@
         <v>122</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J98">
         <v>1600</v>
@@ -20492,7 +20492,7 @@
         <v>1730</v>
       </c>
       <c r="V98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W98" t="str">
         <f t="shared" si="185"/>
@@ -20579,13 +20579,13 @@
         <v/>
       </c>
       <c r="AU98" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV98" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW98" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX98" s="3" t="str">
         <f t="shared" si="206"/>
@@ -20645,7 +20645,7 @@
         <v>123</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H99">
         <v>1600</v>
@@ -20690,7 +20690,7 @@
         <v>1900</v>
       </c>
       <c r="V99" s="25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W99">
         <f t="shared" si="185"/>
@@ -20778,13 +20778,13 @@
       </c>
       <c r="AR99" s="1"/>
       <c r="AU99" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV99" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW99" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW99" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX99" s="3" t="str">
         <f t="shared" si="206"/>
@@ -20838,13 +20838,13 @@
     </row>
     <row r="100" spans="2:61" ht="21" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V100" s="3"/>
       <c r="W100" t="str">
@@ -20932,16 +20932,16 @@
         <v/>
       </c>
       <c r="AT100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU100" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV100" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW100" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX100" s="3" t="str">
         <f t="shared" si="206"/>
@@ -21089,13 +21089,13 @@
       </c>
       <c r="AR101" s="1"/>
       <c r="AU101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV101" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW101" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX101" s="3" t="str">
         <f t="shared" si="206"/>
@@ -21155,7 +21155,7 @@
         <v>137</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J102">
         <v>1700</v>
@@ -21188,7 +21188,7 @@
         <v>1900</v>
       </c>
       <c r="V102" s="26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="W102" t="str">
         <f t="shared" si="185"/>
@@ -21276,13 +21276,13 @@
       </c>
       <c r="AR102" s="4"/>
       <c r="AU102" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV102" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW102" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX102" s="3" t="str">
         <f t="shared" si="206"/>
@@ -21465,13 +21465,13 @@
         <v>146</v>
       </c>
       <c r="AU103" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV103" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW103" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX103" s="3" t="str">
         <f t="shared" si="206"/>
@@ -21531,7 +21531,7 @@
         <v>123</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H104">
         <v>1600</v>
@@ -21576,7 +21576,7 @@
         <v>1800</v>
       </c>
       <c r="V104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="W104">
         <f t="shared" si="185"/>
@@ -21664,13 +21664,13 @@
       </c>
       <c r="AR104" s="1"/>
       <c r="AU104" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV104" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW104" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX104" s="3" t="str">
         <f t="shared" si="206"/>
@@ -21730,7 +21730,7 @@
         <v>122</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H105">
         <v>1600</v>
@@ -21763,7 +21763,7 @@
         <v>1800</v>
       </c>
       <c r="V105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="W105">
         <f t="shared" si="185"/>
@@ -21851,13 +21851,13 @@
       </c>
       <c r="AR105" s="6"/>
       <c r="AU105" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV105" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW105" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX105" s="3" t="str">
         <f t="shared" si="206"/>
@@ -21917,7 +21917,7 @@
         <v>55</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L106">
         <v>1600</v>
@@ -22038,13 +22038,13 @@
       </c>
       <c r="AR106" s="1"/>
       <c r="AU106" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV106" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW106" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW106" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX106" s="3" t="str">
         <f t="shared" si="206"/>
@@ -22104,7 +22104,7 @@
         <v>55</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H107">
         <v>1500</v>
@@ -22237,16 +22237,16 @@
       </c>
       <c r="AR107" s="1"/>
       <c r="AS107" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU107" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV107" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW107" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX107" s="3" t="str">
         <f t="shared" si="206"/>
@@ -22306,7 +22306,7 @@
         <v>95</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J108">
         <v>1600</v>
@@ -22339,7 +22339,7 @@
         <v>1800</v>
       </c>
       <c r="V108" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W108" t="str">
         <f t="shared" si="185"/>
@@ -22427,16 +22427,16 @@
       </c>
       <c r="AR108" s="4"/>
       <c r="AT108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU108" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV108" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW108" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX108" s="3" t="str">
         <f t="shared" si="206"/>
@@ -22541,7 +22541,7 @@
         <v>1900</v>
       </c>
       <c r="V109" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W109">
         <f t="shared" si="185"/>
@@ -22629,16 +22629,16 @@
       </c>
       <c r="AR109" s="1"/>
       <c r="AS109" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AU109" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV109" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW109" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX109" s="3" t="str">
         <f t="shared" si="206"/>
@@ -22692,13 +22692,13 @@
     </row>
     <row r="110" spans="2:61" ht="21" customHeight="1">
       <c r="B110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C110" t="s">
         <v>137</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J110">
         <v>1600</v>
@@ -22731,7 +22731,7 @@
         <v>1730</v>
       </c>
       <c r="V110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W110" t="str">
         <f t="shared" si="185"/>
@@ -22819,13 +22819,13 @@
       </c>
       <c r="AR110" s="1"/>
       <c r="AU110" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV110" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW110" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX110" s="3" t="str">
         <f t="shared" si="206"/>
@@ -22885,7 +22885,7 @@
         <v>55</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H111">
         <v>1600</v>
@@ -23017,13 +23017,13 @@
         <v>4pm-7pm</v>
       </c>
       <c r="AU111" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV111" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW111" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX111" s="3" t="str">
         <f t="shared" si="206"/>
@@ -23192,13 +23192,13 @@
       </c>
       <c r="AR112" s="1"/>
       <c r="AU112" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV112" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW112" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX112" s="3" t="str">
         <f t="shared" si="206"/>
@@ -23252,13 +23252,13 @@
     </row>
     <row r="113" spans="2:61" ht="21" customHeight="1">
       <c r="B113" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
         <v>137</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J113">
         <v>1630</v>
@@ -23285,7 +23285,7 @@
         <v>1800</v>
       </c>
       <c r="V113" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W113" t="str">
         <f t="shared" si="185"/>
@@ -23373,16 +23373,16 @@
       </c>
       <c r="AR113" s="1"/>
       <c r="AT113" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AU113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV113" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW113" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW113" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX113" s="3" t="str">
         <f t="shared" si="206"/>
@@ -23442,7 +23442,7 @@
         <v>55</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H114">
         <v>1600</v>
@@ -23575,13 +23575,13 @@
       </c>
       <c r="AR114" s="1"/>
       <c r="AU114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV114" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW114" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW114" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX114" s="3" t="str">
         <f t="shared" si="206"/>
@@ -23728,13 +23728,13 @@
         <v/>
       </c>
       <c r="AU115" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV115" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AW115" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AX115" s="3" t="str">
         <f t="shared" si="206"/>
@@ -23788,13 +23788,13 @@
     </row>
     <row r="116" spans="2:61" ht="21" customHeight="1">
       <c r="B116" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C116" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J116">
         <v>1700</v>
@@ -23827,7 +23827,7 @@
         <v>1830</v>
       </c>
       <c r="V116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W116" t="str">
         <f t="shared" si="185"/>
@@ -23914,13 +23914,13 @@
         <v/>
       </c>
       <c r="AU116" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV116" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AW116" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AX116" s="3" t="str">
         <f t="shared" si="206"/>
@@ -23980,7 +23980,7 @@
         <v>55</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J117">
         <v>1400</v>
@@ -24107,13 +24107,13 @@
       </c>
       <c r="AR117" s="1"/>
       <c r="AU117" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AV117" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="AW117" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="AW117" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="AX117" s="3" t="str">
         <f t="shared" si="206"/>
@@ -24346,7 +24346,7 @@
         <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -24357,10 +24357,10 @@
         <v>-104.864165</v>
       </c>
       <c r="C12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -24486,7 +24486,7 @@
         <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
@@ -24514,7 +24514,7 @@
         <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -24525,10 +24525,10 @@
         <v>-104.72107</v>
       </c>
       <c r="C24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -24539,10 +24539,10 @@
         <v>-104.71510000000001</v>
       </c>
       <c r="C25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -24553,10 +24553,10 @@
         <v>-104.72270399999999</v>
       </c>
       <c r="C26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -24567,10 +24567,10 @@
         <v>-104.71393999999999</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -24581,10 +24581,10 @@
         <v>-104.7167</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -24595,10 +24595,10 @@
         <v>-104.71691</v>
       </c>
       <c r="C29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -24609,10 +24609,10 @@
         <v>-104.71639</v>
       </c>
       <c r="C30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" t="s">
         <v>377</v>
-      </c>
-      <c r="D30" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75">
@@ -24623,10 +24623,10 @@
         <v>-104.71841430000001</v>
       </c>
       <c r="C31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75">
@@ -24637,10 +24637,10 @@
         <v>-104.71903</v>
       </c>
       <c r="C32" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -24651,10 +24651,10 @@
         <v>-104.8244246</v>
       </c>
       <c r="C33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75">
@@ -24665,10 +24665,10 @@
         <v>-104.827124</v>
       </c>
       <c r="C34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -24679,10 +24679,10 @@
         <v>-104.81879170000001</v>
       </c>
       <c r="C35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
@@ -24693,10 +24693,10 @@
         <v>-104.82262</v>
       </c>
       <c r="C36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -24707,10 +24707,10 @@
         <v>-104.8184667</v>
       </c>
       <c r="C37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75">
@@ -24721,10 +24721,10 @@
         <v>-104.8235583</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -24735,10 +24735,10 @@
         <v>-104.822571</v>
       </c>
       <c r="C39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -24749,10 +24749,10 @@
         <v>-104.82375</v>
       </c>
       <c r="C40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -24763,10 +24763,10 @@
         <v>-104.8235583</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -24777,10 +24777,10 @@
         <v>-104.82393</v>
       </c>
       <c r="C42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -24791,10 +24791,10 @@
         <v>-104.82666999999999</v>
       </c>
       <c r="C43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -24805,10 +24805,10 @@
         <v>-104.8226938</v>
       </c>
       <c r="C44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D44" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -24819,10 +24819,10 @@
         <v>-104.8231</v>
       </c>
       <c r="C45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -24833,10 +24833,10 @@
         <v>-104.82272</v>
       </c>
       <c r="C46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -24847,10 +24847,10 @@
         <v>-105.04581</v>
       </c>
       <c r="C47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -24861,10 +24861,10 @@
         <v>-104.85966000000001</v>
       </c>
       <c r="C48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D48" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -24875,10 +24875,10 @@
         <v>-104.87315</v>
       </c>
       <c r="C49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -24889,10 +24889,10 @@
         <v>-104.78243000000001</v>
       </c>
       <c r="C50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -24903,10 +24903,10 @@
         <v>-104.84954</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -24917,10 +24917,10 @@
         <v>-104.8554</v>
       </c>
       <c r="C52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -24931,10 +24931,10 @@
         <v>-104.87358999999999</v>
       </c>
       <c r="C53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -24945,10 +24945,10 @@
         <v>-104.82319819999999</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -24959,10 +24959,10 @@
         <v>-104.82472</v>
       </c>
       <c r="C55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -24973,10 +24973,10 @@
         <v>-104.82538</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D56" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -24987,10 +24987,10 @@
         <v>-104.91367</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -25001,10 +25001,10 @@
         <v>-104.82259999999999</v>
       </c>
       <c r="C58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -25015,10 +25015,10 @@
         <v>-104.7906933</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -25029,10 +25029,10 @@
         <v>-104.79201999999999</v>
       </c>
       <c r="C60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -25043,10 +25043,10 @@
         <v>-104.77376529999999</v>
       </c>
       <c r="C61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -25057,10 +25057,10 @@
         <v>-104.7742415</v>
       </c>
       <c r="C62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D62" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -25071,10 +25071,10 @@
         <v>-104.7947455</v>
       </c>
       <c r="C63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -25085,10 +25085,10 @@
         <v>-104.7764085</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -25099,10 +25099,10 @@
         <v>-104.77398049999999</v>
       </c>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -25113,10 +25113,10 @@
         <v>-104.80538</v>
       </c>
       <c r="C66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -25127,10 +25127,10 @@
         <v>-104.80002</v>
       </c>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -25141,10 +25141,10 @@
         <v>-104.79742</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -25155,10 +25155,10 @@
         <v>-104.80141500000001</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -25169,10 +25169,10 @@
         <v>-104.80368</v>
       </c>
       <c r="C70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D70" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -25183,10 +25183,10 @@
         <v>-104.7687567</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D71" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -25197,10 +25197,10 @@
         <v>-104.75874</v>
       </c>
       <c r="C72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -25211,10 +25211,10 @@
         <v>-104.7575033</v>
       </c>
       <c r="C73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -25225,10 +25225,10 @@
         <v>-104.747446</v>
       </c>
       <c r="C74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -25239,10 +25239,10 @@
         <v>-104.7567483</v>
       </c>
       <c r="C75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D75" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -25253,10 +25253,10 @@
         <v>-104.76197999999999</v>
       </c>
       <c r="C76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D76" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -25267,10 +25267,10 @@
         <v>-104.7684613</v>
       </c>
       <c r="C77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -25281,10 +25281,10 @@
         <v>-104.73662299999999</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -25295,10 +25295,10 @@
         <v>-104.8233</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -25309,10 +25309,10 @@
         <v>-104.71791</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -25323,10 +25323,10 @@
         <v>-104.82729</v>
       </c>
       <c r="C81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -25351,10 +25351,10 @@
         <v>-104.85431</v>
       </c>
       <c r="C83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D83" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -25365,10 +25365,10 @@
         <v>-104.863874</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -25379,7 +25379,7 @@
         <v>-104.82317999999999</v>
       </c>
       <c r="C85" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s">
         <v>145</v>
@@ -25393,10 +25393,10 @@
         <v>-104.82241999999999</v>
       </c>
       <c r="C86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D86" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -25407,10 +25407,10 @@
         <v>-104.81832780000001</v>
       </c>
       <c r="C87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -25421,10 +25421,10 @@
         <v>-104.82402999999999</v>
       </c>
       <c r="C88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -25435,10 +25435,10 @@
         <v>-104.82483999999999</v>
       </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -25449,10 +25449,10 @@
         <v>-104.86452</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D90" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -25463,10 +25463,10 @@
         <v>-104.82414</v>
       </c>
       <c r="C91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -25477,10 +25477,10 @@
         <v>-104.82622000000001</v>
       </c>
       <c r="C92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D92" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -25491,10 +25491,10 @@
         <v>-104.91434</v>
       </c>
       <c r="C93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D93" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -25505,10 +25505,10 @@
         <v>-104.7562155</v>
       </c>
       <c r="C94" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -25519,10 +25519,10 @@
         <v>-104.71706</v>
       </c>
       <c r="C95" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D95" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -25533,10 +25533,10 @@
         <v>-104.86448</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -25547,10 +25547,10 @@
         <v>-104.86297</v>
       </c>
       <c r="C97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D97" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -25561,10 +25561,10 @@
         <v>-104.84134</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -25575,10 +25575,10 @@
         <v>-104.71677099999999</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -25589,10 +25589,10 @@
         <v>-104.83983670000001</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -25603,10 +25603,10 @@
         <v>-104.85939999999999</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -25617,10 +25617,10 @@
         <v>-104.8125695</v>
       </c>
       <c r="C102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D102" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -25631,10 +25631,10 @@
         <v>-104.72629999999999</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -25645,10 +25645,10 @@
         <v>-104.82259000000001</v>
       </c>
       <c r="C104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D104" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -25659,10 +25659,10 @@
         <v>-104.86471</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D105" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -25673,10 +25673,10 @@
         <v>-104.7396383</v>
       </c>
       <c r="C106" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -25687,10 +25687,10 @@
         <v>-104.86696000000001</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D107" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -25701,10 +25701,10 @@
         <v>-104.86066</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -25715,10 +25715,10 @@
         <v>-104.71932</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D109" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -25729,10 +25729,10 @@
         <v>-104.811695</v>
       </c>
       <c r="C110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D110" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -25743,10 +25743,10 @@
         <v>-104.8177993</v>
       </c>
       <c r="C111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D111" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -25757,10 +25757,10 @@
         <v>-104.82487999999999</v>
       </c>
       <c r="C112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -25771,10 +25771,10 @@
         <v>-104.89675</v>
       </c>
       <c r="C113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -25785,10 +25785,10 @@
         <v>-104.8221449</v>
       </c>
       <c r="C114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -25799,10 +25799,10 @@
         <v>-104.8237797</v>
       </c>
       <c r="C115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D115" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -25813,10 +25813,10 @@
         <v>-104.78644</v>
       </c>
       <c r="C116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -25827,10 +25827,10 @@
         <v>-104.80183</v>
       </c>
       <c r="C117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D117" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -25841,10 +25841,10 @@
         <v>-104.72076</v>
       </c>
       <c r="C118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D118" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -25855,10 +25855,10 @@
         <v>-104.83919</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D119" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
